--- a/Harry Potter.xlsx
+++ b/Harry Potter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\Insper\2° Semestre\Ciência dos Dados\Projeto 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\Insper\2° Semestre\Ciência dos Dados\Projeto2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38681A0-B898-4932-9E7A-C783CE2BDF98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2A0D5B-AFC7-4CEC-86FD-AD2B0A1C2915}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,27 +21,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="239">
   <si>
     <t>Treinamento</t>
   </si>
   <si>
-    <t>tudo que eu quero é um fim de semana maratonando harry potter com mts comidinhas</t>
-  </si>
-  <si>
-    <t>rt @wespaina: harry potter e o calice vc me deixa loko</t>
-  </si>
-  <si>
-    <t>rt @chavess72: comer o pequeno almoço fumar um nite e ver o resto dos 4 filmes de harry potter que tenho pra ver</t>
-  </si>
-  <si>
-    <t>eu gosto mm tanto de harry potter que fico mm triste quando percebo q n é real man...</t>
-  </si>
-  <si>
-    <t>hoje eu sonhei com a freira mas eu consegui fazer da freira uma personagem de filme de comédia, sendo que eu tenho… https://t.co/hf83l41pjn</t>
-  </si>
-  <si>
-    <t>@henvieira_m vamos por naqueles quadrinhos vivos do harry potter por favor kkkkkkkk</t>
+    <t>rt @srelfodobby: quando um amigo fala que está passando a gostar de harry potter 
+eu: https://t.co/jqheqtn7kr</t>
   </si>
   <si>
     <t>rt @winniebueno: eu não tenho mais doadores de livros.
@@ -49,39 +35,662 @@
 tenho pedido de uma coleção harry potter para uma unidade do dega…</t>
   </si>
   <si>
-    <t>rt @o_anjo14: o típico gajo que acha que tem a varinha do harry potter no lugar da piroca https://t.co/jswm3mylte</t>
-  </si>
-  <si>
-    <t>minha vó me deu o último livro de harry potter que faltava tô emocionada</t>
+    <t>tirei seu patrono brasileiro é uma capivara!! https://t.co/fqnl8umdzt</t>
+  </si>
+  <si>
+    <t>eu gosto mm tanto de harry potter que fico mm triste quando percebo q n é real man...</t>
+  </si>
+  <si>
+    <t>rt @srelfodobby: todo mundo: cadê harry potter ?
+netflix: https://t.co/75wx1eaqrm</t>
+  </si>
+  <si>
+    <t>rt @henrimoraisreal: e aqui está toda a minha coleção de livros de harry potter! 😍❤💕🧑🏻🧙🏻‍♂️🏰
+porque aqui é potterhead, porra! 😍💕
+#quintade…</t>
+  </si>
+  <si>
+    <t>rt @wespaina: harry potter e o calice vc me deixa loko</t>
+  </si>
+  <si>
+    <t>rt @brunozor: cheguei agora da rua só 
+dia todo no hospital fazendo exame 
+mas finalmente notícias boa 
+meu fígado teve falencia quando e…</t>
+  </si>
+  <si>
+    <t>harry potter e o beijo do vampiro foi tudo pra mim https://t.co/bkkohb73vy</t>
+  </si>
+  <si>
+    <t>tirei seu patrono brasileiro é uma capivara!! https://t.co/hb0gitkdgo</t>
+  </si>
+  <si>
+    <t>rt @pedrotrl: harry potter: onde está o diadema?
+rowena ravenclaw: https://t.co/vk4eajhu6l</t>
+  </si>
+  <si>
+    <t>rt @professordum: procuro amizades que me levem para o parque temático de harry potter em orlando.</t>
+  </si>
+  <si>
+    <t>@netflixbrasil ótimo está faltando alguma coisa ai no meu... cadê harry potter minha amiga?</t>
+  </si>
+  <si>
+    <t>eu vi os índio derrubando harry potter da vassoura</t>
+  </si>
+  <si>
+    <t>kkkkkkk eu inteirinho depois de ler harry potter depois da décima segunda tentativa! https://t.co/xcuel1rmkr</t>
+  </si>
+  <si>
+    <t>qual o próximo? harry potter? talvez vingadores? https://t.co/tt8ac3qrlv</t>
+  </si>
+  <si>
+    <t>nós próximos meses, meus planos:
+- ir comer fondue
+- ir no poa comedy club
+- ir no bar de harry potter
+- rodízio de sushi</t>
+  </si>
+  <si>
+    <t>@camila_cabello caralho harry potter tá diferente ne</t>
+  </si>
+  <si>
+    <t>acabei de acordar e já estou a falar de harry potter kk</t>
+  </si>
+  <si>
+    <t>me sinto completo e feliz depois de assistir um filme do harry potter, nem lembrando dos problemas eu to</t>
+  </si>
+  <si>
+    <t>rt @joovitor2030: o foda é a decepção que sinto da @netflixbrasil  por não ter todos filme do harry potter 🙄</t>
+  </si>
+  <si>
+    <t>rt @victtor_black: eu amo harry potter e só minha opinião importa!</t>
+  </si>
+  <si>
+    <t>o que o harry potter lê quando está doente?
+saramago.</t>
+  </si>
+  <si>
+    <t>favoritei um #style no @spiritoficial - hufflepuff - https://t.co/vzhhszeodm</t>
+  </si>
+  <si>
+    <t>rt @boomfesta: promo rt
+valendo 3 frees pra nossa edição a fantasia especial harry potter!
+dá rt, segue o nosso twitter e confirma presen…</t>
+  </si>
+  <si>
+    <t>help!!!!!!!!! compro e não sobrou nenhum da agatha ou harry potter e a criança amaldiçoada??????????</t>
+  </si>
+  <si>
+    <t>rt @thiegonovais: sua mãe falando pra não comprar qualquer nova edição de harry potter que foi lançada só por que mudou a capa. https://t.c…</t>
+  </si>
+  <si>
+    <t>eu tenho hbo go, netflix e amazon e nenhum deles tem harry potter então whats the point?</t>
+  </si>
+  <si>
+    <t>to lendo harry potter, literatura é tudo.</t>
+  </si>
+  <si>
+    <t>rt @dogorr_mc: queria que tivessem feito mais uns 20 filmes do harry potter</t>
   </si>
   <si>
     <t>imagina daqui 2500 anos que a bíblia for a trilogia harry potter. 
 pq sinceramente, na minha opinião a blíblia sur… https://t.co/s4tnmhsnbq</t>
   </si>
   <si>
+    <t>deixa eu dizer uma coisa sobre a minha dieta: eu vou quebrar para poder comer o combo da sweet &amp;amp; coffee que é do ha… https://t.co/myhhl1mzmo</t>
+  </si>
+  <si>
+    <t>harry potter, versos de um crime, coraline e edward mãos de tesouras https://t.co/1monput5zk</t>
+  </si>
+  <si>
+    <t>@nochu_chanmii mo harry potter é mt bom assista</t>
+  </si>
+  <si>
+    <t>leitura de harry potter na máquina de ressonância magnética (fmri)
+em https://t.co/ujqou7hemy
+#narrativa… https://t.co/w0lmptkbl1</t>
+  </si>
+  <si>
+    <t>vou continuar a minha maratona de harry potter</t>
+  </si>
+  <si>
+    <t>puta merda, o universo de harry potter com certeza é a coisa mais linda que existe nesse mundo, cada coisinha q eu… https://t.co/1wdmj3cxmh</t>
+  </si>
+  <si>
+    <t>rt @paladinigio: eu depois de ler a saga harry potter pela quinta vez pois eh o unico livro q eu leio https://t.co/qz3vi4w8m3</t>
+  </si>
+  <si>
+    <t>eu quando li meu primeiro harry potter https://t.co/ml1znbf8l2</t>
+  </si>
+  <si>
+    <t>rt @billyjonahb: os fãs de harry potter, crepúsculo, da dc, batfam dia 25 de junho de 2021 pra assistir the batman 
+ https://t.co/ayjvldu4mz</t>
+  </si>
+  <si>
+    <t>acordo todo dia feliz por seguir pessoas que entenderam harry potter amem</t>
+  </si>
+  <si>
+    <t>eu odeio os filmes do harry potter, todo mundo que me conhece sabe disso. porém ontem eu baixei um e-book (obviamen… https://t.co/xookp7n9mn</t>
+  </si>
+  <si>
+    <t>você namoraria alguém q sabe todas as falas de harry potter?????</t>
+  </si>
+  <si>
+    <t>rt @cxbeanpancakes: coisa  mais preciosa né tudo isso pro harry enfiar alvo severo potter no filho dele https://t.co/unrizhdvqf</t>
+  </si>
+  <si>
+    <t>fui pegar meu notebook depois de um bom tempo sem usar e percebo que o dvd harry potter da ex tá lá...</t>
+  </si>
+  <si>
+    <t>o cara do meu lado do ônibus tá lendo um livro do harry potter, eu queria ler tb
+moço, posso dar uma espiadinha?</t>
+  </si>
+  <si>
+    <t>@tjipereira o armario do harry potter, ao menos dormia confortável, aqui para adormecer, no dia seguinte nao sei se… https://t.co/cfbhph7qxc</t>
+  </si>
+  <si>
+    <t>to com o cabelo clarissimo e uma camisa do harry potter se me chamarem de draco malfoy na rua vou dar uma pedrada</t>
+  </si>
+  <si>
+    <t>[05/09/2019 2:06:15 am] markus 🖤: mano vc ja viu harry potter e o prisioneiro de azkaban? ate q aparece o maluco la… https://t.co/qqwkpketkr</t>
+  </si>
+  <si>
+    <t>amanhã eu vou ver o castelo do harry potter eu não to bem caraaa</t>
+  </si>
+  <si>
+    <t>eu indicando harry potter. https://t.co/bhj5hltd15</t>
+  </si>
+  <si>
+    <t>meu deus do ceu kkkkkkkkkkkkk
+tirei seu patrono brasileiro é o louro josé!! https://t.co/qevrphi8jx</t>
+  </si>
+  <si>
+    <t>rt @iateraljorge: [05/09/2019 2:06:15 am] markus 🖤: mano vc ja viu harry potter e o prisioneiro de azkaban? ate q aparece o maluco la que p…</t>
+  </si>
+  <si>
+    <t>estudar harry potter é acordar pra esse tweet e pensar "olha ai material pra minha pesquisa" https://t.co/esy1riijhu</t>
+  </si>
+  <si>
+    <t>era só um harry potter msm pprt</t>
+  </si>
+  <si>
+    <t>@netflixbrasil cadê harry potter? 😩💔</t>
+  </si>
+  <si>
+    <t>harry potter é muito bom caralho</t>
+  </si>
+  <si>
+    <t>to muito feliz que comprei o livro do harry potter, criança amaldiçoada</t>
+  </si>
+  <si>
+    <t>rt @haddadjaypee: @oglobopolitica @sf_moro @lulaoficial próxima investigação da pf: o mundo mágico e ficcional de harry potter, onde a grif…</t>
+  </si>
+  <si>
+    <t>nunca assisti harry potter nem star wars e respiro normalmente gente qual o problema</t>
+  </si>
+  <si>
+    <t>estão corretos segundo o evangelho. mas eu ia proibir pq é ruim mesmo!😇 https://t.co/k7zt50wn84</t>
+  </si>
+  <si>
+    <t>eu querendo tomar sorvete assistindo harry potter, a porra da internet não colaborou, larguei o sorvete até de lado, vamos ver se hoje rola</t>
+  </si>
+  <si>
+    <t>coisa  mais preciosa né tudo isso pro harry enfiar alvo severo potter no filho dele https://t.co/unrizhdvqf</t>
+  </si>
+  <si>
+    <t>preciso assistir harry potter! todos... kkkk</t>
+  </si>
+  <si>
+    <t>rt @ggukssy: vocês namorariam alguém que ama harry potter, gosta de ouvir musicas dos anos 80, assiste filmes de ficção científica e que ou…</t>
+  </si>
+  <si>
+    <t>@thicico parece que ele não consegue discernir sobre o que lê. deve ter pegado algumas  frases de livros aleatórios… https://t.co/zb93svnudp</t>
+  </si>
+  <si>
+    <t>eu deveria estar lendo meu livro de recursos, mas vou ler harry potter e o enigma do príncipe,  que é meu livro fav💘</t>
+  </si>
+  <si>
+    <t>rt @memesdohp: "ain, você é velho demais pra gostar de harry potter."
+eu: https://t.co/bvecevl6fi</t>
+  </si>
+  <si>
+    <t>todo mundo já viu pelo menos eu filme de harry potter vamos concordar ne</t>
+  </si>
+  <si>
+    <t>tirei seu patrono brasileiro é o louro josé!! https://t.co/8bp6pimzwj</t>
+  </si>
+  <si>
+    <t>tirei seu patrono brasileiro é um vira lata caramelo!! https://t.co/vmgitzbjxk</t>
+  </si>
+  <si>
+    <t>@netflixbrasil tá faltando harry potter</t>
+  </si>
+  <si>
+    <t>harry potter e o pão em lata (29,90)</t>
+  </si>
+  <si>
+    <t>vou aproveitar que já to acordado pra assistir harry potter c'mon netflix</t>
+  </si>
+  <si>
+    <t>acordada jogando harry potter como se não tivesse penal logo pela manhã. eu mereço choque as vezes</t>
+  </si>
+  <si>
+    <t>depois de harry potter, eu nunca mais fui a mesma. toda vez que vejo algum cachorro, eu falo que é o sirius. quando… https://t.co/j52ql4llcf</t>
+  </si>
+  <si>
+    <t>lendo pela 1° vez harry potter, depois de me declarar potterhead só pq assisti os filmes. https://t.co/7obv1rz1bm</t>
+  </si>
+  <si>
+    <t>@fabcruzuk @marcelo7morais @folha óculos escuros disfarça o olho de harry potter</t>
+  </si>
+  <si>
+    <t>rt @kerberdiego: qual o próximo? harry potter? talvez vingadores? https://t.co/tt8ac3qrlv</t>
+  </si>
+  <si>
+    <t>rt @aniecss: se tem filmes que não vou ver são: vingadores e harry potter. harry porque são 8 filmes, sem paciência e o primeiro também, al…</t>
+  </si>
+  <si>
+    <t>autora de “harry potter” envia feitiço manuscrito para fã tatuar e se livrar da depressão | razões para acreditar https://t.co/khihkziqk0</t>
+  </si>
+  <si>
+    <t>rt @felipesali: sinto falta de uma série de livros que todo mundo acompanha, como foi com harry potter. sinto falta daqueles eventos de mei…</t>
+  </si>
+  <si>
+    <t>aprendendo sobre o universo de harry potter por meio de leituras de fanfic larry no universo de harry potter</t>
+  </si>
+  <si>
+    <t>meu dia tá tão bom, vou chamar de harry potter</t>
+  </si>
+  <si>
+    <t>eu quando descobri que as cenas de harry potter foram gravadas na universidade de oxford /// dps caiu a fixa que na… https://t.co/j7qow10dst</t>
+  </si>
+  <si>
+    <t>@elementarygabe eu tinha uma de harry potter ;(</t>
+  </si>
+  <si>
+    <t>@ocafebelgrado e baita mago! não tem essas magia xoxa de harry potter não</t>
+  </si>
+  <si>
+    <t>@blackf0x_pt mano isso até é parecido com o armário onde o harry potter dormia</t>
+  </si>
+  <si>
+    <t>@netflixbrasil lógico que não!! cadê harry potter? cadê sex education?nota 6 pra você!!!🙄🙄🙄</t>
+  </si>
+  <si>
+    <t>@maisa @netflixbrasil prima, imagina você ser fâ de harry potter e nâo ter todos os filmes disponíveis no catálogo… https://t.co/8dzbpxx6ra</t>
+  </si>
+  <si>
+    <t>lucas disse q n tinha dinheiro e saiu de la com o box de harry potter e o box de instrumentos mortais. queria nao ter dinheiro como ele</t>
+  </si>
+  <si>
+    <t>meu afilhado de 10 anos quer lego de presente, e quer do harry potter.
+não ganhará! https://t.co/uoudvhf6td</t>
+  </si>
+  <si>
+    <t>mano a coleção harry potter da vans tá muito fofa velho tem até tênis pomo de ouro kkkk</t>
+  </si>
+  <si>
+    <t>@winniebueno tenho a coleção harry potter em capa dura, nunca lida, pra doar. vou te chamar na dm!</t>
+  </si>
+  <si>
+    <t>meu sonho: ter os dois primeiros jogos de harry potter, versão ps1, na minha coleção.</t>
+  </si>
+  <si>
+    <t>rt @thebusster666: @netflixbrasil o importante eh o cadê harry potter?</t>
+  </si>
+  <si>
+    <t>trabalhar pra comprar os livros do harry potter e os funko ❤</t>
+  </si>
+  <si>
+    <t>queria que tivessem feito mais uns 20 filmes do harry potter</t>
+  </si>
+  <si>
+    <t>rt @cleytu: melhor filme de harry potter é o cálice de fogo</t>
+  </si>
+  <si>
+    <t>por motivos estranhos eu faço varinhas de harry potter pra sobreviver... e eu não gosto de harry potter.... irônias… https://t.co/b4lge45upt</t>
+  </si>
+  <si>
+    <t>quando li harry potter e a pedra filosofal https://t.co/hmmqdffe6x</t>
+  </si>
+  <si>
+    <t>entrei no uber tava tocando uma versão de doido de rave fudida da musiquinha do harry potter</t>
+  </si>
+  <si>
+    <t>rt @o_anjo14: o típico gajo que acha que tem a varinha do harry potter no lugar da piroca https://t.co/jswm3mylte</t>
+  </si>
+  <si>
+    <t>eu não tenho mais doadores de livros.
+tenho mts pedidos.
+tenho pedido de uma coleção harry potter para uma unidade… https://t.co/ebh3l3j0n9</t>
+  </si>
+  <si>
+    <t>e aqui está toda a minha coleção de livros de harry potter! 😍❤💕🧑🏻🧙🏻‍♂️🏰
+porque aqui é potterhead, porra! 😍💕… https://t.co/o8nsiijziy</t>
+  </si>
+  <si>
+    <t>rt @jhonyfreitaas: não passa na minha cabeça a ideia de alguém não gostar de harry potter</t>
+  </si>
+  <si>
+    <t>tirei seu patrono brasileiro é a cuca!! https://t.co/bfp1u824ke</t>
+  </si>
+  <si>
+    <t>acabei mais um livros do harry potter ❤️</t>
+  </si>
+  <si>
+    <t>@helenaplyra eca parece aquele troço do harry potter que morreu</t>
+  </si>
+  <si>
+    <t>voltei a ler harry potter, e é verdade https://t.co/8j5lemyf33</t>
+  </si>
+  <si>
+    <t>@brunassantoro as coisas de harry potter kkkkk</t>
+  </si>
+  <si>
+    <t>alguém com os livros 2 e 3 do harry potter que queria vender?</t>
+  </si>
+  <si>
+    <t>"a versão do filme de harry potter deu errado, fazendo hermione ser perfeita demais e fazendo ron parecer estranho,… https://t.co/pwjto71ddx</t>
+  </si>
+  <si>
+    <t>@nwttetk a sua agata tem o sinal do harry potter</t>
+  </si>
+  <si>
+    <t>@ginny110881 é esse o espírito! espero que a @tincutaa oiça com atenção os teus ensinamentos sobre harry potter</t>
+  </si>
+  <si>
+    <t>rt @soouza_gabi_: “palavras são, na minha não tão humilde opinião, nossa inesgotável fonte de magia. capazes de ferir e de curar.”
+harry po…</t>
+  </si>
+  <si>
+    <t>entrei no tt e só vejo trem de harry potter
+o que ta acontecendo?</t>
+  </si>
+  <si>
+    <t>gente???
+ https://t.co/fpchqmts1m</t>
+  </si>
+  <si>
+    <t>@astridamanita vc gosta de harry potter maria!! respeitar</t>
+  </si>
+  <si>
+    <t>eu soh queria um fds livre pra poder ficar na minha cama o dia inteiro maratonando harry potter</t>
+  </si>
+  <si>
+    <t>rt @liarsperk: o jake começando a ler harry potter por causa da amy e fazendo referência ao livro quando eu digo meta de relacionamento eu…</t>
+  </si>
+  <si>
+    <t>@antisocialhoes o enigma do príncipe é o pior filme do harry potter</t>
+  </si>
+  <si>
+    <t>se alguém me pisa os meus ténis de harry potter ta morto https://t.co/2m7lxkujmy</t>
+  </si>
+  <si>
+    <t>sdd fazer maratona de harry potter</t>
+  </si>
+  <si>
+    <t>rt @fiambre_c: quero fazer maratona de harry potter :(</t>
+  </si>
+  <si>
+    <t>@buratoduda harry potter, eu choro demais vendo kkjkkkk</t>
+  </si>
+  <si>
+    <t>só qria alguem pra fazer umas comidinhas e maratonar harry potter cmg, my guilty pleasure</t>
+  </si>
+  <si>
+    <t>so quero que volte todos os filmes do harry potter pro netflix</t>
+  </si>
+  <si>
+    <t>rt @rbcgaia: aquele feitiço do harry potter que os homens cis que mandam a rola na dm do nada precisam praticar: wingardium lavearola</t>
+  </si>
+  <si>
+    <t>minha vó me deu o último livro de harry potter que faltava tô emocionada</t>
+  </si>
+  <si>
+    <t>@tuhanyisa estupendo é feitiço do harry potter</t>
+  </si>
+  <si>
+    <t>tirei seu patrono brasileiro é a cuca!! https://t.co/8l7ust3nkp</t>
+  </si>
+  <si>
+    <t>meu pai comprou achando que era harry potter pra servir de chantagem pra eu ler luciola. quando ele viu que eu não… https://t.co/p0fy4xyo8k</t>
+  </si>
+  <si>
+    <t>harry potter e o cálice me deixa louco</t>
+  </si>
+  <si>
+    <t>rt @gugaoshow: já pensou se a humanidade passa por uma grande catástrofe
+e nessas um pequeno grupo começa a reerguer a raça humana, mas el…</t>
+  </si>
+  <si>
+    <t>tirei seu patrono brasileiro é o louro josé!! https://t.co/opl0ktqn3p</t>
+  </si>
+  <si>
+    <t>tirei seu patrono brasileiro é o louro josé!! https://t.co/yuyeqqii5b</t>
+  </si>
+  <si>
+    <t>@winniebueno e biblioteca dentro do degase pode? trabalho em uma unidade de semiliberdade e administro a biblioteca… https://t.co/a7wupftyqf</t>
+  </si>
+  <si>
+    <t>escondida no banheiro da escola lendo harry potter por motivos de vou chorar se continuar nessa aula</t>
+  </si>
+  <si>
+    <t>rt @srgrindelwald_: “harry potter é coisa de criança, cresce” https://t.co/jd9beo1hrb</t>
+  </si>
+  <si>
+    <t>rt @astridonaa: harry potter é muito bom caralho</t>
+  </si>
+  <si>
+    <t>eu depois de ler a saga harry potter pela quinta vez pois eh o unico livro q eu leio https://t.co/qz3vi4w8m3</t>
+  </si>
+  <si>
+    <t>eu: nao sei de nada de harry potter e assisti so os 3 primeiros filmes
+eu tambem: leio uma au enorme no universo de harry potter</t>
+  </si>
+  <si>
+    <t>rt @redfieldfer: eu sei que demoro um bocadinho para atualizar, mas, as minhas fanfics são escritas com muito carinho ❤
+se você gosta de f…</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>rt @juanorlando_16: fãs de harry potter: cadê os filmes de harry potter no catálogo?
+@netflixbrasil: https://t.co/hhxbfxtwnt</t>
+  </si>
+  <si>
+    <t>rt @justdene: harry potter no departamento de mistérios depois de pegar a profecia fuginfo dos comensais da morte
+https://t.co/mv0dvry9aa</t>
+  </si>
+  <si>
+    <t>@bakaaline harry potter eu qro q c foda 
+agr antypical já passou da hora de lançar né 😣</t>
+  </si>
+  <si>
+    <t>rt @submarino: para tudo! vai ter harry potter, sim! \o/ se vc ama ler e ama mais ainda do bruxo mais famoso, fica de olho aqui! 👀
+spoiler…</t>
+  </si>
+  <si>
+    <t>mais engraçado é que eu estava procurando por um veterano que usava ~oculos igual ao do harry potter e sequer imagi… https://t.co/17sfhp4zxa</t>
+  </si>
+  <si>
+    <t>eu sei que a tpm chegou quando ouço a música tema de harry potter vindo da casa do vizinho e começo a chorar ✌🏻</t>
+  </si>
+  <si>
+    <t>okay o meu pai esbanjou os reais na riachuelo e nas havaianas pra nós ai amo tudo harry potter https://t.co/4l8cr688sh</t>
+  </si>
+  <si>
+    <t>chuva+minha cama+ harry potter= dia perfeito</t>
+  </si>
+  <si>
+    <t>você tem 30 anos na cara que mané harry potter o que</t>
+  </si>
+  <si>
     <t>@megapix harry potter e a paçoca filosofal.</t>
   </si>
   <si>
-    <t>tirei seu patrono brasileiro é a cuca!! https://t.co/8l7ust3nkp</t>
-  </si>
-  <si>
-    <t>vejo sua dor pelo prongs e respeito isso, sofro junto inclusive ✊ 
-amo sua capa de perfil que me lembra um dos meu… https://t.co/idrghmws9l</t>
-  </si>
-  <si>
-    <t>rt @thiegonovais: sua mãe falando pra não comprar qualquer nova edição de harry potter que foi lançada só por que mudou a capa. https://t.c…</t>
+    <t>vou processar a netflix por não ter todos os harry potter no catálogo pq meu dvds arranharam tudo de tanto eu assisti</t>
+  </si>
+  <si>
+    <t>rt @bugab00_: melhor bolo de aniversário que eu já me "auto dei" 
+eu tinha feito pra mim mesma ano passado, ficou igualzinho o do filme e…</t>
+  </si>
+  <si>
+    <t>e eu que fui comprar minha mochila do bt21 e dei de cara com essa coleção do harry potter mds https://t.co/wg1utl1cy5</t>
+  </si>
+  <si>
+    <t>fodase vo lê harry potter</t>
+  </si>
+  <si>
+    <t>achei um podcast de harry potter, amo. é bem antiguinho, aí é bom q tem um monte p eu ouvir.</t>
+  </si>
+  <si>
+    <t>harry potter e o enigma de porque eu sou tao trouxa e sem o que fazer</t>
+  </si>
+  <si>
+    <t>@sthefataides tu me chamando pra ver harry potter e dizendo que te estresso</t>
+  </si>
+  <si>
+    <t>rt @fernandomelov: era só um harry potter msm pprt</t>
+  </si>
+  <si>
+    <t>rt @fconegundes: @netflixbrasil deixa de ser emocionada . galera tá dando essa visão da segunda temporada porque gostou da primeira.
+você q…</t>
+  </si>
+  <si>
+    <t>tem um cara lendo harry potter no metro</t>
+  </si>
+  <si>
+    <t>uma dica d quem quer me dar presente de aniversário, tudo de friends, game of thrones, senhor dos anéis, harry pott… https://t.co/ijh0us5vyo</t>
+  </si>
+  <si>
+    <t>acabei de ver harry potter.... vou ver vídeos de idols com 0 neurónios</t>
+  </si>
+  <si>
+    <t>@netflixbrasil mas eu soh quero harry potter po</t>
+  </si>
+  <si>
+    <t>to lendo harry potter de novo pela 1000x caguei com a mas você não tem mais idade 
+é meu recanto feliz oras</t>
+  </si>
+  <si>
+    <t>olhos marejados indo pro trabalho repassando os momentos de harry potter que acabei de ler. já virou rotina.</t>
+  </si>
+  <si>
+    <t>@feelthedr34m_ cabelo bagunçado estilo harry potter ah nao zona de risco demais também</t>
+  </si>
+  <si>
+    <t>comer o pequeno almoço fumar um nite e ver o resto dos 4 filmes de harry potter que tenho pra ver</t>
+  </si>
+  <si>
+    <t>@henvieira_m vamos por naqueles quadrinhos vivos do harry potter por favor kkkkkkkk</t>
+  </si>
+  <si>
+    <t>rt @vintaegy: *musica do harry potter de fundo* https://t.co/v4bi6j7qzh</t>
   </si>
   <si>
     <t>imaginarium pq tão cara? queria tudo do harry potter</t>
   </si>
   <si>
-    <t>tirei seu patrono brasileiro é uma capivara!! https://t.co/hb0gitkdgo</t>
-  </si>
-  <si>
-    <t>puta merda, o universo de harry potter com certeza é a coisa mais linda que existe nesse mundo, cada coisinha q eu… https://t.co/1wdmj3cxmh</t>
-  </si>
-  <si>
-    <t>pintando as unhas e assistindo harry potter amo tudo pra mim</t>
+    <t>por sinal se preparem para um inktober entupido de harry potter! https://t.co/ohpncijymd</t>
+  </si>
+  <si>
+    <t>rt @pjointeractions: perto dos filmes de percy jackson os de harry potter são obras-primas https://t.co/upetrzyvva</t>
+  </si>
+  <si>
+    <t>se tem filmes que não vou ver são: vingadores e harry potter. harry porque são 8 filmes, sem paciência e o primeiro… https://t.co/sht13kx9nb</t>
+  </si>
+  <si>
+    <t>rt @deathaliows: o harry simplesmente nomeou os filhos como se fosse um dos fã de harry potter colocando o nome de dois personagens que ele…</t>
+  </si>
+  <si>
+    <t>me sinto o próprio harry potter</t>
+  </si>
+  <si>
+    <t>rt @rainbowxland: harry potter e a piroca filosofal  https://t.co/v1umhosyt5</t>
+  </si>
+  <si>
+    <t>tudo que eu quero é um fim de semana maratonando harry potter com mts comidinhas</t>
+  </si>
+  <si>
+    <t>vocês leram harry potter com o cu né?</t>
+  </si>
+  <si>
+    <t>quero muito assistir harry potter antes das ferias acabarem</t>
+  </si>
+  <si>
+    <t>harry potter e o mistério do porquê todo homem acha que sabe fazer oral</t>
+  </si>
+  <si>
+    <t>rt @netflixbrasil: todo mundo fica perguntando, "cadê a minha série, netflix?", "cadê a nova temporada, netflix?",  "cadê harry potter, net…</t>
+  </si>
+  <si>
+    <t>olha pros amigos que querem me dar presente e não sabem o que , 
+eu amo canecas 
+eu amo livros 
+amo ursinhos 
+amo q… https://t.co/8hqocepcbs</t>
+  </si>
+  <si>
+    <t>rt @iloveputtaria18: tirei seu patrono brasileiro é uma capivara!! https://t.co/cprqwcz6jz</t>
+  </si>
+  <si>
+    <t>quero fazer maratona de harry potter :(</t>
+  </si>
+  <si>
+    <t>rt @marifroiss: mais engraçado é que eu estava procurando por um veterano que usava ~oculos igual ao do harry potter e sequer imaginei que…</t>
+  </si>
+  <si>
+    <t>rt @chavess72: comer o pequeno almoço fumar um nite e ver o resto dos 4 filmes de harry potter que tenho pra ver</t>
+  </si>
+  <si>
+    <t>rt @jocantanhede_: o livro mais vendido do mundo é a bíblia, todos acreditam em deus
+e o segundo é harry potter
+tem muita gente na igreja…</t>
+  </si>
+  <si>
+    <t>rt @dominikow_: o pior filme do harry potter foi o primeiro, que deu início para a saga https://t.co/mnoinmnrcd</t>
+  </si>
+  <si>
+    <t>pela milésima vez cá estou assistindo harry potter e a ordem da fênix 💚💚</t>
+  </si>
+  <si>
+    <t>netflix colocou 2 filmes do senhor dos anéis, é vai colocar à saga do harry potter... 😭❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>caraliu fui escrever um textinho pra raquel aqui né pra quando ela acordar, perdi o rumo e escrevi o manuscrito de… https://t.co/ya4eet3ici</t>
+  </si>
+  <si>
+    <t>vontade de passar um dia inteirinho deitada assistindo harry potter comendo várias besteiras como antigamente</t>
+  </si>
+  <si>
+    <t>@alefewadrian valdemort kkkkkk, veja harry potter, wadriannn, vc está perdendo todo um universo</t>
+  </si>
+  <si>
+    <t>estava pensando aki,  na ta na hora de sair um novo harry potter: quidditch world cup game</t>
+  </si>
+  <si>
+    <t>só queria ir na disney p ver o parque dos simpsons e do harry potter😐</t>
+  </si>
+  <si>
+    <t>tenho um botton com essa logo e todo infeliz me pergunta se é de harry potter. https://t.co/eevnkn8cqw</t>
+  </si>
+  <si>
+    <t>@helenaplyra tadinho do bixo do harry potter, né? porra</t>
+  </si>
+  <si>
+    <t>maratonando harry potter e indignada que nenhum filme da saga ganhou um mísero oscar</t>
+  </si>
+  <si>
+    <t>mano são 6 da manhã e eu estou a fazer um desafio cmg mesma pra ver quantos personagens do harry potter consigo dizer em um minuto</t>
+  </si>
+  <si>
+    <t>dia 8, diários da eurotour
+- acordei meio dia dps da festa, ainda bem que n teve estágio hoje
+- meus colocs tão in… https://t.co/iweic2qhwa</t>
+  </si>
+  <si>
+    <t>rt @g1: 'maldições e feitiços usados nos livros são de verdade e correm o risco de conjurar espíritos malignos', disse reverendo🧙😕 https://…</t>
   </si>
   <si>
     <t>rt @pottermagic: quem é harry james potter?
@@ -91,700 +700,103 @@
 em biologia, meu med…</t>
   </si>
   <si>
-    <t>leitura de harry potter na máquina de ressonância magnética (fmri)
-em https://t.co/ujqou7hemy
-#narrativa… https://t.co/w0lmptkbl1</t>
-  </si>
-  <si>
-    <t>vocês leram harry potter com o cu né?</t>
-  </si>
-  <si>
-    <t>@nochu_chanmii mo harry potter é mt bom assista</t>
-  </si>
-  <si>
-    <t>help!!!!!!!!! compro e não sobrou nenhum da agatha ou harry potter e a criança amaldiçoada??????????</t>
-  </si>
-  <si>
-    <t>@maisa @netflixbrasil prima, imagina você ser fâ de harry potter e nâo ter todos os filmes disponíveis no catálogo… https://t.co/8dzbpxx6ra</t>
-  </si>
-  <si>
-    <t>rt @boomfesta: promo rt
-valendo 3 frees pra nossa edição a fantasia especial harry potter!
-dá rt, segue o nosso twitter e confirma presen…</t>
-  </si>
-  <si>
-    <t>eu indicando harry potter. https://t.co/bhj5hltd15</t>
-  </si>
-  <si>
-    <t>mano são 6 da manhã e eu estou a fazer um desafio cmg mesma pra ver quantos personagens do harry potter consigo dizer em um minuto</t>
-  </si>
-  <si>
-    <t>rt @llzdra: puta merda, o universo de harry potter com certeza é a coisa mais linda que existe nesse mundo, cada coisinha q eu leio/assisto…</t>
-  </si>
-  <si>
-    <t>@elementarygabe eu tinha uma de harry potter ;(</t>
-  </si>
-  <si>
-    <t>rt @haddadjaypee: @oglobopolitica @sf_moro @lulaoficial próxima investigação da pf: o mundo mágico e ficcional de harry potter, onde a grif…</t>
-  </si>
-  <si>
-    <t>rt @cleytu: melhor filme de harry potter é o cálice de fogo</t>
-  </si>
-  <si>
-    <t>rt @fernandomelov: era só um harry potter msm pprt</t>
-  </si>
-  <si>
-    <t>caraliu fui escrever um textinho pra raquel aqui né pra quando ela acordar, perdi o rumo e escrevi o manuscrito de… https://t.co/ya4eet3ici</t>
-  </si>
-  <si>
-    <t>mais engraçado é que eu estava procurando por um veterano que usava ~oculos igual ao do harry potter e sequer imagi… https://t.co/17sfhp4zxa</t>
-  </si>
-  <si>
-    <t>rt @professordum: procuro amizades que me levem para o parque temático de harry potter em orlando.</t>
-  </si>
-  <si>
-    <t>eu vi os índio derrubando harry potter da vassoura</t>
-  </si>
-  <si>
-    <t>rt @marifroiss: mais engraçado é que eu estava procurando por um veterano que usava ~oculos igual ao do harry potter e sequer imaginei que…</t>
-  </si>
-  <si>
-    <t>@alefewadrian valdemort kkkkkk, veja harry potter, wadriannn, vc está perdendo todo um universo</t>
-  </si>
-  <si>
-    <t>rt @srelfodobby: todo mundo: cadê harry potter ?
-netflix: https://t.co/75wx1eaqrm</t>
-  </si>
-  <si>
-    <t>rt @henrimoraisreal: e aqui está toda a minha coleção de livros de harry potter! 😍❤💕🧑🏻🧙🏻‍♂️🏰
-porque aqui é potterhead, porra! 😍💕
-#quintade…</t>
-  </si>
-  <si>
-    <t>eu não tenho mais doadores de livros.
-tenho mts pedidos.
-tenho pedido de uma coleção harry potter para uma unidade… https://t.co/ebh3l3j0n9</t>
-  </si>
-  <si>
-    <t>eu deveria estar lendo meu livro de recursos, mas vou ler harry potter e o enigma do príncipe,  que é meu livro fav💘</t>
-  </si>
-  <si>
-    <t>rt @astridonaa: harry potter é muito bom caralho</t>
-  </si>
-  <si>
-    <t>@netflixbrasil tá faltando harry potter</t>
-  </si>
-  <si>
-    <t>ordem da fênix é mais que um livro, quanto mais vc lê mais nota a complexidade política do enredo. harry potter sem… https://t.co/lx9n56qqel</t>
-  </si>
-  <si>
-    <t>tirei seu patrono brasileiro é o louro josé!! https://t.co/opl0ktqn3p</t>
-  </si>
-  <si>
-    <t>rt @liarsperk: o jake começando a ler harry potter por causa da amy e fazendo referência ao livro quando eu digo meta de relacionamento eu…</t>
-  </si>
-  <si>
-    <t>@netflixbrasil ótimo está faltando alguma coisa ai no meu... cadê harry potter minha amiga?</t>
-  </si>
-  <si>
-    <t>rt @felipesali: sinto falta de uma série de livros que todo mundo acompanha, como foi com harry potter. sinto falta daqueles eventos de mei…</t>
+    <t>os filmes de harry potter vão estar disponíveis na netflix eu espero n estar sendo tombada de novo</t>
   </si>
   <si>
     <t>eu na 1° série lendo harry potter https://t.co/b60b0ppban</t>
+  </si>
+  <si>
+    <t>rt @rebecadallalio: “o amor forte deixa uma marca própria. não é uma cicatriz, é um sinal visível... ter sido amado tão profundamente, mesm…</t>
+  </si>
+  <si>
+    <t>meu dia foi tão ruim que vou chamar ele de harry potter</t>
+  </si>
+  <si>
+    <t>a pergunta que não quer calar @netflixbrasil cadê harry potter??
+pra ontem</t>
+  </si>
+  <si>
+    <t>eu com 9 anos depois de terminar harry potter https://t.co/paky7b9pcw</t>
+  </si>
+  <si>
+    <t>vou assistir pela primeira vez um filme do harry potter</t>
+  </si>
+  <si>
+    <t>como que tem gente q acha harry potter chato?????</t>
+  </si>
+  <si>
+    <t>pintando as unhas e assistindo harry potter amo tudo pra mim</t>
+  </si>
+  <si>
+    <t>tirei seu patrono brasileiro é uma capivara!! https://t.co/ubnskcewib</t>
+  </si>
+  <si>
+    <t>vou comprar outra blusa do harry potter mas não pode ser da riachuelo nem da renner pq o povo da ueg usam tudo e eu sou diferente</t>
+  </si>
+  <si>
+    <t>rt @ianleao0: vcs namorariam alguém que sabe todas as falas de harry potter?</t>
+  </si>
+  <si>
+    <t>sonhei agr pouco com os personagens de harry potter vivendo uma vida mundana</t>
+  </si>
+  <si>
+    <t>rt @helitonslima: serase algum dia eu vou maratonar harry potter com alguém?</t>
+  </si>
+  <si>
+    <t>cara eu tô tão triste, meu livro do harry potter é a criança amaldiçoada está todo molhado da chuva de ontem.. eu v… https://t.co/mchllmevei</t>
+  </si>
+  <si>
+    <t>harry potter e o enigma do pq essa criatura n fala cmg</t>
+  </si>
+  <si>
+    <t>hoje eu sonhei com a freira mas eu consegui fazer da freira uma personagem de filme de comédia, sendo que eu tenho… https://t.co/hf83l41pjn</t>
+  </si>
+  <si>
+    <t>eu to lendo harry potter e a ordem da fênix né, cheguei na parte que o harry descobre q o pai era um idiota, to chorando até agora</t>
+  </si>
+  <si>
+    <t>saudades de ser adolescente que jogava harry potter no ps2 o dia inteiro sem nenhuma responsabilidade além de escola</t>
+  </si>
+  <si>
+    <t>rt @gwnstci: preciso de alguem que goste de
+stranger things
+one direction 
+one day at a time 
+harry potter 
+marvel
+qualquer filme da disne…</t>
+  </si>
+  <si>
+    <t>não passa na minha cabeça a ideia de alguém não gostar de harry potter</t>
+  </si>
+  <si>
+    <t>rt @dcucomics: a estreia de the batman vai ter fãs de harry potter, crepúsculo e da dc, todos juntos pra enaltecer o robert pattinson.</t>
+  </si>
+  <si>
+    <t>quando vejo que harry potter e o enigma do príncipe é de 2009. eu penso que to ficando velho</t>
+  </si>
+  <si>
+    <t>vejo sua dor pelo prongs e respeito isso, sofro junto inclusive ✊ 
+amo sua capa de perfil que me lembra um dos meu… https://t.co/idrghmws9l</t>
+  </si>
+  <si>
+    <t>to baixando tds os filmes de harry potter pq n aguento mais n conhecer</t>
+  </si>
+  <si>
+    <t>queria ver harry potter mais daí que eu não durmo</t>
   </si>
   <si>
     <t>⚡️ “saiba o motivo de harry potter ter sido proibido em escola nos eua”
 https://t.co/cu63flkfb0</t>
   </si>
   <si>
-    <t>rt @rainbowxland: harry potter e a piroca filosofal  https://t.co/v1umhosyt5</t>
-  </si>
-  <si>
-    <t>@netflixbrasil mas eu soh quero harry potter po</t>
-  </si>
-  <si>
-    <t>amanhã eu vou ver o castelo do harry potter eu não to bem caraaa</t>
-  </si>
-  <si>
-    <t>só queria ir na disney p ver o parque dos simpsons e do harry potter😐</t>
-  </si>
-  <si>
-    <t>to muito feliz que comprei o livro do harry potter, criança amaldiçoada</t>
-  </si>
-  <si>
-    <t>eu odeio os filmes do harry potter, todo mundo que me conhece sabe disso. porém ontem eu baixei um e-book (obviamen… https://t.co/xookp7n9mn</t>
-  </si>
-  <si>
-    <t>@ginny110881 é esse o espírito! espero que a @tincutaa oiça com atenção os teus ensinamentos sobre harry potter</t>
-  </si>
-  <si>
-    <t>harry potter e o pão em lata (29,90)</t>
-  </si>
-  <si>
-    <t>rt @billyjonahb: os fãs de harry potter, crepúsculo, da dc, batfam dia 25 de junho de 2021 pra assistir the batman 
- https://t.co/ayjvldu4mz</t>
-  </si>
-  <si>
-    <t>rt @redfieldfer: eu sei que demoro um bocadinho para atualizar, mas, as minhas fanfics são escritas com muito carinho ❤
-se você gosta de f…</t>
-  </si>
-  <si>
-    <t>rt @dcucomics: a estreia de the batman vai ter fãs de harry potter, crepúsculo e da dc, todos juntos pra enaltecer o robert pattinson.</t>
-  </si>
-  <si>
-    <t>to com o cabelo clarissimo e uma camisa do harry potter se me chamarem de draco malfoy na rua vou dar uma pedrada</t>
-  </si>
-  <si>
-    <t>os filmes de harry potter vão estar disponíveis na netflix eu espero n estar sendo tombada de novo</t>
-  </si>
-  <si>
-    <t>rt @bugab00_: melhor bolo de aniversário que eu já me "auto dei" 
-eu tinha feito pra mim mesma ano passado, ficou igualzinho o do filme e…</t>
-  </si>
-  <si>
-    <t>voltei a ler harry potter, e é verdade https://t.co/8j5lemyf33</t>
-  </si>
-  <si>
-    <t>harry potter é muito bom caralho</t>
-  </si>
-  <si>
-    <t>rt @soouza_gabi_: “palavras são, na minha não tão humilde opinião, nossa inesgotável fonte de magia. capazes de ferir e de curar.”
-harry po…</t>
-  </si>
-  <si>
-    <t>@thicico parece que ele não consegue discernir sobre o que lê. deve ter pegado algumas  frases de livros aleatórios… https://t.co/zb93svnudp</t>
-  </si>
-  <si>
-    <t>vou comprar outra blusa do harry potter mas não pode ser da riachuelo nem da renner pq o povo da ueg usam tudo e eu sou diferente</t>
-  </si>
-  <si>
-    <t>cara eu tô tão triste, meu livro do harry potter é a criança amaldiçoada está todo molhado da chuva de ontem.. eu v… https://t.co/mchllmevei</t>
-  </si>
-  <si>
-    <t>vontade de passar um dia inteirinho deitada assistindo harry potter comendo várias besteiras como antigamente</t>
-  </si>
-  <si>
-    <t>rt @brunozor: cheguei agora da rua só 
-dia todo no hospital fazendo exame 
-mas finalmente notícias boa 
-meu fígado teve falencia quando e…</t>
-  </si>
-  <si>
-    <t>chuva+minha cama+ harry potter= dia perfeito</t>
-  </si>
-  <si>
-    <t>fodase vo lê harry potter</t>
-  </si>
-  <si>
-    <t>@sthefataides tu me chamando pra ver harry potter e dizendo que te estresso</t>
-  </si>
-  <si>
-    <t>não passa na minha cabeça a ideia de alguém não gostar de harry potter</t>
-  </si>
-  <si>
-    <t>rt @thebusster666: @netflixbrasil o importante eh o cadê harry potter?</t>
-  </si>
-  <si>
-    <t>você tem 30 anos na cara que mané harry potter o que</t>
-  </si>
-  <si>
-    <t>entrei no tt e só vejo trem de harry potter
-o que ta acontecendo?</t>
-  </si>
-  <si>
-    <t>okay o meu pai esbanjou os reais na riachuelo e nas havaianas pra nós ai amo tudo harry potter https://t.co/4l8cr688sh</t>
-  </si>
-  <si>
-    <t>olha pros amigos que querem me dar presente e não sabem o que , 
-eu amo canecas 
-eu amo livros 
-amo ursinhos 
-amo q… https://t.co/8hqocepcbs</t>
-  </si>
-  <si>
-    <t>@netflixbrasil lógico que não!! cadê harry potter? cadê sex education?nota 6 pra você!!!🙄🙄🙄</t>
-  </si>
-  <si>
-    <t>você namoraria alguém q sabe todas as falas de harry potter?????</t>
-  </si>
-  <si>
-    <t>rt @paladinigio: eu depois de ler a saga harry potter pela quinta vez pois eh o unico livro q eu leio https://t.co/qz3vi4w8m3</t>
-  </si>
-  <si>
-    <t>maratonando harry potter e indignada que nenhum filme da saga ganhou um mísero oscar</t>
-  </si>
-  <si>
-    <t>eu sei que a tpm chegou quando ouço a música tema de harry potter vindo da casa do vizinho e começo a chorar ✌🏻</t>
-  </si>
-  <si>
-    <t>tenho um botton com essa logo e todo infeliz me pergunta se é de harry potter. https://t.co/eevnkn8cqw</t>
-  </si>
-  <si>
-    <t>rt @juanorlando_16: fãs de harry potter: cadê os filmes de harry potter no catálogo?
-@netflixbrasil: https://t.co/hhxbfxtwnt</t>
-  </si>
-  <si>
-    <t>tirei seu patrono brasileiro é o louro josé!! https://t.co/yuyeqqii5b</t>
-  </si>
-  <si>
-    <t>netflix colocou 2 filmes do senhor dos anéis, é vai colocar à saga do harry potter... 😭❤️❤️❤️</t>
-  </si>
-  <si>
-    <t>só qria alguem pra fazer umas comidinhas e maratonar harry potter cmg, my guilty pleasure</t>
-  </si>
-  <si>
-    <t>rt @dogorr_mc: queria que tivessem feito mais uns 20 filmes do harry potter</t>
-  </si>
-  <si>
-    <t>rt @ianleao0: vcs namorariam alguém que sabe todas as falas de harry potter?</t>
-  </si>
-  <si>
-    <t>@ocafebelgrado e baita mago! não tem essas magia xoxa de harry potter não</t>
-  </si>
-  <si>
-    <t>[05/09/2019 2:06:15 am] markus 🖤: mano vc ja viu harry potter e o prisioneiro de azkaban? ate q aparece o maluco la… https://t.co/qqwkpketkr</t>
-  </si>
-  <si>
-    <t>rt @g1: 'maldições e feitiços usados nos livros são de verdade e correm o risco de conjurar espíritos malignos', disse reverendo🧙😕 https://…</t>
-  </si>
-  <si>
-    <t>mano a coleção harry potter da vans tá muito fofa velho tem até tênis pomo de ouro kkkk</t>
-  </si>
-  <si>
-    <t>autora de “harry potter” envia feitiço manuscrito para fã tatuar e se livrar da depressão | razões para acreditar https://t.co/khihkziqk0</t>
-  </si>
-  <si>
-    <t>rt @kerberdiego: qual o próximo? harry potter? talvez vingadores? https://t.co/tt8ac3qrlv</t>
-  </si>
-  <si>
-    <t>meu pai comprou achando que era harry potter pra servir de chantagem pra eu ler luciola. quando ele viu que eu não… https://t.co/p0fy4xyo8k</t>
-  </si>
-  <si>
-    <t>estava pensando aki,  na ta na hora de sair um novo harry potter: quidditch world cup game</t>
-  </si>
-  <si>
     <t>@thalesos minha professora todo dia cobrando os 40% extras por lidar com gente que ainda no 1° ano do ensino médio… https://t.co/sct1vprtnq</t>
   </si>
   <si>
-    <t>to lendo harry potter, literatura é tudo.</t>
-  </si>
-  <si>
-    <t>queria ver harry potter mais daí que eu não durmo</t>
-  </si>
-  <si>
-    <t>harry potter e o enigma de porque eu sou tao trouxa e sem o que fazer</t>
-  </si>
-  <si>
-    <t>netflix tá enrolando pra por harry potter no catálogo até hoje em, pqp</t>
-  </si>
-  <si>
-    <t>rt @cxbeanpancakes: coisa  mais preciosa né tudo isso pro harry enfiar alvo severo potter no filho dele https://t.co/unrizhdvqf</t>
-  </si>
-  <si>
-    <t>rt @gugaoshow: já pensou se a humanidade passa por uma grande catástrofe
-e nessas um pequeno grupo começa a reerguer a raça humana, mas el…</t>
-  </si>
-  <si>
-    <t>@camila_cabello caralho harry potter tá diferente ne</t>
-  </si>
-  <si>
-    <t>o cara do meu lado do ônibus tá lendo um livro do harry potter, eu queria ler tb
-moço, posso dar uma espiadinha?</t>
-  </si>
-  <si>
-    <t>escondida no banheiro da escola lendo harry potter por motivos de vou chorar se continuar nessa aula</t>
-  </si>
-  <si>
-    <t>rt @srgrindelwald_: “harry potter é coisa de criança, cresce” https://t.co/jd9beo1hrb</t>
-  </si>
-  <si>
-    <t>@astridamanita vc gosta de harry potter maria!! respeitar</t>
-  </si>
-  <si>
-    <t>como que tem gente q acha harry potter chato?????</t>
-  </si>
-  <si>
-    <t>kkkkkkk eu inteirinho depois de ler harry potter depois da décima segunda tentativa! https://t.co/xcuel1rmkr</t>
-  </si>
-  <si>
-    <t>vou aproveitar que já to acordado pra assistir harry potter c'mon netflix</t>
-  </si>
-  <si>
-    <t>alguém com os livros 2 e 3 do harry potter que queria vender?</t>
-  </si>
-  <si>
-    <t>rt @memesdohp: "ain, você é velho demais pra gostar de harry potter."
-eu: https://t.co/bvecevl6fi</t>
-  </si>
-  <si>
-    <t>tem um cara lendo harry potter no metro</t>
-  </si>
-  <si>
-    <t>coisa  mais preciosa né tudo isso pro harry enfiar alvo severo potter no filho dele https://t.co/unrizhdvqf</t>
-  </si>
-  <si>
-    <t>o que o harry potter lê quando está doente?
-saramago.</t>
-  </si>
-  <si>
-    <t>vou assistir pela primeira vez um filme do harry potter</t>
-  </si>
-  <si>
-    <t>tirei seu patrono brasileiro é uma capivara!! https://t.co/fqnl8umdzt</t>
-  </si>
-  <si>
-    <t>meu afilhado de 10 anos quer lego de presente, e quer do harry potter.
-não ganhará! https://t.co/uoudvhf6td</t>
-  </si>
-  <si>
-    <t>rt @aniecss: se tem filmes que não vou ver são: vingadores e harry potter. harry porque são 8 filmes, sem paciência e o primeiro também, al…</t>
-  </si>
-  <si>
-    <t>rt @rebecadallalio: “o amor forte deixa uma marca própria. não é uma cicatriz, é um sinal visível... ter sido amado tão profundamente, mesm…</t>
-  </si>
-  <si>
-    <t>quero fazer maratona de harry potter :(</t>
-  </si>
-  <si>
-    <t>depois de harry potter, eu nunca mais fui a mesma. toda vez que vejo algum cachorro, eu falo que é o sirius. quando… https://t.co/j52ql4llcf</t>
-  </si>
-  <si>
-    <t>tirei seu patrono brasileiro é a cuca!! https://t.co/bfp1u824ke</t>
-  </si>
-  <si>
-    <t>fui pegar meu notebook depois de um bom tempo sem usar e percebo que o dvd harry potter da ex tá lá...</t>
-  </si>
-  <si>
-    <t>trabalhar pra comprar os livros do harry potter e os funko ❤</t>
-  </si>
-  <si>
-    <t>vou processar a netflix por não ter todos os harry potter no catálogo pq meu dvds arranharam tudo de tanto eu assisti</t>
-  </si>
-  <si>
-    <t>qual o próximo? harry potter? talvez vingadores? https://t.co/tt8ac3qrlv</t>
-  </si>
-  <si>
-    <t>se alguém me pisa os meus ténis de harry potter ta morto https://t.co/2m7lxkujmy</t>
-  </si>
-  <si>
-    <t>por sinal se preparem para um inktober entupido de harry potter! https://t.co/ohpncijymd</t>
-  </si>
-  <si>
-    <t>se tem filmes que não vou ver são: vingadores e harry potter. harry porque são 8 filmes, sem paciência e o primeiro… https://t.co/sht13kx9nb</t>
-  </si>
-  <si>
-    <t>achei um podcast de harry potter, amo. é bem antiguinho, aí é bom q tem um monte p eu ouvir.</t>
-  </si>
-  <si>
-    <t>acordada jogando harry potter como se não tivesse penal logo pela manhã. eu mereço choque as vezes</t>
-  </si>
-  <si>
-    <t>rt @jhonyfreitaas: não passa na minha cabeça a ideia de alguém não gostar de harry potter</t>
-  </si>
-  <si>
-    <t>@helenaplyra tadinho do bixo do harry potter, né? porra</t>
-  </si>
-  <si>
-    <t>eu querendo tomar sorvete assistindo harry potter, a porra da internet não colaborou, larguei o sorvete até de lado, vamos ver se hoje rola</t>
-  </si>
-  <si>
-    <t>to baixando tds os filmes de harry potter pq n aguento mais n conhecer</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>comer o pequeno almoço fumar um nite e ver o resto dos 4 filmes de harry potter que tenho pra ver</t>
-  </si>
-  <si>
-    <t>deixa eu dizer uma coisa sobre a minha dieta: eu vou quebrar para poder comer o combo da sweet &amp;amp; coffee que é do ha… https://t.co/myhhl1mzmo</t>
-  </si>
-  <si>
-    <t>sonhei agr pouco com os personagens de harry potter vivendo uma vida mundana</t>
-  </si>
-  <si>
-    <t>tirei seu patrono brasileiro é uma capivara!! https://t.co/ubnskcewib</t>
-  </si>
-  <si>
-    <t>@antisocialhoes o enigma do príncipe é o pior filme do harry potter</t>
-  </si>
-  <si>
-    <t>lendo pela 1° vez harry potter, depois de me declarar potterhead só pq assisti os filmes. https://t.co/7obv1rz1bm</t>
-  </si>
-  <si>
-    <t>rt @iloveputtaria18: tirei seu patrono brasileiro é uma capivara!! https://t.co/cprqwcz6jz</t>
-  </si>
-  <si>
-    <t>rt @rbcgaia: aquele feitiço do harry potter que os homens cis que mandam a rola na dm do nada precisam praticar: wingardium lavearola</t>
-  </si>
-  <si>
-    <t>eu depois de ler a saga harry potter pela quinta vez pois eh o unico livro q eu leio https://t.co/qz3vi4w8m3</t>
-  </si>
-  <si>
-    <t>gente???
- https://t.co/fpchqmts1m</t>
-  </si>
-  <si>
-    <t>eu tenho hbo go, netflix e amazon e nenhum deles tem harry potter então whats the point?</t>
-  </si>
-  <si>
-    <t>rt @srelfodobby: quando um amigo fala que está passando a gostar de harry potter 
-eu: https://t.co/jqheqtn7kr</t>
-  </si>
-  <si>
-    <t>sdd fazer maratona de harry potter</t>
-  </si>
-  <si>
-    <t>acabei de ver harry potter.... vou ver vídeos de idols com 0 neurónios</t>
-  </si>
-  <si>
-    <t>rt @vintaegy: *musica do harry potter de fundo* https://t.co/v4bi6j7qzh</t>
-  </si>
-  <si>
-    <t>rt @fiambre_c: quero fazer maratona de harry potter :(</t>
-  </si>
-  <si>
-    <t>quando vejo que harry potter e o enigma do príncipe é de 2009. eu penso que to ficando velho</t>
-  </si>
-  <si>
-    <t>rt @iateraljorge: [05/09/2019 2:06:15 am] markus 🖤: mano vc ja viu harry potter e o prisioneiro de azkaban? ate q aparece o maluco la que p…</t>
-  </si>
-  <si>
-    <t>rt @netflixbrasil: todo mundo fica perguntando, "cadê a minha série, netflix?", "cadê a nova temporada, netflix?",  "cadê harry potter, net…</t>
-  </si>
-  <si>
-    <t>rt @joovitor2030: o foda é a decepção que sinto da @netflixbrasil  por não ter todos filme do harry potter 🙄</t>
-  </si>
-  <si>
-    <t>lucas disse q n tinha dinheiro e saiu de la com o box de harry potter e o box de instrumentos mortais. queria nao ter dinheiro como ele</t>
-  </si>
-  <si>
-    <t>acabei mais um livros do harry potter ❤️</t>
-  </si>
-  <si>
-    <t>dia 8, diários da eurotour
-- acordei meio dia dps da festa, ainda bem que n teve estágio hoje
-- meus colocs tão in… https://t.co/iweic2qhwa</t>
-  </si>
-  <si>
-    <t>@feelthedr34m_ cabelo bagunçado estilo harry potter ah nao zona de risco demais também</t>
-  </si>
-  <si>
-    <t>@netflixbrasil cadê harry potter? 😩💔</t>
-  </si>
-  <si>
-    <t>entrei no uber tava tocando uma versão de doido de rave fudida da musiquinha do harry potter</t>
-  </si>
-  <si>
-    <t>por motivos estranhos eu faço varinhas de harry potter pra sobreviver... e eu não gosto de harry potter.... irônias… https://t.co/b4lge45upt</t>
-  </si>
-  <si>
-    <t>harry potter e o mistério do porquê todo homem acha que sabe fazer oral</t>
-  </si>
-  <si>
-    <t>to lendo harry potter de novo pela 1000x caguei com a mas você não tem mais idade 
-é meu recanto feliz oras</t>
-  </si>
-  <si>
-    <t>meu sonho: ter os dois primeiros jogos de harry potter, versão ps1, na minha coleção.</t>
-  </si>
-  <si>
-    <t>@bakaaline harry potter eu qro q c foda 
-agr antypical já passou da hora de lançar né 😣</t>
-  </si>
-  <si>
-    <t>harry potter e o cálice me deixa louco</t>
-  </si>
-  <si>
-    <t>queria que tivessem feito mais uns 20 filmes do harry potter</t>
-  </si>
-  <si>
-    <t>@winniebueno e biblioteca dentro do degase pode? trabalho em uma unidade de semiliberdade e administro a biblioteca… https://t.co/a7wupftyqf</t>
-  </si>
-  <si>
-    <t>aprendendo sobre o universo de harry potter por meio de leituras de fanfic larry no universo de harry potter</t>
-  </si>
-  <si>
-    <t>eu com 9 anos depois de terminar harry potter https://t.co/paky7b9pcw</t>
-  </si>
-  <si>
-    <t>rt @cleytu: harry potter é um filme que eu gosto de assistir tanto dublado quanto legendado</t>
-  </si>
-  <si>
-    <t>@buratoduda harry potter, eu choro demais vendo kkjkkkk</t>
-  </si>
-  <si>
-    <t>rt @jocantanhede_: o livro mais vendido do mundo é a bíblia, todos acreditam em deus
-e o segundo é harry potter
-tem muita gente na igreja…</t>
-  </si>
-  <si>
-    <t>quando li harry potter e a pedra filosofal https://t.co/hmmqdffe6x</t>
-  </si>
-  <si>
-    <t>meu deus do ceu kkkkkkkkkkkkk
-tirei seu patrono brasileiro é o louro josé!! https://t.co/qevrphi8jx</t>
-  </si>
-  <si>
-    <t>nós próximos meses, meus planos:
-- ir comer fondue
-- ir no poa comedy club
-- ir no bar de harry potter
-- rodízio de sushi</t>
-  </si>
-  <si>
-    <t>@winniebueno tenho a coleção harry potter em capa dura, nunca lida, pra doar. vou te chamar na dm!</t>
-  </si>
-  <si>
-    <t>rt @helitonslima: serase algum dia eu vou maratonar harry potter com alguém?</t>
-  </si>
-  <si>
-    <t>todo mundo já viu pelo menos eu filme de harry potter vamos concordar ne</t>
-  </si>
-  <si>
-    <t>me sinto o próprio harry potter</t>
+    <t>rt @llzdra: puta merda, o universo de harry potter com certeza é a coisa mais linda que existe nesse mundo, cada coisinha q eu leio/assisto…</t>
   </si>
   <si>
     <t>rt @dattebayogaara: harry potter e o enigma de porque eu sou tao trouxa e sem o que fazer</t>
-  </si>
-  <si>
-    <t>olhos marejados indo pro trabalho repassando os momentos de harry potter que acabei de ler. já virou rotina.</t>
-  </si>
-  <si>
-    <t>@tjipereira o armario do harry potter, ao menos dormia confortável, aqui para adormecer, no dia seguinte nao sei se… https://t.co/cfbhph7qxc</t>
-  </si>
-  <si>
-    <t>saudades de ser adolescente que jogava harry potter no ps2 o dia inteiro sem nenhuma responsabilidade além de escola</t>
-  </si>
-  <si>
-    <t>meu dia foi tão ruim que vou chamar ele de harry potter</t>
-  </si>
-  <si>
-    <t>rt @pedrotrl: harry potter: onde está o diadema?
-rowena ravenclaw: https://t.co/vk4eajhu6l</t>
-  </si>
-  <si>
-    <t>rt @ggukssy: vocês namorariam alguém que ama harry potter, gosta de ouvir musicas dos anos 80, assiste filmes de ficção científica e que ou…</t>
-  </si>
-  <si>
-    <t>estão corretos segundo o evangelho. mas eu ia proibir pq é ruim mesmo!😇 https://t.co/k7zt50wn84</t>
-  </si>
-  <si>
-    <t>a pergunta que não quer calar @netflixbrasil cadê harry potter??
-pra ontem</t>
-  </si>
-  <si>
-    <t>estudar harry potter é acordar pra esse tweet e pensar "olha ai material pra minha pesquisa" https://t.co/esy1riijhu</t>
-  </si>
-  <si>
-    <t>rt @pjointeractions: perto dos filmes de percy jackson os de harry potter são obras-primas https://t.co/upetrzyvva</t>
-  </si>
-  <si>
-    <t>eu to lendo harry potter e a ordem da fênix né, cheguei na parte que o harry descobre q o pai era um idiota, to chorando até agora</t>
-  </si>
-  <si>
-    <t>@brunassantoro as coisas de harry potter kkkkk</t>
-  </si>
-  <si>
-    <t>preciso assistir harry potter! todos... kkkk</t>
-  </si>
-  <si>
-    <t>rt @justdene: harry potter no departamento de mistérios depois de pegar a profecia fuginfo dos comensais da morte
-https://t.co/mv0dvry9aa</t>
-  </si>
-  <si>
-    <t>rt @joice_kauana_: vontade louca de maratonar harry potter dnv aaaaaa</t>
-  </si>
-  <si>
-    <t>acordo todo dia feliz por seguir pessoas que entenderam harry potter amem</t>
-  </si>
-  <si>
-    <t>@fabcruzuk @marcelo7morais @folha óculos escuros disfarça o olho de harry potter</t>
-  </si>
-  <si>
-    <t>uma dica d quem quer me dar presente de aniversário, tudo de friends, game of thrones, senhor dos anéis, harry pott… https://t.co/ijh0us5vyo</t>
-  </si>
-  <si>
-    <t>vou continuar a minha maratona de harry potter</t>
-  </si>
-  <si>
-    <t>rt @dominikow_: o pior filme do harry potter foi o primeiro, que deu início para a saga https://t.co/mnoinmnrcd</t>
-  </si>
-  <si>
-    <t>tirei seu patrono brasileiro é um vira lata caramelo!! https://t.co/vmgitzbjxk</t>
-  </si>
-  <si>
-    <t>rt @submarino: para tudo! vai ter harry potter, sim! \o/ se vc ama ler e ama mais ainda do bruxo mais famoso, fica de olho aqui! 👀
-spoiler…</t>
-  </si>
-  <si>
-    <t>@helenaplyra eca parece aquele troço do harry potter que morreu</t>
-  </si>
-  <si>
-    <t>meu dia tá tão bom, vou chamar de harry potter</t>
-  </si>
-  <si>
-    <t>era só um harry potter msm pprt</t>
-  </si>
-  <si>
-    <t>harry potter e o beijo do vampiro foi tudo pra mim https://t.co/bkkohb73vy</t>
-  </si>
-  <si>
-    <t>pela milésima vez cá estou assistindo harry potter e a ordem da fênix 💚💚</t>
-  </si>
-  <si>
-    <t>e aqui está toda a minha coleção de livros de harry potter! 😍❤💕🧑🏻🧙🏻‍♂️🏰
-porque aqui é potterhead, porra! 😍💕… https://t.co/o8nsiijziy</t>
-  </si>
-  <si>
-    <t>me sinto completo e feliz depois de assistir um filme do harry potter, nem lembrando dos problemas eu to</t>
-  </si>
-  <si>
-    <t>@tuhanyisa estupendo é feitiço do harry potter</t>
-  </si>
-  <si>
-    <t>acabei de acordar e já estou a falar de harry potter kk</t>
-  </si>
-  <si>
-    <t>harry potter e o enigma do pq essa criatura n fala cmg</t>
-  </si>
-  <si>
-    <t>favoritei um #style no @spiritoficial - hufflepuff - https://t.co/vzhhszeodm</t>
-  </si>
-  <si>
-    <t>rt @victtor_black: eu amo harry potter e só minha opinião importa!</t>
-  </si>
-  <si>
-    <t>@nwttetk a sua agata tem o sinal do harry potter</t>
-  </si>
-  <si>
-    <t>quero muito assistir harry potter antes das ferias acabarem</t>
-  </si>
-  <si>
-    <t>rt @deathaliows: o harry simplesmente nomeou os filhos como se fosse um dos fã de harry potter colocando o nome de dois personagens que ele…</t>
-  </si>
-  <si>
-    <t>@blackf0x_pt mano isso até é parecido com o armário onde o harry potter dormia</t>
-  </si>
-  <si>
-    <t>eu quando li meu primeiro harry potter https://t.co/ml1znbf8l2</t>
-  </si>
-  <si>
-    <t>eu quando descobri que as cenas de harry potter foram gravadas na universidade de oxford /// dps caiu a fixa que na… https://t.co/j7qow10dst</t>
-  </si>
-  <si>
-    <t>"a versão do filme de harry potter deu errado, fazendo hermione ser perfeita demais e fazendo ron parecer estranho,… https://t.co/pwjto71ddx</t>
-  </si>
-  <si>
-    <t>eu: nao sei de nada de harry potter e assisti so os 3 primeiros filmes
-eu tambem: leio uma au enorme no universo de harry potter</t>
-  </si>
-  <si>
-    <t>so quero que volte todos os filmes do harry potter pro netflix</t>
-  </si>
-  <si>
-    <t>rt @fconegundes: @netflixbrasil deixa de ser emocionada . galera tá dando essa visão da segunda temporada porque gostou da primeira.
-você q…</t>
   </si>
   <si>
     <t>Classificação</t>
@@ -794,7 +806,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +816,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -846,12 +866,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,119 +1211,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView topLeftCell="A283" workbookViewId="0">
-      <selection activeCell="A300" sqref="A300"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="139.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="139.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -1317,37 +1339,37 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
@@ -1357,102 +1379,102 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -1462,52 +1484,52 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -1527,17 +1549,17 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
@@ -1547,52 +1569,52 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
@@ -1602,22 +1624,22 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -1632,7 +1654,7 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -1642,7 +1664,7 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
@@ -1652,42 +1674,42 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
@@ -1702,37 +1724,37 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -1747,122 +1769,122 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>65</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
@@ -1877,72 +1899,72 @@
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -1952,7 +1974,7 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
@@ -1962,17 +1984,17 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
@@ -1982,62 +2004,62 @@
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
@@ -2047,172 +2069,172 @@
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>2</v>
+        <v>98</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
@@ -2222,7 +2244,7 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
@@ -2232,37 +2254,37 @@
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
@@ -2272,12 +2294,12 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
@@ -2287,62 +2309,62 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
@@ -2352,27 +2374,27 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
@@ -2382,87 +2404,87 @@
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>2</v>
+        <v>127</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
@@ -2472,22 +2494,22 @@
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
@@ -2497,12 +2519,12 @@
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>7</v>
+        <v>132</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
@@ -2512,27 +2534,27 @@
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>2</v>
+        <v>136</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
@@ -2542,67 +2564,67 @@
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>126</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
@@ -2617,97 +2639,97 @@
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>134</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>143</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2719,71 +2741,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="139.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="135.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2793,87 +2815,87 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -2883,37 +2905,37 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
@@ -2923,17 +2945,17 @@
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
@@ -2943,37 +2965,37 @@
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -2983,22 +3005,22 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -3008,142 +3030,142 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>176</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -3153,17 +3175,17 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>180</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
@@ -3173,52 +3195,52 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>183</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>2</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>187</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
@@ -3228,157 +3250,157 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>189</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>191</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>192</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>193</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>2</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>2</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>196</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>197</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>201</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>202</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>205</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
@@ -3388,52 +3410,52 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>2</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>2</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
@@ -3443,7 +3465,7 @@
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
@@ -3453,17 +3475,17 @@
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>209</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -3473,167 +3495,167 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>2</v>
+        <v>216</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>213</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>219</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>7</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2</v>
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>220</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>221</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>224</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>7</v>
+        <v>228</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>226</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>30</v>
+        <v>229</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>227</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>230</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>228</v>
+        <v>121</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
@@ -3643,12 +3665,12 @@
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
@@ -3658,42 +3680,42 @@
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>230</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>100</v>
+        <v>232</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2</v>
+        <v>233</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>232</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>233</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>2</v>
+        <v>235</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
@@ -3708,27 +3730,27 @@
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>234</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>2</v>
+        <v>236</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Harry Potter.xlsx
+++ b/Harry Potter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\Insper\2° Semestre\Ciência dos Dados\Projeto2_CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Insper\2019.2\Cie Dados\Projeto2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91004E1A-C461-4A7F-8155-A8ED42E3890B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="6_{B7FBC429-D145-455E-9D0A-A67D4BC6C97C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{CC17D9D5-495D-46BF-9A8F-AF93B8036419}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="239">
   <si>
     <t>Treinamento</t>
   </si>
@@ -793,12 +793,21 @@
   <si>
     <t>Classificação</t>
   </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -808,6 +817,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -850,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -859,6 +876,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1201,17 +1221,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="139.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="139.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,1847 +1239,2146 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>49</v>
       </c>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>50</v>
       </c>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>51</v>
       </c>
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>52</v>
       </c>
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>16</v>
       </c>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>16</v>
       </c>
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>54</v>
       </c>
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>55</v>
       </c>
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>56</v>
       </c>
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>16</v>
       </c>
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>57</v>
       </c>
-      <c r="B101" s="3"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>4</v>
       </c>
-      <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>59</v>
       </c>
-      <c r="B105" s="3"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>60</v>
       </c>
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>61</v>
       </c>
-      <c r="B107" s="3"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>62</v>
       </c>
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>63</v>
       </c>
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>64</v>
       </c>
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>65</v>
       </c>
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>66</v>
       </c>
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>4</v>
       </c>
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>67</v>
       </c>
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>68</v>
       </c>
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>36</v>
       </c>
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>16</v>
       </c>
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>16</v>
       </c>
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>69</v>
       </c>
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>70</v>
       </c>
-      <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>4</v>
       </c>
-      <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>71</v>
       </c>
-      <c r="B124" s="3"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="3"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>4</v>
       </c>
-      <c r="B126" s="3"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>72</v>
       </c>
-      <c r="B127" s="3"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>73</v>
       </c>
-      <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>4</v>
       </c>
-      <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>74</v>
       </c>
-      <c r="B131" s="3"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>75</v>
       </c>
-      <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
-      <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>76</v>
       </c>
-      <c r="B135" s="3"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>4</v>
       </c>
-      <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>77</v>
       </c>
-      <c r="B137" s="3"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>4</v>
       </c>
-      <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>78</v>
       </c>
-      <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>79</v>
       </c>
-      <c r="B140" s="3"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>4</v>
       </c>
-      <c r="B141" s="3"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>4</v>
       </c>
-      <c r="B142" s="3"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>80</v>
       </c>
-      <c r="B143" s="3"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>16</v>
       </c>
-      <c r="B144" s="3"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>4</v>
       </c>
-      <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>36</v>
       </c>
-      <c r="B146" s="3"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>81</v>
       </c>
-      <c r="B147" s="3"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>16</v>
       </c>
-      <c r="B148" s="3"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>82</v>
       </c>
-      <c r="B149" s="3"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>83</v>
       </c>
-      <c r="B150" s="3"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>16</v>
       </c>
       <c r="B151" s="3"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>84</v>
       </c>
       <c r="B152" s="3"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>4</v>
       </c>
       <c r="B153" s="3"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>85</v>
       </c>
       <c r="B154" s="3"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>4</v>
       </c>
       <c r="B155" s="3"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>86</v>
       </c>
       <c r="B156" s="3"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>4</v>
       </c>
       <c r="B157" s="3"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>36</v>
       </c>
       <c r="B158" s="3"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>87</v>
       </c>
       <c r="B159" s="3"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>4</v>
       </c>
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>88</v>
       </c>
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>16</v>
       </c>
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>16</v>
       </c>
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>89</v>
       </c>
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>90</v>
       </c>
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>4</v>
       </c>
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>91</v>
       </c>
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>16</v>
       </c>
       <c r="B168" s="3"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>92</v>
       </c>
       <c r="B169" s="3"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>93</v>
       </c>
       <c r="B170" s="3"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>4</v>
       </c>
       <c r="B171" s="3"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>94</v>
       </c>
       <c r="B172" s="3"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>16</v>
       </c>
       <c r="B173" s="3"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>4</v>
       </c>
       <c r="B174" s="3"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>4</v>
       </c>
       <c r="B175" s="3"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>95</v>
       </c>
       <c r="B176" s="3"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>96</v>
       </c>
       <c r="B177" s="3"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>4</v>
       </c>
       <c r="B178" s="3"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>4</v>
       </c>
       <c r="B179" s="3"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>16</v>
       </c>
       <c r="B180" s="3"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>97</v>
       </c>
       <c r="B181" s="3"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>16</v>
       </c>
       <c r="B182" s="3"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>4</v>
       </c>
       <c r="B183" s="3"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>98</v>
       </c>
       <c r="B184" s="3"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>4</v>
       </c>
       <c r="B185" s="3"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>99</v>
       </c>
       <c r="B186" s="3"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>7</v>
       </c>
       <c r="B187" s="3"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>16</v>
       </c>
       <c r="B188" s="3"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>4</v>
       </c>
       <c r="B189" s="3"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>100</v>
       </c>
       <c r="B190" s="3"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>16</v>
       </c>
       <c r="B191" s="3"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>101</v>
       </c>
       <c r="B192" s="3"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>4</v>
       </c>
       <c r="B193" s="3"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>102</v>
       </c>
       <c r="B194" s="3"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>4</v>
       </c>
       <c r="B195" s="3"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>4</v>
       </c>
       <c r="B196" s="3"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>103</v>
       </c>
       <c r="B197" s="3"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>16</v>
       </c>
       <c r="B198" s="3"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>104</v>
       </c>
       <c r="B199" s="3"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>4</v>
       </c>
       <c r="B200" s="3"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>16</v>
       </c>
       <c r="B201" s="3"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>105</v>
       </c>
       <c r="B202" s="3"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>106</v>
       </c>
       <c r="B203" s="3"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>16</v>
       </c>
       <c r="B204" s="3"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>4</v>
       </c>
       <c r="B205" s="3"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>107</v>
       </c>
       <c r="B206" s="3"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>108</v>
       </c>
       <c r="B207" s="3"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>109</v>
       </c>
       <c r="B208" s="3"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>110</v>
       </c>
       <c r="B209" s="3"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>111</v>
       </c>
       <c r="B210" s="3"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>112</v>
       </c>
       <c r="B211" s="3"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>113</v>
       </c>
       <c r="B212" s="3"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>16</v>
       </c>
       <c r="B213" s="3"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>4</v>
       </c>
       <c r="B214" s="3"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>16</v>
       </c>
       <c r="B215" s="3"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>114</v>
       </c>
       <c r="B216" s="3"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>115</v>
       </c>
       <c r="B217" s="3"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>16</v>
       </c>
       <c r="B218" s="3"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>16</v>
       </c>
       <c r="B219" s="3"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>4</v>
       </c>
       <c r="B220" s="3"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>116</v>
       </c>
       <c r="B221" s="3"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>117</v>
       </c>
       <c r="B222" s="3"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>4</v>
       </c>
       <c r="B223" s="3"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>4</v>
       </c>
       <c r="B224" s="3"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>118</v>
       </c>
       <c r="B225" s="3"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>16</v>
       </c>
       <c r="B226" s="3"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>119</v>
       </c>
       <c r="B227" s="3"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>120</v>
       </c>
       <c r="B228" s="3"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>4</v>
       </c>
       <c r="B229" s="3"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>4</v>
       </c>
       <c r="B230" s="3"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>4</v>
       </c>
       <c r="B231" s="3"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>121</v>
       </c>
       <c r="B232" s="3"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>122</v>
       </c>
       <c r="B233" s="3"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>4</v>
       </c>
       <c r="B234" s="3"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>123</v>
       </c>
       <c r="B235" s="3"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>16</v>
       </c>
       <c r="B236" s="3"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>4</v>
       </c>
       <c r="B237" s="3"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>124</v>
       </c>
       <c r="B238" s="3"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>4</v>
       </c>
       <c r="B239" s="3"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>4</v>
       </c>
       <c r="B240" s="3"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>125</v>
       </c>
       <c r="B241" s="3"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>126</v>
       </c>
       <c r="B242" s="3"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>16</v>
       </c>
       <c r="B243" s="3"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>127</v>
       </c>
       <c r="B244" s="3"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>128</v>
       </c>
       <c r="B245" s="3"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>12</v>
       </c>
       <c r="B246" s="3"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>129</v>
       </c>
       <c r="B247" s="3"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>4</v>
       </c>
       <c r="B248" s="3"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>130</v>
       </c>
       <c r="B249" s="3"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>4</v>
       </c>
       <c r="B250" s="3"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>131</v>
       </c>
       <c r="B251" s="3"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>16</v>
       </c>
       <c r="B252" s="3"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>36</v>
       </c>
       <c r="B253" s="3"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>132</v>
       </c>
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>4</v>
       </c>
       <c r="B255" s="3"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>4</v>
       </c>
       <c r="B256" s="3"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>133</v>
       </c>
       <c r="B257" s="3"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>4</v>
       </c>
       <c r="B258" s="3"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>134</v>
       </c>
       <c r="B259" s="3"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>135</v>
       </c>
       <c r="B260" s="3"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>136</v>
       </c>
       <c r="B261" s="3"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>137</v>
       </c>
       <c r="B262" s="3"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>138</v>
       </c>
       <c r="B263" s="3"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>139</v>
       </c>
       <c r="B264" s="3"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>16</v>
       </c>
       <c r="B265" s="3"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>4</v>
       </c>
       <c r="B266" s="3"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>4</v>
       </c>
       <c r="B267" s="3"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>16</v>
       </c>
       <c r="B268" s="3"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>140</v>
       </c>
       <c r="B269" s="3"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>4</v>
       </c>
       <c r="B270" s="3"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>16</v>
       </c>
       <c r="B271" s="3"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>16</v>
       </c>
       <c r="B272" s="3"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>16</v>
       </c>
       <c r="B273" s="3"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>4</v>
       </c>
       <c r="B274" s="3"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>141</v>
       </c>
       <c r="B275" s="3"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>16</v>
       </c>
       <c r="B276" s="3"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>4</v>
       </c>
       <c r="B277" s="3"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>142</v>
       </c>
       <c r="B278" s="3"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>16</v>
       </c>
       <c r="B279" s="3"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>143</v>
       </c>
       <c r="B280" s="3"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>16</v>
       </c>
       <c r="B281" s="3"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>4</v>
       </c>
       <c r="B282" s="3"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>16</v>
       </c>
       <c r="B283" s="3"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>144</v>
       </c>
       <c r="B284" s="3"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>4</v>
       </c>
       <c r="B285" s="3"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>7</v>
       </c>
       <c r="B286" s="3"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>116</v>
       </c>
       <c r="B287" s="3"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>4</v>
       </c>
       <c r="B288" s="3"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>145</v>
       </c>
       <c r="B289" s="3"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>4</v>
       </c>
       <c r="B290" s="3"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>146</v>
       </c>
       <c r="B291" s="3"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>16</v>
       </c>
       <c r="B292" s="3"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>16</v>
       </c>
       <c r="B293" s="3"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>41</v>
       </c>
       <c r="B294" s="3"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>147</v>
       </c>
       <c r="B295" s="3"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>4</v>
       </c>
       <c r="B296" s="3"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>148</v>
       </c>
       <c r="B297" s="3"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>149</v>
       </c>
       <c r="B298" s="3"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>150</v>
       </c>
       <c r="B299" s="3"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>151</v>
       </c>
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>152</v>
       </c>
       <c r="B301" s="3"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B302" s="3"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B303" s="3"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B304" s="3"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B305" s="3"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B306" s="3"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307" s="3"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B308" s="3"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309" s="3"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B310" s="3"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B311" s="3"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B312" s="3"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B313" s="3"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B314" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3069,1009 +3388,1009 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>4</v>
       </c>

--- a/Harry Potter.xlsx
+++ b/Harry Potter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\Insper\2° Semestre\Ciência dos Dados\Projeto2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91004E1A-C461-4A7F-8155-A8ED42E3890B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D27D71-B062-4443-BC5C-A082F8E4550B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="239">
   <si>
     <t>Treinamento</t>
   </si>
@@ -792,6 +792,15 @@
   </si>
   <si>
     <t>Classificação</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B314"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,913 +2120,1217 @@
       <c r="A150" t="s">
         <v>83</v>
       </c>
-      <c r="B150" s="3"/>
+      <c r="B150" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>16</v>
       </c>
-      <c r="B151" s="3"/>
+      <c r="B151" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>84</v>
       </c>
-      <c r="B152" s="3"/>
+      <c r="B152" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>4</v>
       </c>
-      <c r="B153" s="3"/>
+      <c r="B153" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>85</v>
       </c>
-      <c r="B154" s="3"/>
+      <c r="B154" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>4</v>
       </c>
-      <c r="B155" s="3"/>
+      <c r="B155" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>86</v>
       </c>
-      <c r="B156" s="3"/>
+      <c r="B156" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>4</v>
       </c>
-      <c r="B157" s="3"/>
+      <c r="B157" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>36</v>
       </c>
-      <c r="B158" s="3"/>
+      <c r="B158" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>87</v>
       </c>
-      <c r="B159" s="3"/>
+      <c r="B159" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>4</v>
       </c>
-      <c r="B160" s="3"/>
+      <c r="B160" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>88</v>
       </c>
-      <c r="B161" s="3"/>
+      <c r="B161" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>16</v>
       </c>
-      <c r="B162" s="3"/>
+      <c r="B162" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>16</v>
       </c>
-      <c r="B163" s="3"/>
+      <c r="B163" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>89</v>
       </c>
-      <c r="B164" s="3"/>
+      <c r="B164" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>90</v>
       </c>
-      <c r="B165" s="3"/>
+      <c r="B165" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>4</v>
       </c>
-      <c r="B166" s="3"/>
+      <c r="B166" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>91</v>
       </c>
-      <c r="B167" s="3"/>
+      <c r="B167" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>16</v>
       </c>
-      <c r="B168" s="3"/>
+      <c r="B168" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>92</v>
       </c>
-      <c r="B169" s="3"/>
+      <c r="B169" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>93</v>
       </c>
-      <c r="B170" s="3"/>
+      <c r="B170" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4</v>
       </c>
-      <c r="B171" s="3"/>
+      <c r="B171" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>94</v>
       </c>
-      <c r="B172" s="3"/>
+      <c r="B172" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>16</v>
       </c>
-      <c r="B173" s="3"/>
+      <c r="B173" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>4</v>
       </c>
-      <c r="B174" s="3"/>
+      <c r="B174" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>4</v>
       </c>
-      <c r="B175" s="3"/>
+      <c r="B175" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>95</v>
       </c>
-      <c r="B176" s="3"/>
+      <c r="B176" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>96</v>
       </c>
-      <c r="B177" s="3"/>
+      <c r="B177" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>4</v>
       </c>
-      <c r="B178" s="3"/>
+      <c r="B178" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>4</v>
       </c>
-      <c r="B179" s="3"/>
+      <c r="B179" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>16</v>
       </c>
-      <c r="B180" s="3"/>
+      <c r="B180" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>97</v>
       </c>
-      <c r="B181" s="3"/>
+      <c r="B181" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>16</v>
       </c>
-      <c r="B182" s="3"/>
+      <c r="B182" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>4</v>
       </c>
-      <c r="B183" s="3"/>
+      <c r="B183" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>98</v>
       </c>
-      <c r="B184" s="3"/>
+      <c r="B184" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4</v>
       </c>
-      <c r="B185" s="3"/>
+      <c r="B185" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>99</v>
       </c>
-      <c r="B186" s="3"/>
+      <c r="B186" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>7</v>
       </c>
-      <c r="B187" s="3"/>
+      <c r="B187" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>16</v>
       </c>
-      <c r="B188" s="3"/>
+      <c r="B188" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>4</v>
       </c>
-      <c r="B189" s="3"/>
+      <c r="B189" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>100</v>
       </c>
-      <c r="B190" s="3"/>
+      <c r="B190" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>16</v>
       </c>
-      <c r="B191" s="3"/>
+      <c r="B191" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>101</v>
       </c>
-      <c r="B192" s="3"/>
+      <c r="B192" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>4</v>
       </c>
-      <c r="B193" s="3"/>
+      <c r="B193" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>102</v>
       </c>
-      <c r="B194" s="3"/>
+      <c r="B194" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>4</v>
       </c>
-      <c r="B195" s="3"/>
+      <c r="B195" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>4</v>
       </c>
-      <c r="B196" s="3"/>
+      <c r="B196" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>103</v>
       </c>
-      <c r="B197" s="3"/>
+      <c r="B197" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>16</v>
       </c>
-      <c r="B198" s="3"/>
+      <c r="B198" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>104</v>
       </c>
-      <c r="B199" s="3"/>
+      <c r="B199" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>4</v>
       </c>
-      <c r="B200" s="3"/>
+      <c r="B200" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>16</v>
       </c>
-      <c r="B201" s="3"/>
+      <c r="B201" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>105</v>
       </c>
-      <c r="B202" s="3"/>
+      <c r="B202" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>106</v>
       </c>
-      <c r="B203" s="3"/>
+      <c r="B203" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>16</v>
       </c>
-      <c r="B204" s="3"/>
+      <c r="B204" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>4</v>
       </c>
-      <c r="B205" s="3"/>
+      <c r="B205" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>107</v>
       </c>
-      <c r="B206" s="3"/>
+      <c r="B206" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>108</v>
       </c>
-      <c r="B207" s="3"/>
+      <c r="B207" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>109</v>
       </c>
-      <c r="B208" s="3"/>
+      <c r="B208" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>110</v>
       </c>
-      <c r="B209" s="3"/>
+      <c r="B209" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>111</v>
       </c>
-      <c r="B210" s="3"/>
+      <c r="B210" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>112</v>
       </c>
-      <c r="B211" s="3"/>
+      <c r="B211" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>113</v>
       </c>
-      <c r="B212" s="3"/>
+      <c r="B212" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>16</v>
       </c>
-      <c r="B213" s="3"/>
+      <c r="B213" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>4</v>
       </c>
-      <c r="B214" s="3"/>
+      <c r="B214" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>16</v>
       </c>
-      <c r="B215" s="3"/>
+      <c r="B215" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>114</v>
       </c>
-      <c r="B216" s="3"/>
+      <c r="B216" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>115</v>
       </c>
-      <c r="B217" s="3"/>
+      <c r="B217" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>16</v>
       </c>
-      <c r="B218" s="3"/>
+      <c r="B218" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>16</v>
       </c>
-      <c r="B219" s="3"/>
+      <c r="B219" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>4</v>
       </c>
-      <c r="B220" s="3"/>
+      <c r="B220" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>116</v>
       </c>
-      <c r="B221" s="3"/>
+      <c r="B221" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>117</v>
       </c>
-      <c r="B222" s="3"/>
+      <c r="B222" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>4</v>
       </c>
-      <c r="B223" s="3"/>
+      <c r="B223" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>4</v>
       </c>
-      <c r="B224" s="3"/>
+      <c r="B224" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>118</v>
       </c>
-      <c r="B225" s="3"/>
+      <c r="B225" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>16</v>
       </c>
-      <c r="B226" s="3"/>
+      <c r="B226" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>119</v>
       </c>
-      <c r="B227" s="3"/>
+      <c r="B227" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>120</v>
       </c>
-      <c r="B228" s="3"/>
+      <c r="B228" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>4</v>
       </c>
-      <c r="B229" s="3"/>
+      <c r="B229" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>4</v>
       </c>
-      <c r="B230" s="3"/>
+      <c r="B230" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>4</v>
       </c>
-      <c r="B231" s="3"/>
+      <c r="B231" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>121</v>
       </c>
-      <c r="B232" s="3"/>
+      <c r="B232" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>122</v>
       </c>
-      <c r="B233" s="3"/>
+      <c r="B233" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>4</v>
       </c>
-      <c r="B234" s="3"/>
+      <c r="B234" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>123</v>
       </c>
-      <c r="B235" s="3"/>
+      <c r="B235" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>16</v>
       </c>
-      <c r="B236" s="3"/>
+      <c r="B236" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>4</v>
       </c>
-      <c r="B237" s="3"/>
+      <c r="B237" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>124</v>
       </c>
-      <c r="B238" s="3"/>
+      <c r="B238" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>4</v>
       </c>
-      <c r="B239" s="3"/>
+      <c r="B239" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>4</v>
       </c>
-      <c r="B240" s="3"/>
+      <c r="B240" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>125</v>
       </c>
-      <c r="B241" s="3"/>
+      <c r="B241" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>126</v>
       </c>
-      <c r="B242" s="3"/>
+      <c r="B242" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>16</v>
       </c>
-      <c r="B243" s="3"/>
+      <c r="B243" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>127</v>
       </c>
-      <c r="B244" s="3"/>
+      <c r="B244" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>128</v>
       </c>
-      <c r="B245" s="3"/>
+      <c r="B245" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>12</v>
       </c>
-      <c r="B246" s="3"/>
+      <c r="B246" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>129</v>
       </c>
-      <c r="B247" s="3"/>
+      <c r="B247" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>4</v>
       </c>
-      <c r="B248" s="3"/>
+      <c r="B248" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>130</v>
       </c>
-      <c r="B249" s="3"/>
+      <c r="B249" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>4</v>
       </c>
-      <c r="B250" s="3"/>
+      <c r="B250" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>131</v>
       </c>
-      <c r="B251" s="3"/>
+      <c r="B251" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>16</v>
       </c>
-      <c r="B252" s="3"/>
+      <c r="B252" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>36</v>
       </c>
-      <c r="B253" s="3"/>
+      <c r="B253" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>132</v>
       </c>
-      <c r="B254" s="3"/>
+      <c r="B254" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>4</v>
       </c>
-      <c r="B255" s="3"/>
+      <c r="B255" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>4</v>
       </c>
-      <c r="B256" s="3"/>
+      <c r="B256" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>133</v>
       </c>
-      <c r="B257" s="3"/>
+      <c r="B257" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>4</v>
       </c>
-      <c r="B258" s="3"/>
+      <c r="B258" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>134</v>
       </c>
-      <c r="B259" s="3"/>
+      <c r="B259" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>135</v>
       </c>
-      <c r="B260" s="3"/>
+      <c r="B260" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>136</v>
       </c>
-      <c r="B261" s="3"/>
+      <c r="B261" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>137</v>
       </c>
-      <c r="B262" s="3"/>
+      <c r="B262" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>138</v>
       </c>
-      <c r="B263" s="3"/>
+      <c r="B263" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>139</v>
       </c>
-      <c r="B264" s="3"/>
+      <c r="B264" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>16</v>
       </c>
-      <c r="B265" s="3"/>
+      <c r="B265" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>4</v>
       </c>
-      <c r="B266" s="3"/>
+      <c r="B266" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>4</v>
       </c>
-      <c r="B267" s="3"/>
+      <c r="B267" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>16</v>
       </c>
-      <c r="B268" s="3"/>
+      <c r="B268" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>140</v>
       </c>
-      <c r="B269" s="3"/>
+      <c r="B269" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>4</v>
       </c>
-      <c r="B270" s="3"/>
+      <c r="B270" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>16</v>
       </c>
-      <c r="B271" s="3"/>
+      <c r="B271" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>16</v>
       </c>
-      <c r="B272" s="3"/>
+      <c r="B272" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>16</v>
       </c>
-      <c r="B273" s="3"/>
+      <c r="B273" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>4</v>
       </c>
-      <c r="B274" s="3"/>
+      <c r="B274" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>141</v>
       </c>
-      <c r="B275" s="3"/>
+      <c r="B275" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>16</v>
       </c>
-      <c r="B276" s="3"/>
+      <c r="B276" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>4</v>
       </c>
-      <c r="B277" s="3"/>
+      <c r="B277" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>142</v>
       </c>
-      <c r="B278" s="3"/>
+      <c r="B278" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>16</v>
       </c>
-      <c r="B279" s="3"/>
+      <c r="B279" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>143</v>
       </c>
-      <c r="B280" s="3"/>
+      <c r="B280" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>16</v>
       </c>
-      <c r="B281" s="3"/>
+      <c r="B281" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>4</v>
       </c>
-      <c r="B282" s="3"/>
+      <c r="B282" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>16</v>
       </c>
-      <c r="B283" s="3"/>
+      <c r="B283" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>144</v>
       </c>
-      <c r="B284" s="3"/>
+      <c r="B284" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>4</v>
       </c>
-      <c r="B285" s="3"/>
+      <c r="B285" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>7</v>
       </c>
-      <c r="B286" s="3"/>
+      <c r="B286" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>116</v>
       </c>
-      <c r="B287" s="3"/>
+      <c r="B287" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>4</v>
       </c>
-      <c r="B288" s="3"/>
+      <c r="B288" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>145</v>
       </c>
-      <c r="B289" s="3"/>
+      <c r="B289" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>4</v>
       </c>
-      <c r="B290" s="3"/>
+      <c r="B290" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>146</v>
       </c>
-      <c r="B291" s="3"/>
+      <c r="B291" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>16</v>
       </c>
-      <c r="B292" s="3"/>
+      <c r="B292" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>16</v>
       </c>
-      <c r="B293" s="3"/>
+      <c r="B293" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>41</v>
       </c>
-      <c r="B294" s="3"/>
+      <c r="B294" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>147</v>
       </c>
-      <c r="B295" s="3"/>
+      <c r="B295" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>4</v>
       </c>
-      <c r="B296" s="3"/>
+      <c r="B296" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>148</v>
       </c>
-      <c r="B297" s="3"/>
+      <c r="B297" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>149</v>
       </c>
-      <c r="B298" s="3"/>
+      <c r="B298" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>150</v>
       </c>
-      <c r="B299" s="3"/>
+      <c r="B299" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>151</v>
       </c>
-      <c r="B300" s="3"/>
+      <c r="B300" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>152</v>
       </c>
-      <c r="B301" s="3"/>
+      <c r="B301" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B302" s="3"/>

--- a/Harry Potter.xlsx
+++ b/Harry Potter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\Insper\2° Semestre\Ciência dos Dados\Projeto2_CD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Insper\2019.2\Cie Dados\Projeto2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D27D71-B062-4443-BC5C-A082F8E4550B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="6_{1A20ADA6-1FF5-4E58-BCDC-BCF425C72F26}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{BE958992-D7CF-489A-BB62-50241CFA8C20}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="239">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1210,17 +1210,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="139.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="139.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,895 +1228,1191 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>41</v>
       </c>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>42</v>
       </c>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>43</v>
       </c>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>45</v>
       </c>
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>49</v>
       </c>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>50</v>
       </c>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>51</v>
       </c>
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>52</v>
       </c>
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>16</v>
       </c>
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>16</v>
       </c>
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>16</v>
       </c>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>16</v>
       </c>
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>54</v>
       </c>
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>55</v>
       </c>
-      <c r="B98" s="3"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>56</v>
       </c>
-      <c r="B99" s="3"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>16</v>
       </c>
-      <c r="B100" s="3"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B100" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>57</v>
       </c>
-      <c r="B101" s="3"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>4</v>
       </c>
-      <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>59</v>
       </c>
-      <c r="B105" s="3"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>60</v>
       </c>
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>61</v>
       </c>
-      <c r="B107" s="3"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B107" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>62</v>
       </c>
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>63</v>
       </c>
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>64</v>
       </c>
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>65</v>
       </c>
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>16</v>
       </c>
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>66</v>
       </c>
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>4</v>
       </c>
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>67</v>
       </c>
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>68</v>
       </c>
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>36</v>
       </c>
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>16</v>
       </c>
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>16</v>
       </c>
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>69</v>
       </c>
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>70</v>
       </c>
-      <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>4</v>
       </c>
-      <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>71</v>
       </c>
-      <c r="B124" s="3"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="3"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>4</v>
       </c>
-      <c r="B126" s="3"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>72</v>
       </c>
-      <c r="B127" s="3"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>73</v>
       </c>
-      <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>4</v>
       </c>
-      <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>74</v>
       </c>
-      <c r="B131" s="3"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>75</v>
       </c>
-      <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
-      <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>76</v>
       </c>
-      <c r="B135" s="3"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>4</v>
       </c>
-      <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>77</v>
       </c>
-      <c r="B137" s="3"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>4</v>
       </c>
-      <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>78</v>
       </c>
-      <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>79</v>
       </c>
-      <c r="B140" s="3"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>4</v>
       </c>
-      <c r="B141" s="3"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>4</v>
       </c>
-      <c r="B142" s="3"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>80</v>
       </c>
-      <c r="B143" s="3"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>16</v>
       </c>
-      <c r="B144" s="3"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>4</v>
       </c>
-      <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>36</v>
       </c>
-      <c r="B146" s="3"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>81</v>
       </c>
-      <c r="B147" s="3"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>16</v>
       </c>
-      <c r="B148" s="3"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>82</v>
       </c>
-      <c r="B149" s="3"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>83</v>
       </c>
@@ -2124,7 +2420,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>16</v>
       </c>
@@ -2132,7 +2428,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>84</v>
       </c>
@@ -2140,7 +2436,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -2148,7 +2444,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>85</v>
       </c>
@@ -2156,7 +2452,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -2164,7 +2460,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>86</v>
       </c>
@@ -2172,7 +2468,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -2180,7 +2476,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>36</v>
       </c>
@@ -2188,7 +2484,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>87</v>
       </c>
@@ -2196,7 +2492,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -2204,7 +2500,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>88</v>
       </c>
@@ -2212,7 +2508,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>16</v>
       </c>
@@ -2220,7 +2516,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -2228,7 +2524,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>89</v>
       </c>
@@ -2236,7 +2532,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>90</v>
       </c>
@@ -2244,7 +2540,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -2252,7 +2548,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>91</v>
       </c>
@@ -2260,7 +2556,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>16</v>
       </c>
@@ -2268,7 +2564,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>92</v>
       </c>
@@ -2276,7 +2572,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>93</v>
       </c>
@@ -2284,7 +2580,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -2292,7 +2588,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>94</v>
       </c>
@@ -2300,7 +2596,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>16</v>
       </c>
@@ -2308,7 +2604,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -2316,7 +2612,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -2324,7 +2620,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>95</v>
       </c>
@@ -2332,7 +2628,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>96</v>
       </c>
@@ -2340,7 +2636,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -2348,7 +2644,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -2356,7 +2652,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>16</v>
       </c>
@@ -2364,7 +2660,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>97</v>
       </c>
@@ -2372,7 +2668,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>16</v>
       </c>
@@ -2380,7 +2676,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -2388,7 +2684,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>98</v>
       </c>
@@ -2396,7 +2692,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -2404,7 +2700,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>99</v>
       </c>
@@ -2412,7 +2708,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -2420,7 +2716,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -2428,7 +2724,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -2436,7 +2732,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>100</v>
       </c>
@@ -2444,7 +2740,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>16</v>
       </c>
@@ -2452,7 +2748,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>101</v>
       </c>
@@ -2460,7 +2756,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -2468,7 +2764,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>102</v>
       </c>
@@ -2476,7 +2772,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -2484,7 +2780,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -2492,7 +2788,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>103</v>
       </c>
@@ -2500,7 +2796,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>16</v>
       </c>
@@ -2508,7 +2804,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>104</v>
       </c>
@@ -2516,7 +2812,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -2524,7 +2820,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>16</v>
       </c>
@@ -2532,7 +2828,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>105</v>
       </c>
@@ -2540,7 +2836,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>106</v>
       </c>
@@ -2548,7 +2844,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>16</v>
       </c>
@@ -2556,7 +2852,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -2564,7 +2860,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>107</v>
       </c>
@@ -2572,7 +2868,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>108</v>
       </c>
@@ -2580,7 +2876,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>109</v>
       </c>
@@ -2588,7 +2884,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>110</v>
       </c>
@@ -2596,7 +2892,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>111</v>
       </c>
@@ -2604,7 +2900,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>112</v>
       </c>
@@ -2612,7 +2908,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>113</v>
       </c>
@@ -2620,7 +2916,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>16</v>
       </c>
@@ -2628,7 +2924,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -2636,7 +2932,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>16</v>
       </c>
@@ -2644,7 +2940,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>114</v>
       </c>
@@ -2652,7 +2948,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>115</v>
       </c>
@@ -2660,7 +2956,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -2668,7 +2964,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -2676,7 +2972,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -2684,7 +2980,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>116</v>
       </c>
@@ -2692,7 +2988,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>117</v>
       </c>
@@ -2700,7 +2996,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -2708,7 +3004,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -2716,7 +3012,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>118</v>
       </c>
@@ -2724,7 +3020,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>16</v>
       </c>
@@ -2732,7 +3028,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>119</v>
       </c>
@@ -2740,7 +3036,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>120</v>
       </c>
@@ -2748,7 +3044,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -2756,7 +3052,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -2764,7 +3060,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>4</v>
       </c>
@@ -2772,7 +3068,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>121</v>
       </c>
@@ -2780,7 +3076,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>122</v>
       </c>
@@ -2788,7 +3084,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>4</v>
       </c>
@@ -2796,7 +3092,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>123</v>
       </c>
@@ -2804,7 +3100,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>16</v>
       </c>
@@ -2812,7 +3108,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>4</v>
       </c>
@@ -2820,7 +3116,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>124</v>
       </c>
@@ -2828,7 +3124,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>4</v>
       </c>
@@ -2836,7 +3132,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -2844,7 +3140,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>125</v>
       </c>
@@ -2852,7 +3148,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>126</v>
       </c>
@@ -2860,7 +3156,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>16</v>
       </c>
@@ -2868,7 +3164,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>127</v>
       </c>
@@ -2876,7 +3172,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>128</v>
       </c>
@@ -2884,7 +3180,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>12</v>
       </c>
@@ -2892,7 +3188,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>129</v>
       </c>
@@ -2900,7 +3196,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -2908,7 +3204,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>130</v>
       </c>
@@ -2916,7 +3212,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>4</v>
       </c>
@@ -2924,7 +3220,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>131</v>
       </c>
@@ -2932,7 +3228,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>16</v>
       </c>
@@ -2940,7 +3236,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>36</v>
       </c>
@@ -2948,7 +3244,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>132</v>
       </c>
@@ -2956,7 +3252,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>4</v>
       </c>
@@ -2964,7 +3260,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>4</v>
       </c>
@@ -2972,7 +3268,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>133</v>
       </c>
@@ -2980,7 +3276,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>4</v>
       </c>
@@ -2988,7 +3284,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>134</v>
       </c>
@@ -2996,7 +3292,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>135</v>
       </c>
@@ -3004,7 +3300,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>136</v>
       </c>
@@ -3012,7 +3308,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>137</v>
       </c>
@@ -3020,7 +3316,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>138</v>
       </c>
@@ -3028,7 +3324,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>139</v>
       </c>
@@ -3036,7 +3332,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>16</v>
       </c>
@@ -3044,7 +3340,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>4</v>
       </c>
@@ -3052,7 +3348,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>4</v>
       </c>
@@ -3060,7 +3356,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>16</v>
       </c>
@@ -3068,7 +3364,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>140</v>
       </c>
@@ -3076,7 +3372,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>4</v>
       </c>
@@ -3084,7 +3380,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -3092,7 +3388,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>16</v>
       </c>
@@ -3100,7 +3396,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>16</v>
       </c>
@@ -3108,7 +3404,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>4</v>
       </c>
@@ -3116,7 +3412,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>141</v>
       </c>
@@ -3124,7 +3420,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>16</v>
       </c>
@@ -3132,7 +3428,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>4</v>
       </c>
@@ -3140,7 +3436,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>142</v>
       </c>
@@ -3148,7 +3444,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>16</v>
       </c>
@@ -3156,7 +3452,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>143</v>
       </c>
@@ -3164,7 +3460,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>16</v>
       </c>
@@ -3172,7 +3468,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>4</v>
       </c>
@@ -3180,7 +3476,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>16</v>
       </c>
@@ -3188,7 +3484,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>144</v>
       </c>
@@ -3196,7 +3492,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>4</v>
       </c>
@@ -3204,7 +3500,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -3212,7 +3508,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>116</v>
       </c>
@@ -3220,7 +3516,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -3228,7 +3524,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>145</v>
       </c>
@@ -3236,7 +3532,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -3244,7 +3540,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>146</v>
       </c>
@@ -3252,7 +3548,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>16</v>
       </c>
@@ -3260,7 +3556,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>16</v>
       </c>
@@ -3268,7 +3564,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>41</v>
       </c>
@@ -3276,7 +3572,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>147</v>
       </c>
@@ -3284,7 +3580,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>4</v>
       </c>
@@ -3292,7 +3588,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>148</v>
       </c>
@@ -3300,7 +3596,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>149</v>
       </c>
@@ -3308,7 +3604,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>150</v>
       </c>
@@ -3316,7 +3612,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>151</v>
       </c>
@@ -3324,7 +3620,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>152</v>
       </c>
@@ -3332,43 +3628,43 @@
         <v>237</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B302" s="3"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B303" s="3"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B304" s="3"/>
     </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B305" s="3"/>
     </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B306" s="3"/>
     </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307" s="3"/>
     </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B308" s="3"/>
     </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309" s="3"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B310" s="3"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B311" s="3"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B312" s="3"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B313" s="3"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B314" s="3"/>
     </row>
   </sheetData>
@@ -3382,1009 +3678,1009 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>4</v>
       </c>

--- a/Harry Potter.xlsx
+++ b/Harry Potter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Desktop\Insper\2° Semestre\Ciência dos Dados\Projeto2_CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1054579-B509-44F8-BFBA-CA0392440237}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84A8C03-0EE0-495C-A7A4-21755763EE27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,59 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="371">
   <si>
     <t>Treinamento</t>
+  </si>
+  <si>
+    <t>rt @omelete: não vai esquecer que hoje tem #omeletelive! o papo é sobre as proibições da cultura pop. vingadores vetados na bienal, harry p…</t>
+  </si>
+  <si>
+    <t>o óculos é do harry potter, mas a varinha que eu quero pode ser a sua! https://t.co/es9ozswott</t>
+  </si>
+  <si>
+    <t>rt @b3ablanco: "vc tem 26 anos emprego e usa cachecol de harry potter?"
+imagina o jovem descobrindo que com 30 vc já está totalmente ligad…</t>
+  </si>
+  <si>
+    <t>@thesound80s boyle perfeito porém peralta muito bobalhao fã de harry potter amo demais</t>
+  </si>
+  <si>
+    <t>@aritacp2 @jorge30926822 ah entao calma, quando no harry potter dizem q ha um damo qq q nao se pode dizer o nome, esse damo era o bolso?</t>
+  </si>
+  <si>
+    <t>@niqidnv tem o protagonista que sofre um acidente e quando ele acorda percebe que algumas coisas muito marcantes foram esquecidas tipo, ngm sabe o que eh harry potter, coca cola e the beatles 
+ai ele começa a cantar as músicas do the beatles como se fossem dele e ele começa a fazer muito</t>
+  </si>
+  <si>
+    <t>vamos ser amigos em harry potter: wizards unite! meu código de amigo é: 0200 8361 2431.</t>
+  </si>
+  <si>
+    <t>rt @outrarosa: jovens entre 19 e 29 anos, eles se levam muito a sério. e entendo, é uma fase de afirmação e fixação de da persona.
+mas aí…</t>
+  </si>
+  <si>
+    <t>no momento terminando o segundo livro da saga harry potter</t>
+  </si>
+  <si>
+    <t>rt @louieponto: eu juro que não queria falar da zendaya todos os dias neste site mas ela simplesmente fez uma festa de aniversário pintando…</t>
+  </si>
+  <si>
+    <t>rt @thiegonovais: "eu nunca vou fechar essa porta"
+- daniel radcliffe sobre um dia retornar para interpretar harry potter nos cinemas.</t>
+  </si>
+  <si>
+    <t>rt @pottermagic: meu coração sendo despedaçado a cada morte em harry potter:
+ https://t.co/jfhzzthzwt</t>
+  </si>
+  <si>
+    <t>cara não eh possível, não acho um estojo bonito do harry potter</t>
+  </si>
+  <si>
+    <t>toda oportunidade que eu tenho de assistir harry potter, eu assisto. mesmo que eu já tenha visto 5732455 vezes e tenha decorado as falas e cenas. af 😍</t>
+  </si>
+  <si>
+    <t>rt @louieponto: eu fiquei o próprio harry potter depois de hogwarts https://t.co/o5mga4ljux</t>
   </si>
   <si>
     <t>rt @cacocardassi: “você tem 26 anos tire o cachecol de harry potter do pescoço” 
@@ -31,62 +81,121 @@
 e sab…</t>
   </si>
   <si>
+    <t>a maior tristeza da minha vida foi não ter usado harry potter no meu tcc</t>
+  </si>
+  <si>
+    <t>rt @gabcastr0: o jovem tem uma necessidade de auto afirmação muito grande né? mas quem nunca foi assim? quem nunca buscou uma tribo, uma cl…</t>
+  </si>
+  <si>
+    <t>fui descobrir o plot daquela peça de teatro do harry potter, meu deus que horrível, a jk rowling ligou o foda-se total né.</t>
+  </si>
+  <si>
+    <t>acrescentando: se a bienal d livro tivesse o objetivo d trazer cultura e incentivar a leitura, seria a única época d ano q os livros custariam menos q o atual. livro d harry potter: 40 reais. na bienal o mesmo livro: 75. isso incentiva a leitura? https://t.co/uftcj4fc69</t>
+  </si>
+  <si>
     <t>rt @dcucomics: a galera se incomodando com gente de 26 anos que usa cachecol de harry potter na rua, eu acho mais problema a pessoa ser um…</t>
   </si>
   <si>
-    <t>rt @b3ablanco: "vc tem 26 anos emprego e usa cachecol de harry potter?"
-imagina o jovem descobrindo que com 30 vc já está totalmente ligad…</t>
-  </si>
-  <si>
-    <t>rt @booksndream: eu com 22 anos na cara, quase formada em direito, vou usar colcha de cama do harry potter sim! saio na rua com a camiseta…</t>
-  </si>
-  <si>
-    <t>rt @cellawr: @fezepka mas se eu tô formada e tenho um emprego estável, é pra eu poder vestir o que eu bem entender, seja um cachecol do har…</t>
-  </si>
-  <si>
-    <t>rt @fezepka: pelo amor de deus minha filha você tem 26 anos é formada e tem emprego estável tire este cachecol de harry potter do pescoço</t>
+    <t>já chega desse tweet sobre o cachecol do harry potter gente</t>
+  </si>
+  <si>
+    <t>"ah você tem mais de 20 anos e ainda gosta de harry potter?"
+minha filha você tem mais de vinte anos e ainda acredita que serviços básicos devem ser gratuitos porque são "direitos"</t>
+  </si>
+  <si>
+    <t>rt @esperondo: do alto (ou baixo) dos nos meus 27 anos eu cravo aqui pra você:
+um dos grandes segredos pra ser cotidianamente feliz é liga…</t>
+  </si>
+  <si>
+    <t>por algum motivo esse ano to gostando de livros assim///isso é uma referência a harry potter né? https://t.co/gmvfwem0zi</t>
+  </si>
+  <si>
+    <t>não dá pra confiar em quem não gosta de harry potter sinto mto</t>
+  </si>
+  <si>
+    <t>rt @haji_mon: @kimochiwaarui @nononorat minha meta é ter emprego pra sair igual o harry potter na rua</t>
+  </si>
+  <si>
+    <t>harry potter e o enigma do porquê eu fiquei hipnotizada por esse vídeo?????????? https://t.co/giv1ngvuzu</t>
+  </si>
+  <si>
+    <t>a menina do "26 anos e cachecol do harry potter" não sabia o ninho de vespa que ela tava cutucando né
+a pobe</t>
+  </si>
+  <si>
+    <t>só harry potter pra me fazer pegar num livro pra ler mesmo</t>
+  </si>
+  <si>
+    <t>rt @professordum: queria estar assistindo harry potter com o crush.</t>
+  </si>
+  <si>
+    <t>rt @rushsanches: a pessoa tem 26 anos e anda por aí usando cachecol do harry potter?!?
+todo mundo sabe que nessas horas tem que usar o de…</t>
+  </si>
+  <si>
+    <t>rt @impickypicky: [personagens masculinos literários favoritos]
+🏅 25. harry potter — harry potter https://t.co/l2h5p4wdjk</t>
+  </si>
+  <si>
+    <t>que saudades de surtar por harry potter</t>
+  </si>
+  <si>
+    <t>eu, quando alguém diz que também gosta de harry potter https://t.co/fdigiy5rl1</t>
+  </si>
+  <si>
+    <t>qual animal bem brasileiro seria seu patrono de "harry potter"? https://t.co/6g7djmfgl1 via @luizougui</t>
   </si>
   <si>
     <t>rt @thiegonovais: bom dia só pra quem usa cachecol de harry potter mesmo com 26 anos, vai continuar usando até ficar velho e que caga pra p…</t>
   </si>
   <si>
-    <t>@phcamisa_7 harry potter depois da pedra e cabelin na regua</t>
-  </si>
-  <si>
-    <t>rt @nifentynha: só queria estar com 26 anos, formada, com emprego estável e um cachecol do harry potter no pescoço</t>
-  </si>
-  <si>
-    <t>e minha chefa que foi pra londres e me trouxe uma caneta em forma de varinha do harry potter</t>
+    <t>rt @potterish: livro será lançado em inglês em outubro https://t.co/57oixa4qhx</t>
+  </si>
+  <si>
+    <t>putz queria tá deitado no solzinho lendo um harry potter</t>
+  </si>
+  <si>
+    <t>rt @leekimpark_: trabalhar para comprar meu cachecol do harry potter</t>
   </si>
   <si>
     <t>rt @ericoswig: por que isso hitou??? qual a porra do problema da pessoa usar cachecol de harry potter sendo adulta? as pessoas podem gostar…</t>
   </si>
   <si>
-    <t>to olhando toy story com a antônia 
-só falta ela começar na idade de olhar harry potter</t>
-  </si>
-  <si>
-    <t>rt @darkfeysand: saudades quando as sagas em auge eram crepúsculo, divergente, jogos vorazes e harry potter, nervosismos pra sair os filmes…</t>
-  </si>
-  <si>
-    <t>me esforçar pra chegar aos 26 anos com vida, me formar e ter um emprego estável pra poder usar o uniforme inteiro de harry potter e me sentir realizada https://t.co/oyh1u75nrn</t>
-  </si>
-  <si>
-    <t>rt @giulla16: @fezepka mo?? eu posso ter 30 anos na cara eu vou sair de cachecol do harry potter sim e ainda pego um graveto e grito avada…</t>
-  </si>
-  <si>
-    <t>gente qual é o problema de ter 26 anos e usar cachecol do harry potter? 
-eu perdi essa tava lavando o cabelo</t>
-  </si>
-  <si>
-    <t>se pegares em qualquer livro da série harry potter, abrires numa página aleatória e começares a ler, rebecca sharrock narra-te o excerto de cor. 
-https://t.co/y4dixshlx3</t>
-  </si>
-  <si>
-    <t>@pedronunes007 @maquescruz max toda hora q vê harry potter fala isso to quase enfiando a emma no cu dele</t>
-  </si>
-  <si>
-    <t>vou maratonar harry potter de novo pq eu não tenho nada util pra fazer da vida</t>
+    <t>@iamaliability o cantinho do harry potter, adorei!</t>
+  </si>
+  <si>
+    <t>28. eu nunca assisti harry potter</t>
+  </si>
+  <si>
+    <t>tô vendo harry potter 💖💖</t>
+  </si>
+  <si>
+    <t>rt @lalaleal9: terminei o primeiro e já tô muito fã do harry potter. 
+@editorarocco https://t.co/d9nfpcx068</t>
+  </si>
+  <si>
+    <t>rt @thainanteodoro: @netflixbrasil existe algum motivo pra vc não colocar harry potter no catálogo ou é só pq vc não quer mesmo? explica pr…</t>
+  </si>
+  <si>
+    <t>essa neném quer que alguém lhe conte histórias do harry potter. seu sonho é ir pra hogwarts. e está prontinha pra ser adotada!!! 
+.
+contato por direct ou whatsapp (11 930746056)
+.
+.
+.
+#pulguita #harrypotter #hogwarts… https://t.co/bdea2iarku</t>
+  </si>
+  <si>
+    <t>rt @emocomrade: se a sua personalidade gira em torno de ser fã de harry potter e você tem mais de 20 anos, sei lá, arruma um emprego. faz u…</t>
+  </si>
+  <si>
+    <t>harry potter pode ganhar filme inédito com retorno do elenco original https://t.co/upfzygla2t</t>
+  </si>
+  <si>
+    <t>rt @captaindanvrz: a danna gravando o studio do harry potter em orlando a bichinha é muito potterhead, me representa.</t>
+  </si>
+  <si>
+    <t>comprei um carregador portátil do harry potter, porque eu mereço</t>
   </si>
   <si>
     <t>rt @cacocardassi: eu amo uma autora! 
@@ -95,36 +204,250 @@
 ❤️ https://t…</t>
   </si>
   <si>
-    <t>@rapazsentado hahahahahaha! ai jesus
-mas eu também encrenco, mas porque harry potter é uma merda mesmo
-mas tá certíssimo em usar coisa geek/nerd com qualquer idade e pau no cu dessa galera</t>
-  </si>
-  <si>
-    <t>vcs são stan de alguém em comum cmg? quem?
-- oned ot5 
--marvel universe 
-- harry potter 
-kibei do kibado do kibado do kibado kibe</t>
-  </si>
-  <si>
-    <t>@diogo_bebe4 @matheus_abreu02 @netflixbrasil a série de percy jackson aí, pfv netflix, nem to pedindo harry potter agora</t>
-  </si>
-  <si>
-    <t>13) leah fora de sintonia (becky albertalli) 
-leah odeia demonstrações públicas de afeto. odeia clichês adolescentes. odeia quem odeia harry potter. odeia o novo namorado da mãe. odeia pessoas fofas e felizes. ela odeia muitas coisas e não tem o menor problema em expor suas+</t>
-  </si>
-  <si>
-    <t>*   ੈ✩‧₊ * ᴴᵃʳʳʸ ᴾᵒᵗᵗᵉʳ ᵉ ᵃ ᴾᵉᵈʳᵃ ᶠⁱˡᵒˢᵒᶠᵃˡ - ᴶ.ᴷ ᴿᵒˡˡⁱⁿᵍ ˚*   ੈ✩‧₊
-           ✯✯✯✯✯ https://t.co/ogg7wuws7p</t>
-  </si>
-  <si>
-    <t>the tales of beedle the bard (j.k. rowling), importado, publicado pela editora @scholastic.
-.
-•••
-resenha por @feanari.
-•••
-.
-quando lemos o sétimo livro da série harry potter, somos apresentados às relíquias da… https://t.co/po56awahj2</t>
+    <t>rt @qwertybr: "você tem 26 anos, emprego e usa cachecol de harry potter?"
+como assim alguém de 26 anos não tem dois filhos, dois carros e…</t>
+  </si>
+  <si>
+    <t>queria um cachecol do harry potter da lufa lufa https://t.co/we2rbjo80i</t>
+  </si>
+  <si>
+    <t>rt @assuntoteen: "desculpe, mas eu não gosto das pessoas só porque elas são bonitas."  — harry potter</t>
+  </si>
+  <si>
+    <t>rt @maroldiamandis: graças a deus eu sou flop nessa rede social, posso falar mal das coisa em paz. harry potter horrível foda-se kkkkkk</t>
+  </si>
+  <si>
+    <t>rt @younggsmk_: devo ser o único que nunca viu harry potter kkk</t>
+  </si>
+  <si>
+    <t>quando um fã de harry potter descobre que pode fazer magia: https://t.co/4e2arno1ru</t>
+  </si>
+  <si>
+    <t>@yndrao harry potter usando os acchio da vida kkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>a kálli está na casa gryffindor e tem jantar temático de harry potter e ao descobrir isto, fiquei assim: https://t.co/swmyx41rng</t>
+  </si>
+  <si>
+    <t>tô triste q não vai ter como fazer a au stony no universo de harry potter :/</t>
+  </si>
+  <si>
+    <t>@hannobudenbrook e eu aqui doida p comprar os livros de harry potter com 34 anos de idare</t>
+  </si>
+  <si>
+    <t>com baile temático do universo harry potter, curitiba se despede do inverno e comemora 10 anos do shinobi - barulho curitiba https://t.co/dt3mop0fvt</t>
+  </si>
+  <si>
+    <t>rt @saranacampos: não existe trilha sonora que me dê maior sensação de nostalgia que a do harry potter</t>
+  </si>
+  <si>
+    <t>@louieponto vc ficou mais parecida com o daniel (ator de harry potter) na adolescência q ele🤭😲</t>
+  </si>
+  <si>
+    <t>rt @rewolupin: "harry potter é o personagem menos importante de harry potter"
+então carrega a responsabilidade de salvar o mundo bruxo nas…</t>
+  </si>
+  <si>
+    <t>cara, vocês sabem que minha namorada é show, né? adoro fazer tudo com ela.. topa qualquer rolê, mas das coisas mais deliciosas que fizemos foi começar a maratonar harry potter que são os filmes preferidos dela e eu só vi até o quarto.. https://t.co/l90g5n82xn</t>
+  </si>
+  <si>
+    <t>chegar em casar ver harry potter e comer pão doce 🤗</t>
+  </si>
+  <si>
+    <t>rt @fepmoreira: fia quase 30 anos, formada e com emprego estável, de briguinha e xingando a coleguinha no twitter por causa de uma zoeirinh…</t>
+  </si>
+  <si>
+    <t>e o peralta que leu harry potter pq a santiago gostava, iti</t>
+  </si>
+  <si>
+    <t>sabe qual o maior erro do adulto que usa cachecol do harry potter?
+todo mundo querer usar grifinória e corvinal.
+a maioria de vocês é lufa-lufa.</t>
+  </si>
+  <si>
+    <t>rt @senierantos: coisa mais chocante do universo cinematográfico de harry potter é a bilheteria de prisionerio de azkaban ser a mais baixa…</t>
+  </si>
+  <si>
+    <t>minha irmã pegou raiva de harry potter pq quando eu era mais nova assistia os filmes todos os dias</t>
+  </si>
+  <si>
+    <t>to assistindo harry potter, e traduziram marvolo pra servoleo
+????????</t>
+  </si>
+  <si>
+    <t>rt @tpzanetic: o nome de algumas bandas indies brasileiras dariam ótimos subtítulos para livros do harry potter
+- harry potter e a banda m…</t>
+  </si>
+  <si>
+    <t>rt @renitaitous: @fezepka se eu formei foi pra ter condições de comprar mais coisas do harry potter</t>
+  </si>
+  <si>
+    <t>o meu dossier do harry potter é tão lindo</t>
+  </si>
+  <si>
+    <t>rt @plabocb: quem gosta de harry potter respira</t>
+  </si>
+  <si>
+    <t>sinto bué o outono e o início do inverno alturas perfeitas para fazer maratonas de harry potter</t>
+  </si>
+  <si>
+    <t>tenho saudades de estar a ver um harry potter como se fosse a primeira vez</t>
+  </si>
+  <si>
+    <t>@anarcoleptico ok usar cachecol de harry potter  não é sinal de imaturidade mas ficar de briguinha na internet pq alguém fez uma piada com isso é babaca d+ fia vc tem 30 anos</t>
+  </si>
+  <si>
+    <t>já deu essa parada do harry potter gente kkkkk</t>
+  </si>
+  <si>
+    <t>harry potter ganhará novo filme com elenco original, aponta site https://t.co/zvvxtbsouu</t>
+  </si>
+  <si>
+    <t>@netflixbrasil existe algum motivo pra vc não colocar harry potter no catálogo ou é só pq vc não quer mesmo? explica pra gente mulher</t>
+  </si>
+  <si>
+    <t>rt @defrerico: a polêmica de hoje no website é o jovem adulto pode ou não usar cachecol do harry potter?
+defrerico responde: não pode não,…</t>
+  </si>
+  <si>
+    <t>harry potter é extremamente importante para mim e eu não irei me cansar de falar este fato</t>
+  </si>
+  <si>
+    <t>vendo o chou do harry potter na disney</t>
+  </si>
+  <si>
+    <t>robert pattinson, com 32 anos, foi um dos atores que mais apareceu fora de harry potter por protagonizar a saga crepúsculo (2008). o ator fez vários filmes e agora aguardamos ansiosamente pela sua interpretação nos novos filmes do batman, o primeiro previsto para 2021. https://t.co/gz7pxjg67t</t>
+  </si>
+  <si>
+    <t>ou um professor visitante do harry  potter https://t.co/kms8ekqorn</t>
+  </si>
+  <si>
+    <t>+2 com a varinha do harry potter 🧙‍ https://t.co/yfnqxcoyd0</t>
+  </si>
+  <si>
+    <t>rt @viciadopfutebol: nessa imagem, vemos mais magia que os filmes de harry potter 🧙‍♂️ https://t.co/ebfn0j2nqr</t>
+  </si>
+  <si>
+    <t>que frio incrível para harry potter</t>
+  </si>
+  <si>
+    <t>@lezinhalst harry potter melhor história</t>
+  </si>
+  <si>
+    <t>emma watson (1990) foi a atriz que mais se destacou após harry potter. fez as vantagens de ser invisível (2012), noé (2014), a bela e a fera (2017 e maior bilheteria deste ano) e agora vai atuar no novo filme da oscar nominee greta gerwig, litte women. o oscar vem. https://t.co/gckfjefccr</t>
+  </si>
+  <si>
+    <t>rt @itsmaraujo: meu deus que coisa chata vocês “ah tem x anos tira o cachecol de harry potter do pescoço” 
+meu anjo!!!!!!!! idade não é na…</t>
+  </si>
+  <si>
+    <t>gente eu to com uma dúvida muito séria sobre harry potter</t>
+  </si>
+  <si>
+    <t>rt @hcanonsbi: [💜] seu fav é bissexual
+— cedric diggory (harry potter) https://t.co/p1dyz4revx</t>
+  </si>
+  <si>
+    <t>@kimochiwaarui "tire esse cachecol de harry potter do pescoço" https://t.co/wkmndsuzam</t>
+  </si>
+  <si>
+    <t>@pamelacardenas @rushsanches @b3ablanco eu na vida! casada, dois filhos e sim tem harry potter pra tudo quanto é canto!</t>
+  </si>
+  <si>
+    <t>rt @gabrielaluisee: é incrível como todo filme do harry potter combina com um dia chuvoso e melancólico com pipoca e colchão no chão da sal…</t>
+  </si>
+  <si>
+    <t>pensando na maratona de harry potter que quero fazer esse fim de semana</t>
+  </si>
+  <si>
+    <t>rt @pjograce: silêncio 
+diretamente de hogwarts, o melhor lyric de harry potter
+https://t.co/bhqrsym0rh</t>
+  </si>
+  <si>
+    <t>rt @neressavage: esse é o melhor harry potter e quem discorda = fedido https://t.co/rj2o80bqts</t>
+  </si>
+  <si>
+    <t>alô, potterheads: o site we got this covered, levantou rumores sobre um novo filme de harry potter com o elenco original. de acordo com as fontes, a produção será uma adaptação da peça harry potter e a criança amaldiçoada.
+#harrypotterforever #potterheads https://t.co/eayeaw6eka</t>
+  </si>
+  <si>
+    <t>e é isso aí, se alguém tiver lido até aqui agradeço, se ninguém tiver lido agradeço também. lembrando que harry potter &amp;gt;&amp;gt;&amp;gt; star wars e senhor dos anéis.
+malfeito, feito.</t>
+  </si>
+  <si>
+    <t>eu to tãooo feliz q eu ganhei o box de harry potter</t>
+  </si>
+  <si>
+    <t>rt @hiddlesmrvel: eu fiz essas varinhas de harry potter, elas variam de 28cm a 30cm. https://t.co/crhird9nmv</t>
+  </si>
+  <si>
+    <t>@annadixit @b3ablanco @gabicolicigno o jovem é assim porque ainda não tem maturidade pra entender que a gente não tem a mesma vergonha que ele de gostar de harry potter (porque a gente tem mais coisa pra se preocupar)</t>
+  </si>
+  <si>
+    <t>felipe neto entra num bar usando o cachecol do harry potter</t>
+  </si>
+  <si>
+    <t>@mahoee_ se eu cresci fanfiqueira a culpa é deles (e de harry potter)</t>
+  </si>
+  <si>
+    <t>@danielvnova fã de harry potter atualmente é tipo fã de dragon ball, não ganha nada de bom e está pronto para brigar por qualquer coisa.</t>
+  </si>
+  <si>
+    <t>se fosse piada preconceituosa...
+mas é piada contra nerd, sabe?
+fã de harry potter tem mais é que se fuder mesmo</t>
+  </si>
+  <si>
+    <t>tenho 20 anos e uma mochila do harry potter 
+mas velho sem condição que mochila perfeita e espaçosa</t>
+  </si>
+  <si>
+    <t>@paulocnf olha a cara desse harry potter com raquitismo.</t>
+  </si>
+  <si>
+    <t>os adultão se doeram por conta d cachecol do harry potter</t>
+  </si>
+  <si>
+    <t>rt @netflixbrasil: todo mundo fica perguntando, "cadê a minha série, netflix?", "cadê a nova temporada, netflix?",  "cadê harry potter, net…</t>
+  </si>
+  <si>
+    <t>rt @letromanell: harry potter e o enigma da carteira do paulo henrique q sumiu dentro da própria bolsa</t>
+  </si>
+  <si>
+    <t>rt @nandozimmer: qual a pira de vcs em fica zuando harry potter porra
+negócio inofensivo pra caralho ensina umas coisinha bonita e é super…</t>
+  </si>
+  <si>
+    <t>rt @oraculosemideus: fã de percy jackson vendo fã de harry potter reclamar de sofrimento: https://t.co/0yy7mepdvi</t>
+  </si>
+  <si>
+    <t>eu vendo kpopper falando mal de harry potter, mas ela nem tocou num livro sequer da saga 🤦‍♀️</t>
+  </si>
+  <si>
+    <t>cara, o reino unido é um puta lugar mesmo né, tô doido pra visitar meu tio lá! fora esse tanto de banda foda e que mudou o mercado, de lá saíram sherlock holmes, harry potter, senhor dos anéis, doctor who e alguns dos melhores escritores de hqs da história como moore e gaiman . https://t.co/a7v5zrz7jb</t>
+  </si>
+  <si>
+    <t>meu sonho é terminar de ler toda a saga do harry potter e do percy jackson</t>
+  </si>
+  <si>
+    <t>rt @elr0yi: linda semana para ver harry potter</t>
+  </si>
+  <si>
+    <t>eu tenho a impressão de que numa versão brasileira de harry potter o sr. weasley seria o marco nanini</t>
+  </si>
+  <si>
+    <t>sdds minha festa com tema do harry potter, perfeita 
+queria q fosse todos os anos</t>
+  </si>
+  <si>
+    <t>tou sempre a ver vídeos de unboxing de harry potter juro</t>
+  </si>
+  <si>
+    <t>gente, harry potter é um ícone mesmo, né?? https://t.co/jfyspjhvq0</t>
+  </si>
+  <si>
+    <t>@warneruniverse uma pessoa com 26 anos e cachecol do harry potter provavelmente comprou com o próprio dinheiro, já começamos aí</t>
   </si>
   <si>
     <t>rt @janejc: @kimochiwaarui @radcliffeswife eu:
@@ -133,709 +456,813 @@
 dezoito anos como servidora pública municipal estatut…</t>
   </si>
   <si>
-    <t>rt @esperondo: do alto (ou baixo) dos nos meus 27 anos eu cravo aqui pra você:
-um dos grandes segredos pra ser cotidianamente feliz é liga…</t>
-  </si>
-  <si>
-    <t>rt @outrarosa: jovens entre 19 e 29 anos, eles se levam muito a sério. e entendo, é uma fase de afirmação e fixação de da persona.
-mas aí…</t>
-  </si>
-  <si>
-    <t>comprei um quadro do harry potter pra ela, só pra retribuir pelo menos um pouquinho da gentileza enorme dela😪♥️</t>
-  </si>
-  <si>
-    <t>pelo amor de deus minha filha você tem 26 anos é formada e tem emprego estável tire este cachecol de harry potter do pescoço https://t.co/rbheecmmnx</t>
-  </si>
-  <si>
-    <t>@eitabicho bicha tu leu 7 livros daquela songa do harry potter, ler alguns capítulos do jason não é nada</t>
-  </si>
-  <si>
-    <t>a mina usa crocs e quer falar do cachecol do harry potter</t>
-  </si>
-  <si>
-    <t>@felcastilho aqui tem o link para todas as plataformas onde o programa está disponível: https://t.co/ts8ato6ddl</t>
-  </si>
-  <si>
-    <t>rt @iconaicbitch: e agora apetece me ir ver harry potter https://t.co/m42of7jsjr</t>
-  </si>
-  <si>
-    <t>lendo os comentários da menina que zuou quem usa cachecol do harry potter e chega a ser engraçado o tanto que o pessoal pega pilha.</t>
-  </si>
-  <si>
-    <t>rt @thiegonovais: "eu nunca vou fechar essa porta"
-- daniel radcliffe sobre um dia retornar para interpretar harry potter nos cinemas.</t>
-  </si>
-  <si>
-    <t>rt @omelete: não vai esquecer que hoje tem #omeletelive! o papo é sobre as proibições da cultura pop. vingadores vetados na bienal, harry p…</t>
-  </si>
-  <si>
-    <t>rt @amanndali: eu to me sentindo em harry potter e as relíquias da morte quando o ministério é tomado por voldemort</t>
-  </si>
-  <si>
-    <t>rt @tioalmofadinhas: – é potterhead?
-– sim
-– assiste os filmes de harry potter pronunciando as falas junto com os personagens?
-– não
-–…</t>
-  </si>
-  <si>
-    <t>essa guria que falou do cachecol do harry potter deve ter nem 18 anos ainda, renda própria e ficam dando bola</t>
-  </si>
-  <si>
-    <t>agora tenho que me preocupar por ter 22 anos e usar brusinha de harry potter/geek/anime pois os fiscais de maturidade estão de olho 😔</t>
-  </si>
-  <si>
-    <t>meu coração sendo despedaçado a cada morte em harry potter:
- https://t.co/jfhzzthzwt</t>
-  </si>
-  <si>
-    <t>tirei seu patrono brasileiro é a cuca!! https://t.co/xobu85fiv7</t>
-  </si>
-  <si>
-    <t>rt @hogwartstars: ✎ {au!/drarry} 
-→ 𝓁𝑜𝓋𝑒 𝓃𝑜𝓉𝑒𝓈 💌
-harry potter costumava escrever cartas e distribuí-las aos alunos da turma, sem revelar…</t>
-  </si>
-  <si>
-    <t>eu devia ter lido harry potter em vez de ver os filmes</t>
-  </si>
-  <si>
-    <t>rt @lackingclass: nao eh cachecol do harry potter eh cachecol da casa de corvinal ok https://t.co/hz1vwoexvq</t>
-  </si>
-  <si>
-    <t>rt @rewolupin: "harry potter é o personagem menos importante de harry potter"
-então carrega a responsabilidade de salvar o mundo bruxo nas…</t>
-  </si>
-  <si>
-    <t>@manhereno mas eu tô falando de todos mesmo heusheusheush só especifiquei que os de harry potter sempre aparecem pra dar palestra</t>
-  </si>
-  <si>
-    <t>o mathias na parte do harry potter "olha mathi o quadro ta falando" "aquilo ali é uma televisão c não percebeu?" https://t.co/wfiwvwcmj1</t>
-  </si>
-  <si>
-    <t>maratonar os filmes da marvel ou harry potter? eis a questão</t>
-  </si>
-  <si>
-    <t>star wars é sobre resistência contra o autoritarismo;
-harry potter é sobre luta estudantil.
-é impossível que alguém leia ou assista e não entenda...</t>
-  </si>
-  <si>
-    <t>ai gente eu consegui comprar o box de harry potter por 71 reais</t>
-  </si>
-  <si>
-    <t>@mardyzzbum acho justo não namorar com quem acha justo não namorar com quem n gosta de harry potter</t>
-  </si>
-  <si>
-    <t>eu amo tanto harry potter e quero umas brusinha mas acho o fim da picada cobrarem 69,90 em uma blusa de malha escrito "harry potter" vou começar a customizar as minha</t>
-  </si>
-  <si>
-    <t>essa discussão sobre cachecol de harry potter é top estupidez que vi na internet esses tempo tipo..., a gente tá discutido sobre alguém poder usar o que quiser? isso já não era o básico??</t>
-  </si>
-  <si>
-    <t>fico tão feliz por ver os caloiros a acatarem ordens dadas por alunos mais velhos que fazem cosplay do harry potter com colheres de pau em vez de varinhas magicas e que estão há 10 anos a tentarem acabar um curso superior. é deste tipo de pensamento critico que portugal precisa.</t>
-  </si>
-  <si>
-    <t>rt @itsmaraujo: meu deus que coisa chata vocês “ah tem x anos tira o cachecol de harry potter do pescoço” 
-meu anjo!!!!!!!! idade não é na…</t>
-  </si>
-  <si>
-    <t>@p4zvzv pessoas cuja personalidade é gostar de harry potter</t>
-  </si>
-  <si>
-    <t>rt @assuntoteen: "desculpe, mas eu não gosto das pessoas só porque elas são bonitas."  — harry potter</t>
-  </si>
-  <si>
-    <t>o tanto que eu amo harry potter https://t.co/qzbibbbdlc</t>
-  </si>
-  <si>
-    <t>rt @mariantafp: @fezepka não, até pq trabalhamos pra comprar cachecol de harry potter e outros artefatos mágicos</t>
-  </si>
-  <si>
-    <t>primeiro que quem usa cachecol de harry potter nem é gente, é anjo.
-usem mesmo, fica lindo demais bjs https://t.co/fgyh1khfyx</t>
-  </si>
-  <si>
-    <t>sábado eu passei pela imaginarium e vi um cachecol das casas de harry potter, lembrei do gabriel que deu um pra namorada dele e custou r$ 200,00.</t>
-  </si>
-  <si>
-    <t>gente será se é possível pararem de fazer bullying com quem usa cachecol de harry potter? https://t.co/771o4wpks6</t>
-  </si>
-  <si>
-    <t>perai quer dizer que tatuagem de harry potter não pode tb?? puta merda eu vou ter que cortar minha pele qnd eu estiver estável financeiramente? 
-amiga estou totalmente confusa, eu achei que poderíamos fazer oq quiséssemos com nosso corpo https://t.co/5o9q457slg</t>
-  </si>
-  <si>
-    <t>@existirestranho a outra fer proferiu as seguintes palavras: “pelo amor de deus minha filha você tem 26 anos é formada e tem emprego estável tire este cachecol de harry potter do pescoço”
- e os poteredi foram a loucura kkkkk tão xingando até a próxima geração dela. por causa disso. um cachecol.</t>
-  </si>
-  <si>
-    <t>vey, eu ando na rua com a capa de harry potter quando vou sair a noite e com a varinha na mão  (só não uso de dia pq é quente) https://t.co/wdnk8bo5md</t>
-  </si>
-  <si>
-    <t>rt @joaofontelle: digo com tranquilidade que esse é o melhor filme da saga harry potter https://t.co/ylevtmcewd</t>
-  </si>
-  <si>
-    <t>@katiuzatonielo aparece na minha frente com um cachecol do harry potter pra ve se eu não me ajoelho e te peço em casamento linda</t>
-  </si>
-  <si>
-    <t>a danna gravando o studio do harry potter em orlando a bichinha é muito potterhead, me representa.</t>
-  </si>
-  <si>
-    <t>rt @rushsanches: a pessoa tem 26 anos e anda por aí usando cachecol do harry potter?!?
-todo mundo sabe que nessas horas tem que usar o de…</t>
-  </si>
-  <si>
-    <t>@viniciussmunhoz galera encrencando com quem tem 25 anos e usa coisa de harry potter.</t>
-  </si>
-  <si>
-    <t>eu jamais usaria um cachecol do harry potter
-e com 30 anos estarei me vestindo de forma chique para ir a padaria
-https://t.co/ctpksxahmj</t>
-  </si>
-  <si>
-    <t>vocês lembram da primeira vez em que foram ao cinema? 
-eu fui ver harry potter e a pedra filosofal em 2001😆
-se teve algum antes disso, não lembro</t>
-  </si>
-  <si>
-    <t>rt @isabelalargo: @marianaafraga 
-sj
-infância
+    <t>mal posso esperar pelo segundo campeonato intermunicipal de harry potter</t>
+  </si>
+  <si>
+    <t>to relendo harry potter to mt ?? pq o trasgo ta nas masmorras e o dumbledore mandou o povo pra as salas comunais kkkkk oq sera que o povo da sonserina fez  https://t.co/bax4qotbdl</t>
+  </si>
+  <si>
+    <t>harry potter e o enigma da carteira do paulo henrique q sumiu dentro da própria bolsa</t>
+  </si>
+  <si>
+    <t>@nicholassous4 @stonyproud só de ter harry potter já quero😂</t>
+  </si>
+  <si>
+    <t>mais harry potter que o próprio harry potter 😱❤ https://t.co/r5n1dgx6m4</t>
+  </si>
+  <si>
+    <t>fia quase 30 anos, formada e com emprego estável, de briguinha e xingando a coleguinha no twitter por causa de uma zoeirinha. tira esse cachecol do harry potter e vai fazer uma terapia! na moral</t>
+  </si>
+  <si>
+    <t>rt @fallkaw: esse é o melhor harry potter e quem discorda = é corno https://t.co/ushrli1sjz</t>
+  </si>
+  <si>
+    <t>cheguei em casa e ta passando harry potter, tudo q eu precisava</t>
+  </si>
+  <si>
+    <t>gente sei lá o tuíte do cachecol do harry potter era uma piada sabe.........................</t>
+  </si>
+  <si>
+    <t>eu fiquei o próprio harry potter depois de hogwarts https://t.co/o5mga4ljux</t>
+  </si>
+  <si>
+    <t>aprendendo na minha aula que a adolescência é uma criação do capital pra vender harry potter</t>
+  </si>
+  <si>
+    <t>bah o fandom de harry potter não tem mais o que fazer puta que me pariu mesmo. os cara se tocaram por algo que fezepka de porto alegre-rs tweetou. se a fala de gente alheia influencia tanto assim sua vida amore..... puts tá ruim a coisa</t>
+  </si>
+  <si>
+    <t>rt @bohmianrhaps: eu quando o rony e o harry encontraram o dino e a gina se pegando muito num corredor vazio https://t.co/xmmwvlppni</t>
+  </si>
+  <si>
+    <t>o último ano que realmente consegui aproveitar estando com pessoas queridas foi em 2018 com todos os eventos de harry potter que fui o show da camila e a ccxp e o meu aniversário</t>
+  </si>
+  <si>
+    <t>@marinamarina eu tenho 32 uso cobertor, pijama, meia e caneca do harry potter</t>
+  </si>
+  <si>
+    <t>o elenco adolescente de harry potter e o que estão fazendo hoje em dia: a thread.</t>
+  </si>
+  <si>
+    <t>a musica do harry potter ok a música do harry potter</t>
+  </si>
+  <si>
+    <t>rt @joaanaalvess: como é que voces nao gostam de harry potter, juro é incrível</t>
+  </si>
+  <si>
+    <t>só queria maratonar harry potter, pena q a dona netflix n colabora cmg</t>
+  </si>
+  <si>
+    <t>rt @potterish: uma universidade fez um manual de calouros inspirado em harry potter! 😍 só não sabemos de quem foi a ideia. 😂 vocês sabem? h…</t>
+  </si>
+  <si>
+    <t>rt @cellawr: @fezepka mas se eu tô formada e tenho um emprego estável, é pra eu poder vestir o que eu bem entender, seja um cachecol do har…</t>
+  </si>
+  <si>
+    <t>to maratonando harry potter, bom dmsss vsf</t>
+  </si>
+  <si>
+    <t>@batclopedia harry potter. simplesmente por não ter curiosidade alguma /:</t>
+  </si>
+  <si>
+    <t>rt @feoliiveiiira: -você é fã de harry potter?
+-sim
+-e não teve uma crise existencial com a morte do dobby?
+-não 
+-e é fã de harry pott…</t>
+  </si>
+  <si>
+    <t>achetez https://t.co/42nhj92lw7</t>
+  </si>
+  <si>
+    <t>evana lynch, também com 28 anos, não foi muito vista depois de harry potter também. ela, que não era atriz e ganhou o papel por cartas enviadas à j. k. rowling, foi vista pela última vez no filme g.b.f. (gay best friend) de 2013. https://t.co/tdx8gatwpz</t>
+  </si>
+  <si>
+    <t>parte 2 - fica a indicação 
+troca de corpo - out of my body - @meustony
+•aquário - the pick-up artist @omggstark 
+•filhas- operação cupido @starkliop (indisp)
+•steve mecânico - cobra coral @stonytdam
+•harry potter @favalkyrie
+•bbb @bbbstony</t>
+  </si>
+  <si>
+    <t>meu deus q vontade de maratonar harry potter</t>
+  </si>
+  <si>
+    <t>se eu não posso gastar uma fortuna em itens colecionáveis de harry potter, de que serve o dinheiro?</t>
+  </si>
+  <si>
+    <t>obrigada torrent por ter todos os filmes de harry potter
+netflix p q eu tenho a ver???</t>
+  </si>
+  <si>
+    <t>rt @fan_harrypotter: quando um fã de harry potter descobre que pode fazer magia: https://t.co/4e2arno1ru</t>
+  </si>
+  <si>
+    <t>@eitakel @carolmoreira3 @hey_mika eu amo senhor dos aneis
+mas... eu sou assim com harry potter. até hoje não consegui assistir tudo... eu durmo na metade e é realmente um esforço assistir. 
+desculpa!</t>
+  </si>
+  <si>
+    <t>tô assistindo harry potter e tava inconformada por todos os testes agr me mandarem pra grifinória. daí, pensei que se eu fosse de sonserina msmo o severo teria me expulsado a muito tempo e que só a minerva pra me manter em hogwarts. fora que eu fico muito bem de vermelho...</t>
+  </si>
+  <si>
+    <t>nunca pensei que fosse falar isso mais to amando harry potter</t>
+  </si>
+  <si>
+    <t>rt @rafaelcampos: "você tem 26 anos, emprego e usa cachecol de harry potter?"
+o jovem mal imagina que a maior felicidade de envelhecer é n…</t>
+  </si>
+  <si>
+    <t>"que _____ o que, meu filho, você tem 30 anos"
+a mesma internet que retuita posts do tipo todos os dias tá aloprando pra cima da menina do cachecol do harry potter?
+se decidam, kerenlhon</t>
+  </si>
+  <si>
+    <t>james e oliver phelps, os gêmeos fred e jorge, ambos com 33 anos, basicamente não trabalharam com cinema após a saga de harry potter. só james (fred) apareceu em um filme chamado the turn, de 2012. https://t.co/babezcwk77</t>
+  </si>
+  <si>
+    <t>louie e harry potter são a mesma pessoa e eu tenho provas https://t.co/gztu2ivwkl</t>
+  </si>
+  <si>
+    <t>rt @djnnilo: +2 com a varinha do harry potter 🧙‍ https://t.co/yfnqxcoyd0</t>
+  </si>
+  <si>
+    <t>de tanto que eu já assisti nas reprises da tv eu enjoei um pouco e acho que não ficaria confortável em assistir mais filmes ambientados no mundo de harry potter</t>
+  </si>
+  <si>
+    <t>mcfly (assim como sandy e júnior e harry potter) deve ser superado</t>
+  </si>
+  <si>
+    <t>@luccanajar queria dizer que harry potter sou eu hahahaha</t>
+  </si>
+  <si>
+    <t>rt @caffeinefields: eu comprei oito livros na bienal
+dois de presente pro namorado
+e o box de harry potter
+mas quando me perguntaram qual…</t>
+  </si>
+  <si>
+    <t>os primeiros filmes de harry potter são tão maravilhosos e tão cheios de inocência... tipo, eles nem imaginam a forma como o pau vai comer nos anos seguintes e estão fofinhos aprendendo wingardium leviosa</t>
+  </si>
+  <si>
+    <t>harry potter é o melhor filme ever, não canso de ver</t>
+  </si>
+  <si>
+    <t>eu amo harry potter toma no cu</t>
+  </si>
+  <si>
+    <t>segundou assistindo harry potter</t>
+  </si>
+  <si>
+    <t>estou relendo "harry potter e o enigma do príncipe" https://t.co/glgmntnzmw #skoob</t>
+  </si>
+  <si>
+    <t>rt @hp_feelings: harry potter só acaba pra quem é trouxa.</t>
+  </si>
+  <si>
+    <t>ou eu tô certa ou eu tô assistindo muito harry potter</t>
+  </si>
+  <si>
+    <t>chocada em cristo que o luan santana tem uma tatuagem de harry potter</t>
+  </si>
+  <si>
+    <t>@hannobudenbrook como se crianças fossem gostar super de harry potter uma porra de um negocio dos anos 90 é obvio q a maior parte dos fãs vao ser adultos</t>
+  </si>
+  <si>
+    <t>eu tô lendo harry potter de novo mesmo com 200 textos da faculdade pra ler, harry potter me acalma foda-se</t>
+  </si>
+  <si>
+    <t>eu amo harry potter</t>
+  </si>
+  <si>
+    <t>na real ela tambem quer ir pra casa tomar um banhozinho botar sua samba canção do harry potter e um chinelo</t>
+  </si>
+  <si>
+    <t>rt @brnalcantara: o elenco adolescente de harry potter e o que estão fazendo hoje em dia: a thread.</t>
+  </si>
+  <si>
+    <t>warner bros planeja produzir novo filme de harry potter com elenco original https://t.co/8vx8f34yfc</t>
+  </si>
+  <si>
+    <t>saudade do meu quartinho com coisas do harry potter por todos os lados</t>
+  </si>
+  <si>
+    <t>nossa fazia um tempão que eu não via harry potter</t>
+  </si>
+  <si>
+    <t>rt @karlaleidiane_: vontade de assistir harry potter, mas não tem todos os filmes disponíveis na @netflixbrasil, isso não é uma indireta, m…</t>
+  </si>
+  <si>
+    <t>rt @booksndream: eu com 22 anos na cara, quase formada em direito, vou usar colcha de cama do harry potter sim! saio na rua com a camiseta…</t>
+  </si>
+  <si>
+    <t>@ana_ou_melanie @skidamarin o cabelo da cíntia parecia  hermione no primeiro harry potter né</t>
+  </si>
+  <si>
+    <t>só um harry potter e a câmara secreta agora pela 1263824629 vez</t>
+  </si>
+  <si>
+    <t>rt @omelete: balde de água fria! novo projeto de harry potter e a criança amaldiçoada é livro de bastidores: https://t.co/r4kecndlz2 https:…</t>
+  </si>
+  <si>
+    <t>@netflixbrasil primeiro você adicionou dirty dancing no catálogo dnv e agora vai atualizar a série.
+nunca mais reclamo sobre harry potter, juro.</t>
+  </si>
+  <si>
+    <t>@amoradinha a varinha do harry potter</t>
+  </si>
+  <si>
+    <t>harry potter e a camera secreta, pq tao horrível?????</t>
+  </si>
+  <si>
+    <t>cadê a incomodada com o povo de 26 anos usando cachecol de harry potter?!?! em 28 da instituição zé guilherme finalmente realizei meu sonho de ter bottons na mochila 😊</t>
+  </si>
+  <si>
+    <t>o pessoal gasta o tempo online falando sobre usar cachecol do harry potter, vão se fude internautas</t>
+  </si>
+  <si>
+    <t>@bolsoneas se eu tivesse um filho eu recomendaria um livro melhor tipo harry potter,acho um livro mt melhor de ficção q a bíblia</t>
+  </si>
+  <si>
+    <t>entrei na secção de harry potter pra comprar uma agenda e estava lá uma que era o diário do tom riddle em pele mm top.... custa 40€ :'))))))</t>
+  </si>
+  <si>
+    <t>@yndrao foi atendida pelo harry potter?</t>
+  </si>
+  <si>
+    <t>puta merda q sdd de ler harry potter</t>
+  </si>
+  <si>
+    <t>chorando por motivos de: estou assistindo harry potter e a câmera secreta e o final sempre me deixa chorosa</t>
+  </si>
+  <si>
+    <t>rt @raivotril: a menina do "26 anos e cachecol do harry potter" não sabia o ninho de vespa que ela tava cutucando né
+a pobe</t>
+  </si>
+  <si>
+    <t>@marcy_zy @warneruniverse porque harry potter é tão mais importante que manter a integridade de uma mina qualquer, né? porra</t>
+  </si>
+  <si>
+    <t>@alexiacrrd @lordevoidemort exato, é só um meme, e é só uma conta de um personagem fictício lorde das trevas do universo de harry potter. tem realmente problema você-sabe-quem achar engraçado o pessoal n saber como diagrama de venn funciona? 😆😆😆</t>
+  </si>
+  <si>
+    <t>@allen_de_ eu acho que todo mundo é um pouco o jovem chato mas porra bicho pensa no nível de tédio que o ser humano tem que tá pra criticar com todo fervor harry potter sabe kkkkkkkkkkkkk</t>
+  </si>
+  <si>
+    <t>@netflixbrasil e harry potter sua linda 😘</t>
+  </si>
+  <si>
+    <t>@btsarelights eu tinha 12 foi eu mais duas amigas ver harry potter a gente pego o ônibus errado e uma tinha medo de anda de ônibus 🤣🤣🤣🤣</t>
+  </si>
+  <si>
+    <t>@impickypicky harry potter 
+jogos vorazes 
+lar das crianças peculiares</t>
+  </si>
+  <si>
+    <t>rt @eitafritz: 🌈a saga a arma escarlate🌈
+muito comparado com harry potter, essa aqui é uma história de um morador da favela do rj que desc…</t>
+  </si>
+  <si>
+    <t>rt @p4zvzv: no meu país zoamos harry potter e as pessoas não se importam</t>
+  </si>
+  <si>
+    <t>povo britanico gosta de um suspense desnecessário né lembrei agora da noticia envolvendo harry potter que no fim não era nada grandioso nada que valesse o mistério</t>
+  </si>
+  <si>
+    <t>@redetelecine todos do harry potter
+ninguém me suporta quando eu falo de harry potter 🤦🧘</t>
+  </si>
+  <si>
+    <t>oh gente, tem um amigo do antigo trabalho me chamando para ir no bar tematico do harry potter, mas eu nem sei se lá é legal e tbm n sei se é caro</t>
+  </si>
+  <si>
+    <t>harry potter terá um filme inédito com a volta do elenco original https://t.co/eluose3y42</t>
+  </si>
+  <si>
+    <t>uma vez o luis veio em casa e minha cama tava com o meu lençol do harry potter, as vezes quando ele vem dnv pergunta cadê o meu lençol https://t.co/hcxki6ucyk</t>
+  </si>
+  <si>
+    <t>harry potter da secretaria: o retorno</t>
+  </si>
+  <si>
+    <t>it 2 é um filme do tipo tosco e extremo no melhor sentido da palavra. você passa duas horas pra descobrir que o pênis wise morre com um simples feitiço "riddikulus" do harry potter. https://t.co/xqaglzu90q</t>
+  </si>
+  <si>
+    <t>chegada de beauxbatons ilustrada por jim kay ganha prévia na internet #harrypotternews #af #jkrowling ^o^ https://t.co/sl6frpnwvm https://t.co/0yebpzqhgi</t>
+  </si>
+  <si>
+    <t>começando pelo nosso eterno harry, daniel radcliffe, hoje com 30 anos. após harry potter, o ator fez alguns filmes de sucesso (a dama de preto, frankenstein, truque de mestre). seus trabalhos mais recentes são o filme beast of burden (2018) e a série miracle workers (2019). https://t.co/bv4vfhejuz</t>
+  </si>
+  <si>
+    <t>tá passando harry potter no telecine, telecineeeeeee 😍😍😍😍😍😍</t>
+  </si>
+  <si>
+    <t>rt @oimorehh: faz 84 anos q tô esperando lançar harry potter na netflix</t>
+  </si>
+  <si>
+    <t>em primeiro lugar pau no cu de jk rowling em segundo eu nem sou muito ligado em harry potter mas prisioneiro de azkaban é uma obra prima falo com tranquilidade https://t.co/bybf0xi1sp</t>
+  </si>
+  <si>
+    <t>se as pessoas lesse harry potter ou qualquer outro livro,não ficariam falando merda na internet 
+li harry potter umas 4 vezes só pra confirmar mesmo. https://t.co/gbcytttcwe</t>
+  </si>
+  <si>
+    <t>@mosaico223 animais fantasticos eh uma bosta eh mt entediante chato pessimo e olba q eu era fa de harry potter doida eu ia pra felicia comprar material pra fazer varinha de harry pottwr em casa eu fiz varias</t>
+  </si>
+  <si>
+    <t>@_mariecrf meu sonho é que esses cornos liberem harry potter,está mais que na horaaaa</t>
+  </si>
+  <si>
+    <t>rt @brunagoulart: @anarcoleptico ok usar cachecol de harry potter  não é sinal de imaturidade mas ficar de briguinha na internet pq alguém…</t>
+  </si>
+  <si>
+    <t>rt @dinossaura_miau: já pararam pra pensar que nós conseguimos imitar as fotos bruxas que se movem (em harry potter) a partir do momento qu…</t>
+  </si>
+  <si>
+    <t>uma verdade que ninguém aceita — senhor dos anéis é disparado melhor do que harry potter https://t.co/ekhejwyjwp</t>
+  </si>
+  <si>
+    <t>fã de harry potter é tão insuportável em tantos aspectos pra vocês reclamarem de uma coisa tão boba quanto usar cachecol, sabe</t>
+  </si>
+  <si>
+    <t>andar com uma plaquinha vendendo "brigadeiro mágico" ? ok. sair com roupa de harry potter? ok. andar de salto, chinelo ou tênis, roupa longa, comportada ou todo largado? ok tbm, ninguém liga pra nada o povo só vive. aprende ai menina montes claros</t>
+  </si>
+  <si>
+    <t>quase 30 anos emprego estável e acusando um tweet falando sobre a bitolagem q é harry potter leia outro livro supere ngm aguenta mais</t>
+  </si>
+  <si>
+    <t>o que é macho literário perto da leah????? toda vez q ela faz referência de harry potter eu fico assim 🥰🥰🥰🥰🥰</t>
+  </si>
+  <si>
+    <t>"eu to quase me formando, ja passei da fase de atlética"
+"ah lá, 30 anos na cara e usando coisa de harry potter"
+mano, n existe idade p nd, se a pessoa quer participar, usar, foda-se, n é da sua conta. eu quero ter 50 anos e usar camisa do bmo e foda-se.</t>
+  </si>
+  <si>
+    <t>@thaa_bragadini eu comprei anéis que ficaram gigantescos kkkkk e um pincel que é maior que uma varinha do harry potter</t>
+  </si>
+  <si>
+    <t>rt @stonyproud: um bolo desse com uma coquinha gelada embaixo das cobertas maratonando harry potter https://t.co/qr6hgsvqqc</t>
+  </si>
+  <si>
+    <t>@lrojo__ gordo chupa pija pariente de harry potter</t>
+  </si>
+  <si>
+    <t>"vc tem 26 anos emprego e usa cachecol de harry potter?"
+depois dos 30 você entende que ir ao supermercado usando pijamas do super mario bros. num sábado de manhã é libertador.</t>
+  </si>
+  <si>
+    <t>você tem 26 empregos, harry potter e usa anos de cachecol?</t>
+  </si>
+  <si>
+    <t>@felipeneto vc me seduziu pelos seus gostos peculiares 😈.....de harry potter 😂😂😂.temos a mesma tatoo das relíquias da morte.assisto todo dia seu canal com minha filha de 11 anos.esse presidente fez lavagem cerebral nesse povo na campanha dele,so pode.😂😂😂😂não sei pq nem vi😂😂</t>
+  </si>
+  <si>
+    <t>@netflixbrasil nunca mais reclamo sobre harry potter, juro.</t>
+  </si>
+  <si>
+    <t>mano tem harry potter e a pedra filosofal na globoplaaaay
+tchau pra vocês, eu fui.</t>
+  </si>
+  <si>
+    <t>meu harry potter so fica mais fofo</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>é chique o harry potter falando cas cobra</t>
+  </si>
+  <si>
+    <t>eu amo harry potter cara, na moralzinha</t>
+  </si>
+  <si>
+    <t>baile temático do universo harry potter se despede do inverno e comemora 10 anos do shinobi em curitiba - bem paraná https://t.co/tlxg1zckoz</t>
+  </si>
+  <si>
+    <t>@thiaugo socorrroo! eu fiz um de harry potter, sdds kkkk</t>
+  </si>
+  <si>
+    <t>vou fazer tatuagem quarta feira talvez eu esteja nervosa mais duas vai ser significativo pra mx e uma de harry potter se eu fizer 3 a 4 é de graça mais n sei o fazer ainda pensando se tatuou if only que a musica dos meninos ou uma tatuagem igual a do seungyoun dos rostinhos</t>
+  </si>
+  <si>
+    <t>harry potter tem meu coração não vou negar</t>
+  </si>
+  <si>
+    <t>ai namoral harry james potter é tão incrível</t>
+  </si>
+  <si>
+    <t>tomando caldo de cana vendo harry potter de baixo da coberta (pois febre né?! )</t>
+  </si>
+  <si>
+    <t>que história é essa do cachecol de harry potter??</t>
+  </si>
+  <si>
+    <t>não existe trilha sonora que me dê maior sensação de nostalgia que a do harry potter</t>
+  </si>
+  <si>
+    <t>@thiegonovais acho incrível o fato dele odiar ser só o harry potter, o que é muito compreensível mas ao mesmo tempo amar tanto o personagem que nunca renegou ou cuspiu no próprio prato como muitos atores</t>
+  </si>
+  <si>
+    <t>rt @mr_benns: sinto bué o outono e o início do inverno alturas perfeitas para fazer maratonas de harry potter</t>
+  </si>
+  <si>
+    <t>livro será lançado em inglês em outubro https://t.co/57oixa4qhx</t>
+  </si>
+  <si>
+    <t>jesus preciso imediatamente ver harry potter https://t.co/otmnrpjcxb</t>
+  </si>
+  <si>
+    <t>@warneruniverse @victoriamcgallo pelo amor de deus minhas filhas parem de falar assim e superem esse tweet. se a sororidade passou longe num tweet sobre harry potter, não imagino nem o que mais pode sair daí</t>
+  </si>
+  <si>
+    <t>rt @lopes33988137: eu devia ter lido harry potter em vez de ver os filmes</t>
+  </si>
+  <si>
+    <t>@flaviafsantos__ harry potter é merda</t>
+  </si>
+  <si>
+    <t>harry potter é o caralho, eu quero é a ultima temporada de a guarda do leão @netflixbrasil</t>
+  </si>
+  <si>
+    <t>o unico problema de ter 26 anos e usar cachecol de harry potter é se ele for licenciado e tiver dando dinheiro pra j.k.</t>
+  </si>
+  <si>
+    <t>rt @fukinsaymyname: alguém pra vir hj cá a casa ver harry potter?</t>
+  </si>
+  <si>
+    <t>tô assistindo harry potter ❤💛</t>
+  </si>
+  <si>
+    <t>@ericoswig @justeensuivan gente a minha ex-chefe ama harry potter que deu até um vira tempo e ela usava e ela trabalha no tribunal assistente de juiz</t>
+  </si>
+  <si>
+    <t>@sohardtoplease ao que parece vc com 26 mãos não pode usar cachecol do harry potter</t>
+  </si>
+  <si>
+    <t>graças a deus vendo harry potter</t>
+  </si>
+  <si>
+    <t>@bloombarnes eu sempre soube que era o verdadeiro harry potter!!</t>
+  </si>
+  <si>
+    <t>vontade de maratona harry potter, mas tenho que ir pra escola af</t>
+  </si>
+  <si>
+    <t>e depois o chayeol aparecia e eles se tornaram amigos e ficaram brincando de harry potter ??? kkk preciso parar um pouco com as fanfics</t>
+  </si>
+  <si>
+    <t>problema das pessoas é achar que quando você cresce e passa dos 20 você tem que perder a "magia disney" e começar a agir como um adulto para se encaixar na sociedade ou você é excluído, e portanto, usar o cachecol do harry potter não é uma atitude "adulta". bullshit. https://t.co/munvwrheln</t>
+  </si>
+  <si>
+    <t>hoje foi a primeira vez q minha irmã viu harry potter e adorou... perguntou se tinha na @netflixbrasil e eu falei que não. advinha quem chorou?</t>
+  </si>
+  <si>
+    <t>odeio o amor repentino da sociedade por harry potter</t>
+  </si>
+  <si>
+    <t>pessoa falar que não pode usar cachecol do harry potter com 26 anos, imagina se essa coitada me conhecesse, logo eu</t>
+  </si>
+  <si>
+    <t>harry potter e a câmara secreta❤</t>
+  </si>
+  <si>
+    <t>por favor governo proteja nossos adultos que usam cachecol do harry potter eles nao merecem esses ataques que estão recebendo d adolescentes indies da internet</t>
+  </si>
+  <si>
+    <t>latim: nível básico
+(sei o nome de tres feitiço do harry potter)</t>
+  </si>
+  <si>
+    <t>rt @deathaliows: meu harry potter so fica mais fofo</t>
+  </si>
+  <si>
+    <t>rt @fernaohenrique: a pessoa tem 40 anos de idade, é concursada, vida estável e vai dar aula vestido de harry potter?
+absurdo https://t.co/…</t>
+  </si>
+  <si>
+    <t>tá passando o filme esquecido do harry potter e câmara secreta no telecine pipoca</t>
+  </si>
+  <si>
+    <t>vão lá na loja de posters do meu irmão e da minha cunhada
+tem de harry potter, animais fantásticos, friends, star wars... e o frete é grátis 
+https://t.co/a3cgwvqfmk</t>
+  </si>
+  <si>
+    <t>rt @slythefoy: qual eh o melhor personagem de harry potter e pq draco malfoy????? — falou tudo, draco maior e melhor https://t.co/kav5vpiizh</t>
+  </si>
+  <si>
+    <t>tava presa fora de casa e minha vizinha me abrigou
+os filhos dela são a coisa mais fofa da vida. 
+um se chama lucius e a outra luna e sim é por causa de harry potter.</t>
+  </si>
+  <si>
+    <t>@brvus harry potter e a batalha das varonas</t>
+  </si>
+  <si>
+    <t>@kimochiwaarui meu sonho ter 26 anos formada com emprego estável e usar cachecol do harry potter</t>
+  </si>
+  <si>
+    <t>pena de morte pra quem usa cachecol de harry potter</t>
+  </si>
+  <si>
+    <t>o último mesversario dele vai ser do harry potter, planejo isso a tempo aahuehaisjejlw filho ou boneco?</t>
+  </si>
+  <si>
+    <t>@ericoswig @dracomfoy usar cachecol do harry potter nunca vai ser problema, o problema é a pessoa ser preconceituosa de forma geral e ainda maltratar as outras pessoas.</t>
+  </si>
+  <si>
+    <t>rt @juliafurtado11: sou a única q nnc viu harry potter? 🤦‍♀️</t>
+  </si>
+  <si>
+    <t>rt @rafa_gsans: melhor filme do harry potter é o prisioneiro de azkaban</t>
+  </si>
+  <si>
+    <t>assistindo harry potter no meu niver aí que feliz! seria melhor se estivesse frio</t>
+  </si>
+  <si>
+    <t>vendo harry potter pela 1816169 sendo q tenho um monte de trabalho para fazer</t>
+  </si>
+  <si>
+    <t>@netflixbrasil tá de parabéns hein, mas e harry potter?</t>
+  </si>
+  <si>
+    <t>sou fanática por harry potter, star wars, jogos vorazes e sagas em geral.</t>
+  </si>
+  <si>
+    <t>omfg! no creo! é sonho?! https://t.co/uieygiuije</t>
+  </si>
+  <si>
+    <t>q vontade q deu agora de faltar aula pra ficar maratonando todos os filmes de harry potter https://t.co/pauudbjdod</t>
+  </si>
+  <si>
+    <t>nada melhor do que chegar cedo em casa e assistir harry potter</t>
+  </si>
+  <si>
+    <t>quem é o melhor personagem de harry potter e porque o dobby</t>
+  </si>
+  <si>
+    <t>eu tenho 33 anos emprego estável e não apenas uso cachecol do harry potter tricotado por mim mesma como tb levo o dog pra passear usando meu pijama do harry potter 
+pq a vida é minha e faço o que quiser
+arrombados</t>
+  </si>
+  <si>
+    <t>harry potter mostra a única situação no mundo onde as crianças preferem está na escola do que em casa. #harrypotter #hogwarts https://t.co/i5jbrkuzo9</t>
+  </si>
+  <si>
+    <t>muito maduro chegando no curso e pegando meu lápis do harry potter  e minha caneta do doctor who</t>
+  </si>
+  <si>
+    <t>nessa última maratona de harry potter que minha mãe obrigou a gente a fazer, eu finalmente percebi porque todo mundo ama o prisioneiro de azkaban</t>
+  </si>
+  <si>
+    <t>linda semana para ver harry potter</t>
+  </si>
+  <si>
+    <t>por mais cringey q vc ache q é adulto gostar de desenho/livro "infantil" ou ter fandom vc deve no mínimo respeitar a felicidade da pessoa ¿¿¿ não é pq você não tem coragem p assumir um cachecol de harry potter q a moça é obrigada a parar de usar pelamor né deixem de ser ranzinzas</t>
+  </si>
+  <si>
+    <t>@annewindmill hahaha será que mcfly vai fazer o harry potter e tombar os fãs?</t>
+  </si>
+  <si>
+    <t>@netflixbrasil meu sonho é ver um twitte da @netflixbrasil anunciando que todos os filmes da saga harry potter estão disponíveis.</t>
+  </si>
+  <si>
+    <t>e eu posso falar disso com propriedade pois sou ambos. fã de harry potter e completamente insuportável</t>
+  </si>
+  <si>
+    <t>@fepmoreira eu nao entendi qual o problema de usar cachecol de harry potter com quase 30 anos 
+eu quero uma luvinha de naruto pra usar na academia ué</t>
+  </si>
+  <si>
+    <t>a mãe vendo harry potter pela primeira vez indignada com como ele era maltratado https://t.co/z1omgqkvfb</t>
+  </si>
+  <si>
+    <t>se tem algo na indústria cinematográfica que seja tão ruim quanto a franquia x-men eu desconheço, pqp!
+nem harry potter chega ser tão ruim assim.</t>
+  </si>
+  <si>
+    <t>vez ou outra eu lembro daquela motoca do capeta do harry potter no parque da universal e eu penso quem foi o abençoado que criou aquilo</t>
+  </si>
+  <si>
+    <t>harry potter e a pedra filosofal✅
+camara secreta✅
+prisioneiro de askaban✅
+cálice de fogo
+a ordem da fênix
+o enigma do príncipe
+as relíquias da morte</t>
+  </si>
+  <si>
+    <t>n consigo parar de ouvir o funk do harry potter</t>
+  </si>
+  <si>
+    <t>eu acho que o pior erro que qualquer pessoa pode fazer quando fala comigo é mencionar harry potter ou idols
+10/10 would not recommend https://t.co/740hkgb9z9</t>
+  </si>
+  <si>
+    <t>rt @deathaliows: aquela cena em harry potter q harry se revolta e vai embora da casa dos dursley depois de fazer a tia guida virar um balao…</t>
+  </si>
+  <si>
+    <t>me lembro bem quando eu era criança, e via harry potter e a câmera secreta, e morria de medo do dobby, das vozes q o harry ouvia, mas mesmo assim assistia, pq meu amor era maior. hahahaha</t>
+  </si>
+  <si>
+    <t>acho q vou repetir saga do harry potter pela milésima vez</t>
+  </si>
+  <si>
+    <t>@globoplay @globoplay você vai responder os comentários do post "mágico" do harry potter? https://t.co/npa9iajiek</t>
+  </si>
+  <si>
+    <t>rt @nes_coelho11: a kálli está na casa gryffindor e tem jantar temático de harry potter e ao descobrir isto, fiquei assim: https://t.co/swm…</t>
+  </si>
+  <si>
+    <t>não precisa nem ser alto, sendo da mesma altura já tá ótimo e que esteja disposto a dançar coreografias comigo e assistir harry potter e minhas séries preferidas https://t.co/ddt0tbn4mj</t>
+  </si>
+  <si>
+    <t>as pessoa realmente acham que dar uma opinião sobre o uso do cachecol de harry potter é militância?????? gente vcs tão bem doido mesmo ne</t>
+  </si>
+  <si>
+    <t>top 3 filmes favoritos teus ? — um amor pra recordar
 harry potter
-inglês
-leni
-gramáticas</t>
-  </si>
-  <si>
-    <t>@netflixbrasil o nome é harry potter</t>
-  </si>
-  <si>
-    <t>a pessoa com 26 anos formada e com emprego estável nesta economia o mínimo que ela pode se reservar é o direito de usar cachecol do harry potter https://t.co/nrreehlrok</t>
-  </si>
-  <si>
-    <t>rt @yrvingmartins: nn existe filme melhor que harry potter &amp;amp; velozes e furiosos 😏😎</t>
-  </si>
-  <si>
-    <t>maratona de harry potter pode ♥️ e também de outros filmes q gosto muito  nessa minha última semana atoa !!
-velozes e furiosos e piratas do caribe !</t>
-  </si>
-  <si>
-    <t>podia estar estudando pra física? sim. mas estou maratonando harry potter? sim.</t>
-  </si>
-  <si>
-    <t>rt @haji_mon: @kimochiwaarui @nononorat minha meta é ter emprego pra sair igual o harry potter na rua</t>
-  </si>
-  <si>
-    <t>rt @phamfotografia: @netflixbrasil saudade do que ainda a gente não viveu, saga inteira do harry potter na netflix.</t>
-  </si>
-  <si>
-    <t>4 - o que me anima
-harry potter sempreeee
-desenhar
-comeeerrrr
-maratonar netflix (comendo)</t>
-  </si>
-  <si>
-    <t>@fezepka mais chato que um fã de harry potter só um hater de harry potter</t>
-  </si>
-  <si>
-    <t>inclusive tem uma resenha do livro carry on, feita pela gabi, lá no canal. é um livro de fantasia, que se passa numa escola de magia (bem tipo harry potter) em que o protagonista é lgbt, e tem um romance.
-https://t.co/ni5qcr9cuk https://t.co/9p9iwe7ql7</t>
-  </si>
-  <si>
-    <t>o erro dessa moça foi atacar um dos públicos mais chatos do twitter... os fãs de harry potter https://t.co/kiegdd0sgp</t>
-  </si>
-  <si>
-    <t>vi que vai ter filme novo de harry potter com o elenco original e vim saber se é verdade</t>
-  </si>
-  <si>
-    <t>rt @daveismyzebra: @fezepka @agnygemimas a pessoa usa crocs e vem falar de cachecol do harry potter...por favor, né?</t>
-  </si>
-  <si>
-    <t>rt @pjograce: silêncio 
-diretamente de hogwarts, o melhor lyric de harry potter
-https://t.co/bhqrsym0rh</t>
-  </si>
-  <si>
-    <t>até hj querendo saber onde foi parar meu chinelo do harry potter que só usei uma vez no ano novo</t>
-  </si>
-  <si>
-    <t>harry potter ganhará novo filme com elenco original, aponta site https://t.co/xanqbssefl</t>
-  </si>
-  <si>
-    <t>@kriptomikey1998 amiga só harry potter praticamente https://t.co/ldbjwfvzu5</t>
-  </si>
-  <si>
-    <t>posso estar c 50 anos e vou usar cachecol de harry potter sim kkkkkkk inclusive vai tomar no cu https://t.co/fcfcfa71lj</t>
-  </si>
-  <si>
-    <t>rt @lalaleal9: terminei o primeiro e já tô muito fã do harry potter. 
-@editorarocco https://t.co/d9nfpcx068</t>
-  </si>
-  <si>
-    <t>faz 84 anos q tô esperando lançar harry potter na netflix</t>
-  </si>
-  <si>
-    <t>rt @larrielf: pfvr todos os potterheads, deixem de usar roupas e acessorios relacionados a saga pq a fezepka acha tosco ser adulto e fã de…</t>
-  </si>
-  <si>
-    <t>não tire este cachecol de harry potter do pescoço, não mate sua criança interior https://t.co/e5ni01v9v6</t>
-  </si>
-  <si>
-    <t>hoje a negri levou aqueles feijoezinhos do harry potter e que desgraçaaaaa vei, o de ovo podre ficou uns 5m na minha boca, ainda bem q ela tinha bala</t>
-  </si>
-  <si>
-    <t>@fezepka exato, ela tem 26 anos, é formada, tem um emprego estável então se ela quiser andar com um cachecol de harry potter no pescoço, ela pode pq a vida é dela, n é vc q paga as contas dela, então deixa a mulher fazer oq ela quiser krlh</t>
-  </si>
-  <si>
-    <t>rt @phenexwright: eu só vi o tal tweet do cachecol de harry potter e
-francamente essa disgrama diz um negócio desses na minha cara e vai f…</t>
-  </si>
-  <si>
-    <t>rt @ferreir4feer: eu tenho a impressão de que sou uma das únicas pessoas no mundo que nunca assistiu ou leu a saga harry potter mas que tam…</t>
-  </si>
-  <si>
-    <t>sonhei com harry potter ???????</t>
-  </si>
-  <si>
-    <t>rt @meadmiravcjulia: se as pessoas te julgam porque com 26 anos cê quer usar um cachecol do harry potter eu imagino quando eu tiver 60 e ai…</t>
-  </si>
-  <si>
-    <t>a cada dia diferente aparece alguém militando em cima do tweet do cachecol do harry potter</t>
-  </si>
-  <si>
-    <t>eu tirei gina weasley.  https://t.co/dzox1azo3v via @playbuzz</t>
-  </si>
-  <si>
-    <t>o teu direito de criticar o uso dos cachecóis da série harry potter se estende ao dever de respeitar o gosto e decisão alheios. eu nem gosto da série e nem muito menos tenho vontade de usar esse tipo de cachecol, mas pra mim o que não deve ter idade é o bom senso e o respeito.</t>
-  </si>
-  <si>
-    <t>mas eu to estudando pra ter um emprego estável justamente pra poder comprar tudo do harry potter https://t.co/gsdvuybnil</t>
-  </si>
-  <si>
-    <t>rt @netflixbrasil: todo mundo fica perguntando, "cadê a minha série, netflix?", "cadê a nova temporada, netflix?",  "cadê harry potter, net…</t>
-  </si>
-  <si>
-    <t>eu fico de cara que a ideia das pessoas de ser adulto é retirar todo o lúdico da tua dinâmica diária. vide a mulher mandando outra mulher tirar o cachecol de harry potter.
-ser adulto é não brincar hora nenhuma, e isso é uma ideia extremamente nociva de ser propagada.</t>
-  </si>
-  <si>
-    <t>eu tava lendo sobre a história do cachecol e percebi que algo parecido aconteceu comigo. 
-eu vou pra aula da pós graduação com camiseta do pokémon e com sacola do harry potter.
-eu pintei o cabelo de verde.
-as duas coisas foram usadas pra diminuir quem eu sou...</t>
-  </si>
-  <si>
-    <t>eu odeio tanto quem se mete na vida dos outros e ao que nao lhe diz respeito q a vontade é de sair agora pelas lojas do centro procurando um cachecol do harry potter e usar todo dia, até na pra praia, eu hein https://t.co/b1eoyembkv</t>
-  </si>
-  <si>
-    <t>rt @dalete_marques: @fezepka moça, leia harry potter. 
-você vai querer usar um  cachecol desses também</t>
-  </si>
-  <si>
-    <t>rt @professordum: queria estar assistindo harry potter com o crush.</t>
-  </si>
-  <si>
-    <t>@devilstricke dançar, ler harry potter, caminhar, andar de skate(ou longboard) e jogar minecraft, the sims e amor docekk</t>
-  </si>
-  <si>
-    <t>se eu tivesse um cachecol do harry potter usaria até no calor que faz aqui em mg https://t.co/extzzagsgz</t>
-  </si>
-  <si>
-    <t>rt @julmm_: vontade de maratonar harry potter tudo de novo</t>
-  </si>
-  <si>
-    <t>@jvoaovictor dá pra brincar de harry potter</t>
-  </si>
-  <si>
-    <t>hqs censuradas e harry potter banido: o que está acontecendo na cultura pop? https://t.co/ubkltetv0s</t>
-  </si>
-  <si>
-    <t>@jvoaovictor isso não muda o fato de que dá pra brincar de harry potter kkkkkkk</t>
-  </si>
-  <si>
-    <t>não pq o jovem sai de casa com a roupa que ele quiser o cachecol do harry potter não sei o que https://t.co/fb6gosi95y</t>
-  </si>
-  <si>
-    <t>do alto (ou baixo) dos nos meus 27 anos eu cravo aqui pra você:
-um dos grandes segredos pra ser cotidianamente feliz é ligar o foda-se pro que os outros pensam
-quer usar cachecol do harry potter, usa, bicho, foda-se, é a sua vida, se te faz feliz, vai com tudo</t>
-  </si>
-  <si>
-    <t>essa garota com aquele tweet só uniu ainda mais o fandom de harry potter hahahahahahahah https://t.co/8tj87dh0rl</t>
-  </si>
-  <si>
-    <t>top 3 filmes favoritos teus ? — pode incluir as sagas logo de harry potter, star wars e o rei leão. https://t.co/4au0hl8aww</t>
-  </si>
-  <si>
-    <t>separados por um harry potter https://t.co/ojeteu7wim</t>
-  </si>
-  <si>
-    <t>@kaylainee minha mochila é de harry potter e eu tenho 41! hahahahah</t>
-  </si>
-  <si>
-    <t>rt @brunnaclaudia: @fezepka aproveitando a oportunidade pra dizer que minha mãe faz tricô e sabe fazer cachecol do harry potter !!!! entre…</t>
-  </si>
-  <si>
-    <t>e essa menina que mexeu com um dos fandoms mais chatos que existem (harry potter) e me obrigou a concordar com eles pela primeira vez na vida</t>
-  </si>
-  <si>
-    <t>rt @jhonatanrened: se a pessoa usar um cachecol do harry potter no pescoço eu me apaixono automaticamente 👍🏼 https://t.co/g4kjmntlab</t>
-  </si>
-  <si>
-    <t>@tpzanetic esqueceu o mais óbvio:
-harry potter e o bordel do fogo encantado 
-(nome errado só pra aumentar o efeito cômico)</t>
-  </si>
-  <si>
-    <t>@netflixbrasil oi, cadê harry potter????</t>
-  </si>
-  <si>
-    <t>@larirgata aí não pode zuar só a parte do harry potter
-a do kpopper pode heushduah</t>
-  </si>
-  <si>
-    <t>rt @lopes33988137: eu devia ter lido harry potter em vez de ver os filmes</t>
-  </si>
-  <si>
-    <t>- vc já é formada e tem um emprego, tire esse cachecol do harry potter 😂
-- sou formada, tenho duas especializações, faço mestrado, tenho 2 empregos, faço trabalho voluntário e vou usar o que eu quiser 😠😠😠 *foto da pessoa com cachecol da grifinória*</t>
-  </si>
-  <si>
-    <t>vcs parece q so conhece harry potter favor ler outros livros</t>
-  </si>
-  <si>
-    <t>isso é real e oficial? https://t.co/bnzwi986lj</t>
-  </si>
-  <si>
-    <t>será que estou vivendo ou apenas esperando meu harry potter e a ordem da fênix edição capa dura chegar?</t>
-  </si>
-  <si>
-    <t>@parmaree 26 anos emprego estável e varinha do harry potter</t>
-  </si>
-  <si>
-    <t>mano eu vou ser médica formada cirurgiã 45 anos com minha roupa do harry potter vem tirar fdp https://t.co/xi91asvbtx</t>
-  </si>
-  <si>
-    <t>@dududuplat po man 2019 ainda foo fighterzero
-parece fã de harry potter, supera</t>
-  </si>
-  <si>
-    <t>rt @zparkjeon: pelo amor de deus minha ex professora de português você tem mais de 50 anos é formada quase aposentada divorciada e avó vist…</t>
-  </si>
-  <si>
-    <t>mano do céu vocês ficaram puto com esse tweet? kkkkkkkkkkkk
-tinha que ser fã de harry potter mesmo https://t.co/artsxkvwxz</t>
-  </si>
-  <si>
-    <t>vou ler harry potter pra minha irmã</t>
-  </si>
-  <si>
-    <t>rt @hemsexual: pelo amor de deus minha filha você tem 26 anos é formada e tem emprego estável usa o cachecol de harry potter e o que mais v…</t>
-  </si>
-  <si>
-    <t>30 anos e tudo q eu tenho é do harry potter https://t.co/zlstt2v6gd https://t.co/zhuyc6z6cw</t>
-  </si>
-  <si>
-    <t>- vc é fã de harry potter?
-- sim.
-- qual o maior herói da saga?
-- snape.
-- e vc é fã de harry potter?</t>
-  </si>
-  <si>
-    <t>e nossa, eu estou lendo harry potter pela primeira vez na minha vida e estou gostando demais. nunca critiquei hahahahah</t>
-  </si>
-  <si>
-    <t>hoje passou na tl uma usuária de crocs falando bosta de quem usa cachecol do harry potter. 
-usuária de crocs. 
-tá tudo errado nesse lugar.</t>
-  </si>
-  <si>
-    <t>@fezepka 26 anos, com emprego, tirando foto com o cachecol, bolsa, meia e moletom do harry potter na kings cross em londres, tudo pago com o dinheiro do meu trabalho. triste a beça com seu comentário sem noção kkk https://t.co/nuxq2vbkcc</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>só queria estar com 26 anos, formada, com emprego estável e um cachecol do harry potter no pescoço</t>
-  </si>
-  <si>
-    <t>@biaregina uai, mas o cachecol de harry potter foi comprado exatamente porque eu tenho um emprego estável que me propicia dinheiro pra comprar cachecol e várias outras coisas de harry potter</t>
-  </si>
-  <si>
-    <t>acho que vou com minha camiseta do harry potter</t>
-  </si>
-  <si>
-    <t>primeiro sobreviva ao avada kedavra, tente e ache as 7 horcrux, carregue o peso de ter que derrotar o maior bruxo das trevas sendo apenas criança/adolescente e depois vc vem me falar que harry potter é o menos importante da história</t>
-  </si>
-  <si>
-    <t>eu literalmente esperei minha vida inteira pra harry potter entrar na moda e eu conseguir comprar coisas tematicas entao se eu quiser usar todo o uniforme de hogwarts na rua eu vou sim azar</t>
-  </si>
-  <si>
-    <t>eu só queria uma namoradinha pra maratonar harry potter comigo, é pedir muito @ deus</t>
-  </si>
-  <si>
-    <t>nn existe filme melhor que harry potter &amp;amp; velozes e furiosos 😏😎</t>
-  </si>
-  <si>
-    <t>relendo harry potter. sou a própria hermione granger. https://t.co/hoadhexpsc</t>
-  </si>
-  <si>
-    <t>rt @luisaelias13: minha pulseirinha bonita de harry potter, quanto tempo! https://t.co/6uqzbhyenp</t>
-  </si>
-  <si>
-    <t>críticas a quem usa harry potter por ter 27 anos e estar formada😆. tenho 37 e sou pós graduada.aos 36 realizei o sonho d conhecer o parque da mônica em sp, fui c camisa da mônica e tirei mta foto c os personagens. aos 37 fui p o chile c mala dos vinagdores e usei mta coisa de hp</t>
-  </si>
-  <si>
-    <t>tirei seu patrono brasileiro é o louro josé!! https://t.co/ocysjept0t</t>
-  </si>
-  <si>
-    <t>sempre fui um fã do conteúdo do felipe neto, ainda mais quando produzia conteúdos relacionados ao harry potter, mas ultimamente ele tem perdido o foco do conteúdo dele misturando com assuntos e causa políticas.</t>
-  </si>
-  <si>
-    <t>sobre a treta do cachecol de harry potter: quem gostou bate palma, quem não gostou tá permitido seguir sendo cafona sem ficar se explicando na internet.</t>
-  </si>
-  <si>
-    <t>rt @caiofochetto: a semana está começando e só quero desejar coisas boas. por isso, desejo que vc escute esse #podcast especial #harrypotte…</t>
-  </si>
-  <si>
-    <t>rt @candido_art: @petitemonstre__ o que diferencia um cachecol do harry potter dos outros, se eu ver nem sei que é</t>
-  </si>
-  <si>
-    <t>meu primeiro livro de harry potter vai ser em inglês to muito chique</t>
-  </si>
-  <si>
-    <t>quer idolatrar alguém idolatra o harry potter o menino que sobreviveu ele sim vale a pena!</t>
-  </si>
-  <si>
-    <t>@petitemonstre__ o que diferencia um cachecol do harry potter dos outros, se eu ver nem sei que é</t>
-  </si>
-  <si>
-    <t>-acampamento de 48 anos do meu g.e
--tema: harry potter
--quadribol
--guaypacaré, coronel braga, oyaguara
--sonserina
--ganhamos em 1° lugar
-- nosso chefe era o anderson
--bases incríveis
--amigos incríveis
-quer um acampamento mais foda que esse????????</t>
-  </si>
-  <si>
-    <t>assistindo harry potter pela primeira vez na vida e queimando a língua por todas as vezes q debochei disso</t>
-  </si>
-  <si>
-    <t>rt @_brunarigobelli: @fezepka "ain eu sou adulta, eu não gosto de coisa de criança, eu sou muito fodona mesmo, harry potter?? pffff, infant…</t>
-  </si>
-  <si>
-    <t>@felipequeirozz_ exato! se eu quiser colocar um cachecol do harry potter, uma blusa das meninas super poderosas, uma pulseira do ben 10 e umas pantufas do bob esponja e sair assim na rua o problema é meeeeu!!! agora a roupa do outro o que tenho a ver</t>
-  </si>
-  <si>
-    <t>curiosidade q ninguém liga: a dubladora da alex eh a mesma da hermione de harry potter e da amy de b99 https://t.co/k5tppfpyz8</t>
-  </si>
-  <si>
-    <t>a semana está começando e só quero desejar coisas boas. por isso, desejo que vc escute esse #podcast especial #harrypotter pois tá bom mesmo. https://t.co/zeknnehcxx @micheli_nunes @_loucadosgatos_ @cirilo_becher #potterhead #cursedchild @cursedchildldn @cursedchildnyc</t>
-  </si>
-  <si>
-    <t>rt @fredsaragoca: fico tão feliz por ver os caloiros a acatarem ordens dadas por alunos mais velhos que fazem cosplay do harry potter com c…</t>
-  </si>
-  <si>
-    <t>@ludlindaaa exatamente!
-o bagulho ajudou e ajuda a vida de milhões de pessoas saca? tipo um porto seguro pra mina falar uma merda dessa
-quanto mais estabilidade financeira mais irei comprar coisas de harry potter</t>
-  </si>
-  <si>
-    <t>"qual é o nome daquele filme que tem harry potter?" 
-bro...</t>
-  </si>
-  <si>
-    <t>@pat_universe em que estância o sujeito usar um cachecol de harry potter vai atrapalhar na vida da mina??? meu deus do céu esse povo gosta de se intrometer na vida dos outros</t>
-  </si>
-  <si>
-    <t>ainda bem q já tenho todos meus livros de harry potter e to comprando uns de star wars... sei la né, depois do q aconteceu na bienal, podem querer censurar esses também</t>
-  </si>
-  <si>
-    <t>rt @pxnsymalfoysly_: @fezepka kjkkkk se eu fico 5 anos na faculdade pra depois conseguir um emprego, no meu primeiro salário eu me acabo em…</t>
-  </si>
-  <si>
-    <t>@allthelovegm tava muito barato as coisas! tipo... box do harry potter tava 90 lol por isso que comprei! os outros boxes estavam por 50 lol o "nós" é continuação do livro "ele" lol assim... bem putaria lmao mas ainda tá caro viu? pela qt de página lol</t>
-  </si>
-  <si>
-    <t>"você tem 26 anos, tire o cachecol de harry potter do pescoço"
-mas com 31 a j.k. tava escrevendo o negócio, desde que a pessoa não esteja comentendo nenhum crime, tá liberado usar
-só não recomendo porque tá esquentando agora ~</t>
-  </si>
-  <si>
-    <t>rt @peterjordan100: @arthurmoledoval @mcrivella ele deveria proibir também os livros do harry potter já que tem bruxaria.
-essa hq da marvel…</t>
-  </si>
-  <si>
-    <t>rt @grwngxr: pqp eu amo harry potter. porra essa saga é perfeita e me faz um bem enorme. serio, a gente deveria agradecer a jk todo dia por…</t>
-  </si>
-  <si>
-    <t>@woaaahhhhhhh pq nao pode manta de harry potter?</t>
-  </si>
-  <si>
-    <t>eu to a um fio de desistir da aula hoje e passar a tarde vendo harry potter</t>
-  </si>
-  <si>
-    <t>rt @jojopantys: já vi os filmes todos do harry potter umas 10 vezes e todas as vezes são como a primeira</t>
-  </si>
-  <si>
-    <t>se vcs levassem a serio coisas importantes do jeito q levaram aquele tweet do cachecol de harry potter o mundo seria um lugar melhor</t>
-  </si>
-  <si>
-    <t>rt @alltsoowell: esse tweet apareceu inúmeras vezes na timeline então minha opinião é: todo mundo irá se tornar um adulto e terá suas prior…</t>
-  </si>
-  <si>
-    <t>todos os dias agradeço por ter nascido numa época em que harry potter existia 
-meu deus eu adoro tanto essa saga</t>
-  </si>
-  <si>
-    <t>já perdi as esperanças na paula em relação a ela assistir harry potter</t>
-  </si>
-  <si>
-    <t>no dia que o netflix colocar todos os filmes do harry potter na plataforma,vai ser um dia histórico!
-mais a senhora @netflixbrasil não coloca!😔</t>
-  </si>
-  <si>
-    <t>@fezepka @mrtnsptr assim, o universo de harry potter é bem maior, mas amo as duas sagas iguais.</t>
-  </si>
-  <si>
-    <t>saudades quando as sagas em auge eram crepúsculo, divergente, jogos vorazes e harry potter, nervosismos pra sair os filmes, sdds</t>
-  </si>
-  <si>
-    <t>rt @adreamygirls: do que foi a primeira fic q vcs leram na vida? 
-a minha foi de harry potter k
-https://t.co/qe7ny1ybfz</t>
-  </si>
-  <si>
-    <t>que pessoa pau no cu, use o cachecol que você quiser. como se um cachecol de harry potter te fizesse menos ~adulta~. https://t.co/hpyhwi0hne</t>
-  </si>
-  <si>
-    <t>eu amo os filmes de harry potter demais.... mas por favor leiam os livros pra vcs verem a magia real de harry potter pqp eu amo mt</t>
-  </si>
-  <si>
-    <t>pensando que harry potter seria mt mais legal no formato série do q filme</t>
-  </si>
-  <si>
-    <t>se as pessoas te julgam porque com 26 anos cê quer usar um cachecol do harry potter eu imagino quando eu tiver 60 e ainda quiser usar blusinha da mulher maravilha
-mas é isso né, os outros julgam mas quem sabe o melhor pra você é só você
-diga um belo foda-se</t>
-  </si>
-  <si>
-    <t>maluco, eu posso ter 80 anos, se eu tivesse todas as coisas que o caco tem sobre harry potter eu ia até na missa com elas https://t.co/or4l84woej</t>
-  </si>
-  <si>
-    <t>meu box de harry potter tá sendo entregue e eu tô em aula
-aaaaah</t>
-  </si>
-  <si>
-    <t>@louieponto para mim,ela é fofa sem óculos e,com eles,ela é o harry potter</t>
-  </si>
-  <si>
-    <t>harry potter e o enigma do porque eu tenho uns tesao avulso no meio do dia</t>
-  </si>
-  <si>
-    <t>só queria mostrar meu box do harry potter que comprei na bienal 🥰 https://t.co/sc74wphjhc</t>
-  </si>
-  <si>
-    <t>eu toda entusiasmada na casa da minha avó para fazer uma maratona dos filmes do harry potter quando ligo o computador e percebo que ele não têm a cena para pôr o dvd!!!!</t>
-  </si>
-  <si>
-    <t>deve chegar hoje o box do harry potter, sou besta demais mesmo</t>
-  </si>
-  <si>
-    <t>rt @eilishstraus: melhor filme da saga harry potter sim https://t.co/m5x9y1n2hr</t>
-  </si>
-  <si>
-    <t>tirei seu patrono brasileiro é uma capivara!!
-qual animal bem brasileiro seria seu patrono de "harry potter"? https://t.co/jolqhbnxik</t>
-  </si>
-  <si>
-    <t>qual animal bem brasileiro seria seu patrono de "harry potter"? https://t.co/j4v2uxkqw7 via @luizougui</t>
-  </si>
-  <si>
-    <t>🥀 i'll always be there for you - au!text hinny
-aquele em que harry potter e ginny weasley "eram apaixonados" quando crianças
-ou
-aquele em que harry potter e ginny weasley descobrem estar apaixonados quando maiores https://t.co/fm3ibhyu7u</t>
-  </si>
-  <si>
-    <t>tirei robin e cedric diggory! todo mundo é uma mistura de personagens de "stranger things" e "harry potter" — aqui está a sua tirei robin e cedric diggory! https://t.co/gnydysxtnt</t>
-  </si>
-  <si>
-    <t>eu ontem mostrando minha tatuagem de harry potter pra família com 21 anos na fuça https://t.co/rj42my7y63</t>
-  </si>
-  <si>
-    <t>eu trabalho e pago minhas contas se eu quiser eu enfio o cachecol do harry potter no meu cy https://t.co/sn8yeolfbu</t>
-  </si>
-  <si>
-    <t>sempre que eu vejo coisa desse filme só consigo pensar que alguém assistiu a y tu mamá también do cuarón e pensou taí esse cara tem tudo a ver com a saga harry potter (e realmente tinha mas como chegar a isso a partir do gael garcia bernal e do diego luna se pegando) https://t.co/fk7vpryla3</t>
-  </si>
-  <si>
-    <t>@netflixbrasil nome e harry potter .. coloque no catálogo 🙄</t>
-  </si>
-  <si>
-    <t>rt @omelete: balde de água fria! novo projeto de harry potter e a criança amaldiçoada é livro de bastidores: https://t.co/r4kecndlz2 https:…</t>
-  </si>
-  <si>
-    <t>@b3ablanco eu tenho 24 anos e só não uso cachecol de harry potter por falta de grana. mas no meu celular o toque é a música da digievolução de digimon um e o beep do whats app é o dos power rangers (aquele velhão).</t>
-  </si>
-  <si>
-    <t>o jovem tem uma necessidade de auto afirmação muito grande né? mas quem nunca foi assim? quem nunca buscou uma tribo, uma classificação
-mas o legal de envelhecer é que uma hora tu caga pra isso, mete o cachecol do harry potter mesmo, compra roupinha pro pet e fdc</t>
-  </si>
-  <si>
-    <t>rt @jucssszzz: honestly eu só acabar o curso, ter uma vida estável sendo bem sucedida, ter filhos e um cão. fazer churrascadas ao fim de se…</t>
-  </si>
-  <si>
-    <t>se eu quero ganhar dinheiro a vida adulta é pra comprar tudo que não consegui ter na adolescência, tipo cachecol de harry potter. https://t.co/vugmivoxrc</t>
-  </si>
-  <si>
-    <t>"eu nunca vou fechar essa porta"
-- daniel radcliffe sobre um dia retornar para interpretar harry potter nos cinemas.</t>
-  </si>
-  <si>
-    <t>rt @modofabiomax: harry potter e o enigma do oi sumida'</t>
-  </si>
-  <si>
-    <t>@netflixbrasil saudade do que ainda a gente não viveu, saga inteira do harry potter na netflix.</t>
-  </si>
-  <si>
-    <t>rt @tpzanetic: o nome de algumas bandas indies brasileiras dariam ótimos subtítulos para livros do harry potter
-- harry potter e a banda m…</t>
-  </si>
-  <si>
-    <t>eu trabalho pra comprar tudo de harry potter que eu encontrar pela frente. https://t.co/26ic7xj6ch</t>
-  </si>
-  <si>
-    <t>rt @durdntyler: harry potter: é uma metáfora sobre nazismo, racismo e amor ao próximo
-percy jackson: fala sobre transtornos psicológicos e…</t>
-  </si>
-  <si>
-    <t>- você é fã de harry potter?
-- sim
-- você gosta da hermione com o rony?
-- não, prefiro ela e o harry
-- e vc é fã de harry potter?</t>
-  </si>
-  <si>
-    <t>rt @mandellivaleria: não existe nao gostar de harry potter
-existe nunca ter visto harry potter ou fingir que não gosta de harry potter</t>
-  </si>
-  <si>
-    <t>- é fã de harry potter?
-- sim
-- gosta do harry?
-- não 
-- e é fã de harry potter?</t>
-  </si>
-  <si>
-    <t>tirei seu patrono brasileiro é um vira lata caramelo!! qual animal bem brasileiro seria seu patrono de "harry potter"? tirei seu patrono brasileiro é um vira lata caramelo!! https://t.co/ggcmv6qzil</t>
+cartas para julieta https://t.co/e11ohukicg</t>
+  </si>
+  <si>
+    <t>bonnie wright, com 28 aninhos, não fez nada muito relevante após harry potter. trabalhou com moda, foi ativista de uma ong e é isso aí. seu último trabalho foi o filme "who killed nelson nutmeg?", em 2015. acredito que nem ela assistiu. https://t.co/ai7egp70t3</t>
+  </si>
+  <si>
+    <t>rt @rollingstonebr: animais fantásticos 3, spin-off da franquia harry potter, foi adiado em um ano. agora, a previsão é que chegue aos cine…</t>
+  </si>
+  <si>
+    <t>hauhauhauhauhau
+tirei seu patrono brasileiro é uma capivara!! https://t.co/rm8ajgttqn</t>
+  </si>
+  <si>
+    <t>eu tenho um bau de harry potter</t>
+  </si>
+  <si>
+    <t>@dessamore mas pronto. tô pagando minhas contas, uso o que eu quiser e se achar ruim vou vestida de harry potter da cabeça aos pés</t>
+  </si>
+  <si>
+    <t>@redetelecine harry potter, no qual estou esperando você colocar todos da série, senhorita</t>
+  </si>
+  <si>
+    <t>se eu ler harry potter uma coruja vai sair do meu cú?! não! este livro é um livro divertido como o peter (ei nerd)falou no seu canal todos que estão criticando esse ato do felipe na minha opinião estão erradas!eu mesmo quando fui na bienal peguei os fabulosos vingadores e aquaman</t>
+  </si>
+  <si>
+    <t>sinto me orgulhosa por estar a conseguir ver e estar gostar de harry potter e estar com interesse no filme
+(tinha uma ideia um pouco errada dos filmes ahhahaha)</t>
+  </si>
+  <si>
+    <t>preparamos um teste que é mais “diz-me quem és no verão, dir-te-ei a que cheiras”. escolha os seus favoritos da estação e revelamos a que família olfativa pertence nos próximos meses. estilo chapéu mágico do harry potter, mas vogue e com perfumes. portugues de portugal é tão fofo</t>
+  </si>
+  <si>
+    <t>gente eu tava falando com uns mini adolescentes da minha acad
+(uns entre 12 e 13 anos)
+e eles nunca, repito, nunca viram
+harry potter e crepúsculo 
+virei a tiazona n creio</t>
+  </si>
+  <si>
+    <t>obrigada telecine por estar passando harry potter. era tudo que eu precisava hoje ❤</t>
+  </si>
+  <si>
+    <t>devo ser o único que nunca viu harry potter kkk</t>
+  </si>
+  <si>
+    <t>rt @remo_aluado: minha amiga n quer mais ler harry potter pq tomou um spoiler e descobriu q harry não fica com hermione...
+parece até piad…</t>
+  </si>
+  <si>
+    <t>o primeiro livro do harry potter foi lançado no br em 1999 e o primeiro filme em 2001. então quem tem por volta dos 30 anos literalmente cresceu junto com o personagem.
+e vá tomar no cu esse povinho da geração z que se acha cool ou niilista demais pra ser fã de qualquer coisa https://t.co/3haskmu8xw</t>
+  </si>
+  <si>
+    <t>*homem-aranha a dar na televisão*
+eu: está a dar o harry potter outra vez??</t>
+  </si>
+  <si>
+    <t>maratonar harry potter pela milésima vez</t>
+  </si>
+  <si>
+    <t>✨enquete do roniquito✨
+qual dos atores abaixo você mais desejaria ver atuando com o seu respectivo papel nos filmes de harry potter?</t>
+  </si>
+  <si>
+    <t>a adulta que usa roupa de harry potter https://t.co/ziaom92ooa</t>
+  </si>
+  <si>
+    <t>não sei como lidar com essa maluk que trabalha comigo:
+- eu editando um jornal da empresa (uma ajuda que estou fazendo pro rh)
+- vou no banheiro
+- volto esse coralho coloca o funk do harry potter nas telas da empresa
+- por isso que ti fica virando piada sifude</t>
+  </si>
+  <si>
+    <t>@hatuna_batata simmm. eu já vi tantas vezes que já sei todas as falas? sim. mas é harry potter 💁🏽‍♀️</t>
+  </si>
+  <si>
+    <t>cadê a minha morena para a gente maratonar harry potter nessa semana? 😓</t>
+  </si>
+  <si>
+    <t>cheia de dever pra fazer e eu querendo maratonar harry potter</t>
+  </si>
+  <si>
+    <t>toda vez que eu assisto harry potter, eu sempre choro 😂</t>
+  </si>
+  <si>
+    <t>meu deus.... vou dizer smp 
+a louie é mais harry potter do q o proprio harry potter https://t.co/opmsnkwqpi</t>
+  </si>
+  <si>
+    <t>felipe neto irreconhecível trajando cachecol do harry potter nas cores do coringa.</t>
+  </si>
+  <si>
+    <t>incrível como a louie consegue ser mais harry potter doq o próprio https://t.co/yinuriw7lh</t>
+  </si>
+  <si>
+    <t>harry potter aponta sua varinha e grita: #askfandoms</t>
+  </si>
+  <si>
+    <t>@bolsoneas harry potter. sinceramente, muito melhor que as duas imagens aí brigado de nada.</t>
+  </si>
+  <si>
+    <t>nunca mais vejo harry potter hogwarts me faz lembrar da embraer</t>
+  </si>
+  <si>
+    <t>todo menino feio de óculos com armação arredondada precisa ser chamado de harry potter, gente?</t>
+  </si>
+  <si>
+    <t>rt @kochsb_: por mim, todo fã de harry potter deveria conhecer a arma escarlate</t>
+  </si>
+  <si>
+    <t>cadê harry potter netflix? #askfandoms</t>
+  </si>
+  <si>
+    <t>a desgraça tem um rosto que parece que foi moldado pelos deuses é inteligente para caralho e ainda é fã de harry potter.</t>
+  </si>
+  <si>
+    <t>"26 anos usando cachecol de harry potter" por mim eu trabalhava com o gorrinho da louise belcher</t>
+  </si>
+  <si>
+    <t>tô assistindo harry potter e a câmara secreta né
+bateu uma emoção, uma vontade de chorar do nada
+pqp eu amo tanto meu harry potter</t>
+  </si>
+  <si>
+    <t>quem é o seu fav em cada situação:
+freddie mercury
+katy perry
+lorde
+imagine dragons
+one direction
+bastille
+tom holland e rdj
+brie larson 
+harry potter
+katniss
+homem de ferro
+capitã marvel
+mamma mia
+firework
+deixa um emoji q te mando na dm</t>
+  </si>
+  <si>
+    <t>qual a pira de vcs em fica zuando harry potter porra
+negócio inofensivo pra caralho ensina umas coisinha bonita e é super legal de ler na adolescência ou em qualquer momento da vida
+mas o jovem chato tem q querer dar pitaco em tudo que é de boa</t>
+  </si>
+  <si>
+    <t>contente por ter posto a minha namorada a ver harry potter</t>
+  </si>
+  <si>
+    <t>eu vou estar com 60 anos deitado com meu cachecol do harry potter e se reclamar eu coloco meu lençol de hogwarts</t>
+  </si>
+  <si>
+    <t>baile temático do universo harry potter se despede do inverno e comemora 10 anos do shinobi em curitiba - barulho curitiba https://t.co/a9kfslfz3h</t>
+  </si>
+  <si>
+    <t>a menina faz uma piada com esse bendito cachecol de harry potter (que todo mundo faz com anime, com bandas de 90’/00’ diga-se de passagem) e os fãs adultos no cc da mina: https://t.co/yrh5kpynbs</t>
+  </si>
+  <si>
+    <t>animais fantásticos 3, spin-off da franquia harry potter, foi adiado em um ano. agora, a previsão é que chegue aos cinemas em dezembro de 2021
+https://t.co/zrtxjzuoje</t>
+  </si>
+  <si>
+    <t>minha chefe me pediu pra participar de uma entrevista de uma menina nova que talvez possa trabalhar no marketing junto comigo. 
+vou perguntar se ela gosta de harry potter. você consegue entender o caráter de uma pessoa sabendo se ela gosta ou não de harry potter.</t>
+  </si>
+  <si>
+    <t>assistido harry potter pela milésima vez</t>
+  </si>
+  <si>
+    <t>rt @apathy_syndrome: @annadixit @b3ablanco @gabicolicigno o jovem é assim porque ainda não tem maturidade pra entender que a gente não tem…</t>
+  </si>
+  <si>
+    <t>@emynogi é harry potter
+fisica pode ficar para outra hora</t>
   </si>
 </sst>
 </file>
@@ -1237,11 +1664,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A399"/>
+  <dimension ref="A1:A601"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1265,32 +1690,32 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -1325,17 +1750,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
@@ -1350,17 +1775,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -1370,17 +1795,17 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -1390,42 +1815,42 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -1435,122 +1860,122 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
@@ -1560,17 +1985,17 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
@@ -1580,37 +2005,37 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
@@ -1620,82 +2045,82 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
@@ -1705,82 +2130,82 @@
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
@@ -1790,202 +2215,202 @@
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
@@ -1995,47 +2420,47 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
@@ -2045,17 +2470,17 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
@@ -2065,27 +2490,27 @@
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
@@ -2095,37 +2520,37 @@
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
@@ -2135,257 +2560,257 @@
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>3</v>
+        <v>98</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>92</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
@@ -2395,62 +2820,62 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -2460,57 +2885,57 @@
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
@@ -2520,67 +2945,67 @@
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
@@ -2590,207 +3015,207 @@
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>108</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>37</v>
+        <v>125</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>2</v>
+        <v>128</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>2</v>
+        <v>129</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
@@ -2800,187 +3225,187 @@
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>118</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>125</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>7</v>
+        <v>148</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
@@ -2990,177 +3415,177 @@
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>137</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>1</v>
+        <v>163</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>141</v>
+        <v>8</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>1</v>
+        <v>167</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
@@ -3170,47 +3595,47 @@
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>144</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
@@ -3220,27 +3645,1037 @@
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>146</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>147</v>
+        <v>3</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>149</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3250,38 +4685,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A301"/>
+  <dimension ref="A1:A401"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -3291,157 +4723,157 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>155</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
@@ -3451,12 +4883,12 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
@@ -3466,277 +4898,277 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>162</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>7</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>172</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>29</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>37</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
@@ -3746,97 +5178,97 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>180</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>184</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>1</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
@@ -3846,22 +5278,22 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>3</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
@@ -3871,22 +5303,22 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
@@ -3896,22 +5328,22 @@
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>3</v>
+        <v>284</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>185</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
@@ -3921,137 +5353,137 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>186</v>
+        <v>38</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>187</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2</v>
+        <v>287</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>1</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>37</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>189</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>190</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>192</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>11</v>
+        <v>292</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>193</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>2</v>
+        <v>293</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>1</v>
+        <v>294</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
@@ -4061,52 +5493,52 @@
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>297</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>2</v>
+        <v>298</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>196</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>127</v>
+        <v>299</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
@@ -4116,222 +5548,222 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>197</v>
+        <v>41</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>198</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>199</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>200</v>
+        <v>52</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>7</v>
+        <v>301</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>201</v>
+        <v>302</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>202</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>3</v>
+        <v>303</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>7</v>
+        <v>305</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>208</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>209</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>37</v>
+        <v>306</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>210</v>
+        <v>37</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>2</v>
+        <v>307</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>7</v>
+        <v>308</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>9</v>
+        <v>310</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>6</v>
+        <v>312</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>3</v>
+        <v>313</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
@@ -4341,137 +5773,137 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>1</v>
+        <v>314</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>213</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>9</v>
+        <v>315</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>214</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>37</v>
+        <v>316</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>216</v>
+        <v>56</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1</v>
+        <v>317</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>3</v>
+        <v>318</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>217</v>
+        <v>319</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>219</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
@@ -4486,202 +5918,202 @@
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>1</v>
+        <v>321</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>29</v>
+        <v>322</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>15</v>
+        <v>323</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>220</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>1</v>
+        <v>324</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>2</v>
+        <v>325</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>7</v>
+        <v>326</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>221</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>127</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>4</v>
+        <v>327</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>224</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>225</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>226</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>7</v>
+        <v>328</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>7</v>
+        <v>329</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>227</v>
+        <v>330</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
@@ -4691,77 +6123,577 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>7</v>
+        <v>331</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>72</v>
+        <v>257</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>229</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>230</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>2</v>
+        <v>332</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>7</v>
+        <v>333</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>7</v>
+        <v>334</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>1</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
